--- a/DeltaProjects.xlsx
+++ b/DeltaProjects.xlsx
@@ -1,18 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\RMO.CEGIS\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{3E00B69C-746A-4D12-81F5-C4A99F553214}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ProjectList" sheetId="1" r:id="rId1"/>
+    <sheet name="Work" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -29,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="408" uniqueCount="255">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="579" uniqueCount="265">
   <si>
     <t>datagroupid</t>
   </si>
@@ -46,9 +48,6 @@
     <t>projectcode</t>
   </si>
   <si>
-    <t>datasource</t>
-  </si>
-  <si>
     <t>datasourcetype</t>
   </si>
   <si>
@@ -794,12 +793,45 @@
   </si>
   <si>
     <t>Documents/80_Project/7hotspot/BDP_2100_V2_InvestmentPlan_80_Project_Part80.pdf</t>
+  </si>
+  <si>
+    <t>ProjectName</t>
+  </si>
+  <si>
+    <t>KeyObjective</t>
+  </si>
+  <si>
+    <t>EstimateCost</t>
+  </si>
+  <si>
+    <t>Hotspot</t>
+  </si>
+  <si>
+    <t>District</t>
+  </si>
+  <si>
+    <t>X,Y WGS84</t>
+  </si>
+  <si>
+    <t>Upazila</t>
+  </si>
+  <si>
+    <t>Project intervention/ Technical assessment</t>
+  </si>
+  <si>
+    <t>Project duration</t>
+  </si>
+  <si>
+    <t>ResponsibleAgencies</t>
+  </si>
+  <si>
+    <t>ImplementingAgencies</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -819,7 +851,7 @@
       <name val="Arial"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -832,8 +864,20 @@
         <bgColor indexed="0"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
+        <bgColor indexed="0"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="3">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -871,12 +915,40 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="22"/>
+      </left>
+      <right style="thin">
+        <color indexed="22"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="22"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -887,10 +959,20 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal_Sheet1" xfId="1"/>
+    <cellStyle name="Normal_Sheet1" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1201,25 +1283,26 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H81"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:B1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="22.85546875" customWidth="1"/>
-    <col min="2" max="2" width="18.7109375" customWidth="1"/>
-    <col min="3" max="3" width="18.5703125" customWidth="1"/>
-    <col min="5" max="5" width="20.5703125" customWidth="1"/>
-    <col min="6" max="6" width="54.85546875" customWidth="1"/>
-    <col min="7" max="7" width="15.5703125" customWidth="1"/>
-    <col min="8" max="8" width="82.28515625" customWidth="1"/>
+    <col min="1" max="1" width="10.77734375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.21875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.88671875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="54.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.77734375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="82.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1236,21 +1319,21 @@
         <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="2">
         <v>1</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C2" s="2">
         <v>1</v>
@@ -1259,24 +1342,24 @@
         <v>1</v>
       </c>
       <c r="E2" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="F2" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="G2" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H2" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="H2" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="2">
         <v>1</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C3" s="2">
         <v>2</v>
@@ -1285,24 +1368,24 @@
         <v>2</v>
       </c>
       <c r="E3" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F3" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="G3" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H3" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="G3" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="H3" s="3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
         <v>1</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C4" s="2">
         <v>3</v>
@@ -1311,24 +1394,24 @@
         <v>3</v>
       </c>
       <c r="E4" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F4" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="F4" s="3" t="s">
+      <c r="G4" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H4" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="G4" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="H4" s="3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" s="2">
         <v>1</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C5" s="2">
         <v>4</v>
@@ -1337,24 +1420,24 @@
         <v>4</v>
       </c>
       <c r="E5" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F5" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="F5" s="3" t="s">
+      <c r="G5" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H5" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="G5" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="H5" s="3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A6" s="2">
         <v>1</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C6" s="2">
         <v>5</v>
@@ -1363,24 +1446,24 @@
         <v>5</v>
       </c>
       <c r="E6" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="F6" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="F6" s="3" t="s">
+      <c r="G6" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H6" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="G6" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="H6" s="3" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A7" s="2">
         <v>1</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C7" s="2">
         <v>6</v>
@@ -1389,24 +1472,24 @@
         <v>6</v>
       </c>
       <c r="E7" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="F7" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="F7" s="3" t="s">
+      <c r="G7" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H7" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="G7" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="H7" s="3" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" s="2">
         <v>1</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C8" s="2">
         <v>7</v>
@@ -1415,24 +1498,24 @@
         <v>7</v>
       </c>
       <c r="E8" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="F8" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="F8" s="3" t="s">
+      <c r="G8" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H8" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="G8" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="H8" s="3" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" s="2">
         <v>1</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C9" s="2">
         <v>8</v>
@@ -1441,24 +1524,24 @@
         <v>8</v>
       </c>
       <c r="E9" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="F9" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="F9" s="3" t="s">
+      <c r="G9" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H9" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="G9" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="H9" s="3" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    </row>
+    <row r="10" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A10" s="2">
         <v>1</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C10" s="2">
         <v>9</v>
@@ -1467,24 +1550,24 @@
         <v>9</v>
       </c>
       <c r="E10" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="F10" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="F10" s="3" t="s">
+      <c r="G10" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H10" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="G10" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="H10" s="3" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" s="2">
         <v>1</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C11" s="2">
         <v>10</v>
@@ -1493,24 +1576,24 @@
         <v>10</v>
       </c>
       <c r="E11" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="F11" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="F11" s="3" t="s">
+      <c r="G11" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H11" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="G11" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="H11" s="3" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    </row>
+    <row r="12" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A12" s="2">
         <v>1</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C12" s="2">
         <v>11</v>
@@ -1519,24 +1602,24 @@
         <v>11</v>
       </c>
       <c r="E12" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="F12" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="F12" s="3" t="s">
+      <c r="G12" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H12" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="G12" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="H12" s="3" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    </row>
+    <row r="13" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A13" s="2">
         <v>1</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C13" s="2">
         <v>12</v>
@@ -1545,24 +1628,24 @@
         <v>12</v>
       </c>
       <c r="E13" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="F13" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="F13" s="3" t="s">
+      <c r="G13" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H13" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="G13" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="H13" s="3" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    </row>
+    <row r="14" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A14" s="2">
         <v>1</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C14" s="2">
         <v>13</v>
@@ -1571,24 +1654,24 @@
         <v>13</v>
       </c>
       <c r="E14" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="F14" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="F14" s="3" t="s">
+      <c r="G14" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H14" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="G14" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="H14" s="3" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" s="2">
         <v>1</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C15" s="2">
         <v>14</v>
@@ -1597,24 +1680,24 @@
         <v>14</v>
       </c>
       <c r="E15" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="F15" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="F15" s="3" t="s">
+      <c r="G15" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H15" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="G15" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="H15" s="3" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    </row>
+    <row r="16" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A16" s="2">
         <v>1</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C16" s="2">
         <v>15</v>
@@ -1623,24 +1706,24 @@
         <v>15</v>
       </c>
       <c r="E16" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="F16" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="F16" s="3" t="s">
+      <c r="G16" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H16" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="G16" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="H16" s="3" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    </row>
+    <row r="17" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A17" s="2">
         <v>1</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C17" s="2">
         <v>16</v>
@@ -1649,24 +1732,24 @@
         <v>16</v>
       </c>
       <c r="E17" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="F17" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="F17" s="3" t="s">
+      <c r="G17" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H17" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="G17" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="H17" s="3" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    </row>
+    <row r="18" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A18" s="2">
         <v>1</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C18" s="2">
         <v>17</v>
@@ -1675,24 +1758,24 @@
         <v>17</v>
       </c>
       <c r="E18" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="F18" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="F18" s="3" t="s">
+      <c r="G18" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H18" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="G18" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="H18" s="3" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A19" s="2">
         <v>1</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C19" s="2">
         <v>18</v>
@@ -1701,24 +1784,24 @@
         <v>18</v>
       </c>
       <c r="E19" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="F19" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="F19" s="3" t="s">
+      <c r="G19" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H19" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="G19" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="H19" s="3" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A20" s="2">
         <v>1</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C20" s="2">
         <v>19</v>
@@ -1727,24 +1810,24 @@
         <v>19</v>
       </c>
       <c r="E20" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="F20" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="F20" s="3" t="s">
+      <c r="G20" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H20" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="G20" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="H20" s="3" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    </row>
+    <row r="21" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A21" s="2">
         <v>1</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C21" s="2">
         <v>20</v>
@@ -1753,24 +1836,24 @@
         <v>20</v>
       </c>
       <c r="E21" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="F21" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="F21" s="3" t="s">
+      <c r="G21" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H21" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="G21" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="H21" s="3" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A22" s="2">
         <v>1</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C22" s="2">
         <v>21</v>
@@ -1779,24 +1862,24 @@
         <v>21</v>
       </c>
       <c r="E22" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="F22" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="F22" s="3" t="s">
+      <c r="G22" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H22" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="G22" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="H22" s="3" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    </row>
+    <row r="23" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A23" s="2">
         <v>1</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C23" s="2">
         <v>22</v>
@@ -1805,24 +1888,24 @@
         <v>22</v>
       </c>
       <c r="E23" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="F23" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="F23" s="3" t="s">
+      <c r="G23" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H23" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="G23" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="H23" s="3" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A24" s="2">
         <v>1</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C24" s="2">
         <v>23</v>
@@ -1831,24 +1914,24 @@
         <v>23</v>
       </c>
       <c r="E24" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="F24" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="F24" s="3" t="s">
+      <c r="G24" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H24" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="G24" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="H24" s="3" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+    </row>
+    <row r="25" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A25" s="2">
         <v>2</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C25" s="2">
         <v>1</v>
@@ -1857,24 +1940,24 @@
         <v>24</v>
       </c>
       <c r="E25" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="F25" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="F25" s="3" t="s">
+      <c r="G25" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H25" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="G25" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="H25" s="3" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A26" s="2">
         <v>2</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C26" s="2">
         <v>2</v>
@@ -1883,24 +1966,24 @@
         <v>25</v>
       </c>
       <c r="E26" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="F26" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="F26" s="3" t="s">
+      <c r="G26" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H26" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="G26" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="H26" s="3" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A27" s="2">
         <v>2</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C27" s="2">
         <v>3</v>
@@ -1909,24 +1992,24 @@
         <v>26</v>
       </c>
       <c r="E27" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="F27" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="F27" s="3" t="s">
+      <c r="G27" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H27" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="G27" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="H27" s="3" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+    </row>
+    <row r="28" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A28" s="2">
         <v>2</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C28" s="2">
         <v>4</v>
@@ -1935,24 +2018,24 @@
         <v>27</v>
       </c>
       <c r="E28" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="F28" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="F28" s="3" t="s">
+      <c r="G28" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H28" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="G28" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="H28" s="3" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+    </row>
+    <row r="29" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A29" s="2">
         <v>2</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C29" s="2">
         <v>5</v>
@@ -1961,24 +2044,24 @@
         <v>28</v>
       </c>
       <c r="E29" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="F29" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="F29" s="3" t="s">
+      <c r="G29" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H29" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="G29" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="H29" s="3" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A30" s="2">
         <v>2</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C30" s="2">
         <v>6</v>
@@ -1987,24 +2070,24 @@
         <v>29</v>
       </c>
       <c r="E30" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="F30" s="3" t="s">
         <v>95</v>
       </c>
-      <c r="F30" s="3" t="s">
+      <c r="G30" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H30" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="G30" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="H30" s="3" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+    </row>
+    <row r="31" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A31" s="2">
         <v>2</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C31" s="2">
         <v>7</v>
@@ -2013,24 +2096,24 @@
         <v>30</v>
       </c>
       <c r="E31" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="F31" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="F31" s="3" t="s">
+      <c r="G31" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H31" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="G31" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="H31" s="3" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    </row>
+    <row r="32" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A32" s="2">
         <v>3</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C32" s="2">
         <v>1</v>
@@ -2039,24 +2122,24 @@
         <v>31</v>
       </c>
       <c r="E32" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="F32" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="F32" s="3" t="s">
+      <c r="G32" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H32" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="G32" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="H32" s="3" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    </row>
+    <row r="33" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A33" s="2">
         <v>3</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C33" s="2">
         <v>2</v>
@@ -2065,24 +2148,24 @@
         <v>32</v>
       </c>
       <c r="E33" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="F33" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="F33" s="3" t="s">
+      <c r="G33" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H33" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="G33" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="H33" s="3" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    </row>
+    <row r="34" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A34" s="2">
         <v>3</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C34" s="2">
         <v>3</v>
@@ -2091,24 +2174,24 @@
         <v>33</v>
       </c>
       <c r="E34" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="F34" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="F34" s="3" t="s">
+      <c r="G34" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H34" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="G34" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="H34" s="3" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    </row>
+    <row r="35" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A35" s="2">
         <v>3</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C35" s="2">
         <v>4</v>
@@ -2117,24 +2200,24 @@
         <v>34</v>
       </c>
       <c r="E35" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="F35" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="F35" s="3" t="s">
+      <c r="G35" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H35" s="3" t="s">
         <v>112</v>
       </c>
-      <c r="G35" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="H35" s="3" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    </row>
+    <row r="36" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A36" s="2">
         <v>3</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C36" s="2">
         <v>5</v>
@@ -2143,24 +2226,24 @@
         <v>35</v>
       </c>
       <c r="E36" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="F36" s="3" t="s">
         <v>114</v>
       </c>
-      <c r="F36" s="3" t="s">
+      <c r="G36" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H36" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="G36" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="H36" s="3" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    </row>
+    <row r="37" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A37" s="2">
         <v>3</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C37" s="2">
         <v>6</v>
@@ -2169,24 +2252,24 @@
         <v>36</v>
       </c>
       <c r="E37" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="F37" s="3" t="s">
         <v>117</v>
       </c>
-      <c r="F37" s="3" t="s">
+      <c r="G37" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H37" s="3" t="s">
         <v>118</v>
       </c>
-      <c r="G37" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="H37" s="3" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    </row>
+    <row r="38" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A38" s="2">
         <v>3</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C38" s="2">
         <v>7</v>
@@ -2195,24 +2278,24 @@
         <v>37</v>
       </c>
       <c r="E38" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="F38" s="3" t="s">
         <v>120</v>
       </c>
-      <c r="F38" s="3" t="s">
+      <c r="G38" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H38" s="3" t="s">
         <v>121</v>
       </c>
-      <c r="G38" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="H38" s="3" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    </row>
+    <row r="39" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A39" s="2">
         <v>3</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C39" s="2">
         <v>8</v>
@@ -2221,24 +2304,24 @@
         <v>38</v>
       </c>
       <c r="E39" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="F39" s="3" t="s">
         <v>123</v>
       </c>
-      <c r="F39" s="3" t="s">
+      <c r="G39" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H39" s="3" t="s">
         <v>124</v>
       </c>
-      <c r="G39" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="H39" s="3" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    </row>
+    <row r="40" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A40" s="2">
         <v>3</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C40" s="2">
         <v>9</v>
@@ -2247,24 +2330,24 @@
         <v>39</v>
       </c>
       <c r="E40" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="F40" s="3" t="s">
         <v>126</v>
       </c>
-      <c r="F40" s="3" t="s">
+      <c r="G40" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H40" s="3" t="s">
         <v>127</v>
       </c>
-      <c r="G40" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="H40" s="3" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A41" s="2">
         <v>3</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C41" s="2">
         <v>10</v>
@@ -2273,24 +2356,24 @@
         <v>40</v>
       </c>
       <c r="E41" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="F41" s="3" t="s">
         <v>129</v>
       </c>
-      <c r="F41" s="3" t="s">
+      <c r="G41" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H41" s="3" t="s">
         <v>130</v>
       </c>
-      <c r="G41" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="H41" s="3" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    </row>
+    <row r="42" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A42" s="2">
         <v>3</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C42" s="2">
         <v>11</v>
@@ -2299,24 +2382,24 @@
         <v>41</v>
       </c>
       <c r="E42" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="F42" s="3" t="s">
         <v>132</v>
       </c>
-      <c r="F42" s="3" t="s">
+      <c r="G42" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H42" s="3" t="s">
         <v>133</v>
       </c>
-      <c r="G42" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="H42" s="3" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    </row>
+    <row r="43" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A43" s="2">
         <v>3</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C43" s="2">
         <v>12</v>
@@ -2325,24 +2408,24 @@
         <v>42</v>
       </c>
       <c r="E43" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="F43" s="3" t="s">
         <v>135</v>
       </c>
-      <c r="F43" s="3" t="s">
+      <c r="G43" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H43" s="3" t="s">
         <v>136</v>
       </c>
-      <c r="G43" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="H43" s="3" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+    </row>
+    <row r="44" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A44" s="2">
         <v>4</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C44" s="2">
         <v>1</v>
@@ -2351,24 +2434,24 @@
         <v>43</v>
       </c>
       <c r="E44" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="F44" s="3" t="s">
         <v>139</v>
       </c>
-      <c r="F44" s="3" t="s">
+      <c r="G44" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H44" s="3" t="s">
         <v>140</v>
       </c>
-      <c r="G44" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="H44" s="3" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+    </row>
+    <row r="45" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A45" s="2">
         <v>4</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C45" s="2">
         <v>2</v>
@@ -2377,24 +2460,24 @@
         <v>44</v>
       </c>
       <c r="E45" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="F45" s="3" t="s">
         <v>142</v>
       </c>
-      <c r="F45" s="3" t="s">
+      <c r="G45" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H45" s="3" t="s">
         <v>143</v>
       </c>
-      <c r="G45" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="H45" s="3" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+    </row>
+    <row r="46" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A46" s="2">
         <v>4</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C46" s="2">
         <v>3</v>
@@ -2403,24 +2486,24 @@
         <v>45</v>
       </c>
       <c r="E46" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="F46" s="3" t="s">
         <v>145</v>
       </c>
-      <c r="F46" s="3" t="s">
+      <c r="G46" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H46" s="3" t="s">
         <v>146</v>
       </c>
-      <c r="G46" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="H46" s="3" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+    </row>
+    <row r="47" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A47" s="2">
         <v>4</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C47" s="2">
         <v>4</v>
@@ -2429,24 +2512,24 @@
         <v>46</v>
       </c>
       <c r="E47" s="3" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="F47" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="G47" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H47" s="3" t="s">
         <v>148</v>
       </c>
-      <c r="G47" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="H47" s="3" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+    </row>
+    <row r="48" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A48" s="2">
         <v>4</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C48" s="2">
         <v>5</v>
@@ -2455,24 +2538,24 @@
         <v>47</v>
       </c>
       <c r="E48" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="F48" s="3" t="s">
         <v>150</v>
       </c>
-      <c r="F48" s="3" t="s">
+      <c r="G48" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H48" s="3" t="s">
         <v>151</v>
       </c>
-      <c r="G48" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="H48" s="3" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+    </row>
+    <row r="49" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A49" s="2">
         <v>4</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C49" s="2">
         <v>6</v>
@@ -2481,24 +2564,24 @@
         <v>48</v>
       </c>
       <c r="E49" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="F49" s="3" t="s">
         <v>153</v>
       </c>
-      <c r="F49" s="3" t="s">
+      <c r="G49" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H49" s="3" t="s">
         <v>154</v>
       </c>
-      <c r="G49" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="H49" s="3" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+    </row>
+    <row r="50" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A50" s="2">
         <v>4</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C50" s="2">
         <v>7</v>
@@ -2507,24 +2590,24 @@
         <v>49</v>
       </c>
       <c r="E50" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="F50" s="3" t="s">
         <v>156</v>
       </c>
-      <c r="F50" s="3" t="s">
+      <c r="G50" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H50" s="3" t="s">
         <v>157</v>
       </c>
-      <c r="G50" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="H50" s="3" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+    </row>
+    <row r="51" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A51" s="2">
         <v>4</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C51" s="2">
         <v>8</v>
@@ -2533,24 +2616,24 @@
         <v>50</v>
       </c>
       <c r="E51" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="F51" s="3" t="s">
         <v>159</v>
       </c>
-      <c r="F51" s="3" t="s">
+      <c r="G51" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H51" s="3" t="s">
         <v>160</v>
       </c>
-      <c r="G51" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="H51" s="3" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+    </row>
+    <row r="52" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A52" s="2">
         <v>4</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C52" s="2">
         <v>9</v>
@@ -2559,24 +2642,24 @@
         <v>51</v>
       </c>
       <c r="E52" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="F52" s="3" t="s">
         <v>162</v>
       </c>
-      <c r="F52" s="3" t="s">
+      <c r="G52" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H52" s="3" t="s">
         <v>163</v>
       </c>
-      <c r="G52" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="H52" s="3" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+    </row>
+    <row r="53" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A53" s="2">
         <v>5</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C53" s="2">
         <v>1</v>
@@ -2585,24 +2668,24 @@
         <v>52</v>
       </c>
       <c r="E53" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="F53" s="3" t="s">
         <v>166</v>
       </c>
-      <c r="F53" s="3" t="s">
+      <c r="G53" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H53" s="3" t="s">
         <v>167</v>
       </c>
-      <c r="G53" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="H53" s="3" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A54" s="2">
         <v>5</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C54" s="2">
         <v>2</v>
@@ -2611,24 +2694,24 @@
         <v>53</v>
       </c>
       <c r="E54" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="F54" s="3" t="s">
         <v>169</v>
       </c>
-      <c r="F54" s="3" t="s">
+      <c r="G54" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H54" s="3" t="s">
         <v>170</v>
       </c>
-      <c r="G54" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="H54" s="3" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+    </row>
+    <row r="55" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A55" s="2">
         <v>5</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C55" s="2">
         <v>3</v>
@@ -2637,24 +2720,24 @@
         <v>54</v>
       </c>
       <c r="E55" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="F55" s="3" t="s">
         <v>172</v>
       </c>
-      <c r="F55" s="3" t="s">
+      <c r="G55" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H55" s="3" t="s">
         <v>173</v>
       </c>
-      <c r="G55" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="H55" s="3" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="56" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+    </row>
+    <row r="56" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A56" s="2">
         <v>5</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C56" s="2">
         <v>4</v>
@@ -2663,24 +2746,24 @@
         <v>55</v>
       </c>
       <c r="E56" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="F56" s="3" t="s">
         <v>175</v>
       </c>
-      <c r="F56" s="3" t="s">
+      <c r="G56" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H56" s="3" t="s">
         <v>176</v>
       </c>
-      <c r="G56" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="H56" s="3" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="57" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+    </row>
+    <row r="57" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A57" s="2">
         <v>5</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C57" s="2">
         <v>5</v>
@@ -2689,24 +2772,24 @@
         <v>56</v>
       </c>
       <c r="E57" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="F57" s="3" t="s">
         <v>178</v>
       </c>
-      <c r="F57" s="3" t="s">
+      <c r="G57" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H57" s="3" t="s">
         <v>179</v>
       </c>
-      <c r="G57" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="H57" s="3" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="58" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A58" s="2">
         <v>5</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C58" s="2">
         <v>6</v>
@@ -2715,24 +2798,24 @@
         <v>57</v>
       </c>
       <c r="E58" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="F58" s="3" t="s">
         <v>181</v>
       </c>
-      <c r="F58" s="3" t="s">
+      <c r="G58" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H58" s="3" t="s">
         <v>182</v>
       </c>
-      <c r="G58" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="H58" s="3" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="59" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+    </row>
+    <row r="59" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A59" s="2">
         <v>5</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C59" s="2">
         <v>7</v>
@@ -2741,24 +2824,24 @@
         <v>58</v>
       </c>
       <c r="E59" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="F59" s="3" t="s">
         <v>184</v>
       </c>
-      <c r="F59" s="3" t="s">
+      <c r="G59" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H59" s="3" t="s">
         <v>185</v>
       </c>
-      <c r="G59" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="H59" s="3" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="60" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+    </row>
+    <row r="60" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A60" s="2">
         <v>5</v>
       </c>
       <c r="B60" s="3" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C60" s="2">
         <v>8</v>
@@ -2767,24 +2850,24 @@
         <v>59</v>
       </c>
       <c r="E60" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="F60" s="3" t="s">
         <v>187</v>
       </c>
-      <c r="F60" s="3" t="s">
+      <c r="G60" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H60" s="3" t="s">
         <v>188</v>
       </c>
-      <c r="G60" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="H60" s="3" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="61" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    </row>
+    <row r="61" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A61" s="2">
         <v>6</v>
       </c>
       <c r="B61" s="3" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C61" s="2">
         <v>1</v>
@@ -2793,24 +2876,24 @@
         <v>60</v>
       </c>
       <c r="E61" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="F61" s="3" t="s">
         <v>191</v>
       </c>
-      <c r="F61" s="3" t="s">
+      <c r="G61" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H61" s="3" t="s">
         <v>192</v>
       </c>
-      <c r="G61" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="H61" s="3" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="62" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    </row>
+    <row r="62" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A62" s="2">
         <v>6</v>
       </c>
       <c r="B62" s="3" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C62" s="2">
         <v>2</v>
@@ -2819,24 +2902,24 @@
         <v>61</v>
       </c>
       <c r="E62" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="F62" s="3" t="s">
         <v>194</v>
       </c>
-      <c r="F62" s="3" t="s">
+      <c r="G62" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H62" s="3" t="s">
         <v>195</v>
       </c>
-      <c r="G62" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="H62" s="3" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="63" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A63" s="2">
         <v>6</v>
       </c>
       <c r="B63" s="3" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C63" s="2">
         <v>3</v>
@@ -2845,24 +2928,24 @@
         <v>62</v>
       </c>
       <c r="E63" s="3" t="s">
+        <v>196</v>
+      </c>
+      <c r="F63" s="3" t="s">
         <v>197</v>
       </c>
-      <c r="F63" s="3" t="s">
+      <c r="G63" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H63" s="3" t="s">
         <v>198</v>
       </c>
-      <c r="G63" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="H63" s="3" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="64" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    </row>
+    <row r="64" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A64" s="2">
         <v>6</v>
       </c>
       <c r="B64" s="3" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C64" s="2">
         <v>4</v>
@@ -2871,24 +2954,24 @@
         <v>63</v>
       </c>
       <c r="E64" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="F64" s="3" t="s">
         <v>200</v>
       </c>
-      <c r="F64" s="3" t="s">
+      <c r="G64" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H64" s="3" t="s">
         <v>201</v>
       </c>
-      <c r="G64" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="H64" s="3" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="65" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A65" s="2">
         <v>6</v>
       </c>
       <c r="B65" s="3" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C65" s="2">
         <v>5</v>
@@ -2897,24 +2980,24 @@
         <v>64</v>
       </c>
       <c r="E65" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="F65" s="3" t="s">
         <v>203</v>
       </c>
-      <c r="F65" s="3" t="s">
+      <c r="G65" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H65" s="3" t="s">
         <v>204</v>
       </c>
-      <c r="G65" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="H65" s="3" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="66" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A66" s="2">
         <v>6</v>
       </c>
       <c r="B66" s="3" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C66" s="2">
         <v>6</v>
@@ -2923,24 +3006,24 @@
         <v>65</v>
       </c>
       <c r="E66" s="3" t="s">
+        <v>205</v>
+      </c>
+      <c r="F66" s="3" t="s">
         <v>206</v>
       </c>
-      <c r="F66" s="3" t="s">
+      <c r="G66" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H66" s="3" t="s">
         <v>207</v>
       </c>
-      <c r="G66" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="H66" s="3" t="s">
+    </row>
+    <row r="67" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A67" s="2">
+        <v>7</v>
+      </c>
+      <c r="B67" s="3" t="s">
         <v>208</v>
-      </c>
-    </row>
-    <row r="67" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A67" s="2">
-        <v>7</v>
-      </c>
-      <c r="B67" s="3" t="s">
-        <v>209</v>
       </c>
       <c r="C67" s="2">
         <v>1</v>
@@ -2949,24 +3032,24 @@
         <v>66</v>
       </c>
       <c r="E67" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="F67" s="3" t="s">
         <v>210</v>
       </c>
-      <c r="F67" s="3" t="s">
+      <c r="G67" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H67" s="3" t="s">
         <v>211</v>
       </c>
-      <c r="G67" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="H67" s="3" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="68" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    </row>
+    <row r="68" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A68" s="2">
         <v>7</v>
       </c>
       <c r="B68" s="3" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C68" s="2">
         <v>2</v>
@@ -2975,24 +3058,24 @@
         <v>67</v>
       </c>
       <c r="E68" s="3" t="s">
+        <v>212</v>
+      </c>
+      <c r="F68" s="3" t="s">
         <v>213</v>
       </c>
-      <c r="F68" s="3" t="s">
+      <c r="G68" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H68" s="3" t="s">
         <v>214</v>
       </c>
-      <c r="G68" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="H68" s="3" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="69" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+    </row>
+    <row r="69" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A69" s="2">
         <v>7</v>
       </c>
       <c r="B69" s="3" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C69" s="2">
         <v>3</v>
@@ -3001,24 +3084,24 @@
         <v>68</v>
       </c>
       <c r="E69" s="3" t="s">
+        <v>215</v>
+      </c>
+      <c r="F69" s="3" t="s">
         <v>216</v>
       </c>
-      <c r="F69" s="3" t="s">
+      <c r="G69" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H69" s="3" t="s">
         <v>217</v>
       </c>
-      <c r="G69" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="H69" s="3" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="70" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    </row>
+    <row r="70" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A70" s="2">
         <v>7</v>
       </c>
       <c r="B70" s="3" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C70" s="2">
         <v>4</v>
@@ -3027,24 +3110,24 @@
         <v>69</v>
       </c>
       <c r="E70" s="3" t="s">
+        <v>218</v>
+      </c>
+      <c r="F70" s="3" t="s">
         <v>219</v>
       </c>
-      <c r="F70" s="3" t="s">
+      <c r="G70" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H70" s="3" t="s">
         <v>220</v>
       </c>
-      <c r="G70" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="H70" s="3" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="71" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    </row>
+    <row r="71" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A71" s="2">
         <v>7</v>
       </c>
       <c r="B71" s="3" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C71" s="2">
         <v>5</v>
@@ -3053,24 +3136,24 @@
         <v>70</v>
       </c>
       <c r="E71" s="3" t="s">
+        <v>221</v>
+      </c>
+      <c r="F71" s="3" t="s">
         <v>222</v>
       </c>
-      <c r="F71" s="3" t="s">
+      <c r="G71" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H71" s="3" t="s">
         <v>223</v>
       </c>
-      <c r="G71" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="H71" s="3" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="72" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    </row>
+    <row r="72" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A72" s="2">
         <v>7</v>
       </c>
       <c r="B72" s="3" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C72" s="2">
         <v>6</v>
@@ -3079,24 +3162,24 @@
         <v>71</v>
       </c>
       <c r="E72" s="3" t="s">
+        <v>224</v>
+      </c>
+      <c r="F72" s="3" t="s">
         <v>225</v>
       </c>
-      <c r="F72" s="3" t="s">
+      <c r="G72" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H72" s="3" t="s">
         <v>226</v>
       </c>
-      <c r="G72" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="H72" s="3" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="73" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    </row>
+    <row r="73" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A73" s="2">
         <v>7</v>
       </c>
       <c r="B73" s="3" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C73" s="2">
         <v>7</v>
@@ -3105,24 +3188,24 @@
         <v>72</v>
       </c>
       <c r="E73" s="3" t="s">
+        <v>227</v>
+      </c>
+      <c r="F73" s="3" t="s">
         <v>228</v>
       </c>
-      <c r="F73" s="3" t="s">
+      <c r="G73" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H73" s="3" t="s">
         <v>229</v>
       </c>
-      <c r="G73" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="H73" s="3" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="74" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    </row>
+    <row r="74" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A74" s="2">
         <v>7</v>
       </c>
       <c r="B74" s="3" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C74" s="2">
         <v>8</v>
@@ -3131,24 +3214,24 @@
         <v>73</v>
       </c>
       <c r="E74" s="3" t="s">
+        <v>230</v>
+      </c>
+      <c r="F74" s="3" t="s">
         <v>231</v>
       </c>
-      <c r="F74" s="3" t="s">
+      <c r="G74" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H74" s="3" t="s">
         <v>232</v>
       </c>
-      <c r="G74" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="H74" s="3" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="75" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    </row>
+    <row r="75" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A75" s="2">
         <v>7</v>
       </c>
       <c r="B75" s="3" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C75" s="2">
         <v>9</v>
@@ -3157,24 +3240,24 @@
         <v>74</v>
       </c>
       <c r="E75" s="3" t="s">
+        <v>233</v>
+      </c>
+      <c r="F75" s="3" t="s">
         <v>234</v>
       </c>
-      <c r="F75" s="3" t="s">
+      <c r="G75" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H75" s="3" t="s">
         <v>235</v>
       </c>
-      <c r="G75" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="H75" s="3" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="76" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    </row>
+    <row r="76" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A76" s="2">
         <v>7</v>
       </c>
       <c r="B76" s="3" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C76" s="2">
         <v>10</v>
@@ -3183,24 +3266,24 @@
         <v>75</v>
       </c>
       <c r="E76" s="3" t="s">
+        <v>236</v>
+      </c>
+      <c r="F76" s="3" t="s">
         <v>237</v>
       </c>
-      <c r="F76" s="3" t="s">
+      <c r="G76" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H76" s="3" t="s">
         <v>238</v>
       </c>
-      <c r="G76" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="H76" s="3" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="77" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    </row>
+    <row r="77" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A77" s="2">
         <v>7</v>
       </c>
       <c r="B77" s="3" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C77" s="2">
         <v>11</v>
@@ -3209,24 +3292,24 @@
         <v>76</v>
       </c>
       <c r="E77" s="3" t="s">
+        <v>239</v>
+      </c>
+      <c r="F77" s="3" t="s">
         <v>240</v>
       </c>
-      <c r="F77" s="3" t="s">
+      <c r="G77" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H77" s="3" t="s">
         <v>241</v>
       </c>
-      <c r="G77" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="H77" s="3" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="78" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+    </row>
+    <row r="78" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A78" s="2">
         <v>7</v>
       </c>
       <c r="B78" s="3" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C78" s="2">
         <v>12</v>
@@ -3235,24 +3318,24 @@
         <v>77</v>
       </c>
       <c r="E78" s="3" t="s">
+        <v>242</v>
+      </c>
+      <c r="F78" s="3" t="s">
         <v>243</v>
       </c>
-      <c r="F78" s="3" t="s">
+      <c r="G78" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H78" s="3" t="s">
         <v>244</v>
       </c>
-      <c r="G78" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="H78" s="3" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="79" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+    </row>
+    <row r="79" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A79" s="2">
         <v>7</v>
       </c>
       <c r="B79" s="3" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C79" s="2">
         <v>13</v>
@@ -3261,24 +3344,24 @@
         <v>78</v>
       </c>
       <c r="E79" s="3" t="s">
+        <v>245</v>
+      </c>
+      <c r="F79" s="3" t="s">
         <v>246</v>
       </c>
-      <c r="F79" s="3" t="s">
+      <c r="G79" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H79" s="3" t="s">
         <v>247</v>
       </c>
-      <c r="G79" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="H79" s="3" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="80" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    </row>
+    <row r="80" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A80" s="2">
         <v>7</v>
       </c>
       <c r="B80" s="3" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C80" s="2">
         <v>14</v>
@@ -3287,24 +3370,24 @@
         <v>79</v>
       </c>
       <c r="E80" s="3" t="s">
+        <v>248</v>
+      </c>
+      <c r="F80" s="3" t="s">
         <v>249</v>
       </c>
-      <c r="F80" s="3" t="s">
+      <c r="G80" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H80" s="3" t="s">
         <v>250</v>
       </c>
-      <c r="G80" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="H80" s="3" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="81" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    </row>
+    <row r="81" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A81" s="2">
         <v>7</v>
       </c>
       <c r="B81" s="3" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C81" s="2">
         <v>15</v>
@@ -3313,19 +3396,1102 @@
         <v>80</v>
       </c>
       <c r="E81" s="3" t="s">
+        <v>251</v>
+      </c>
+      <c r="F81" s="3" t="s">
         <v>252</v>
       </c>
-      <c r="F81" s="3" t="s">
+      <c r="G81" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H81" s="3" t="s">
         <v>253</v>
-      </c>
-      <c r="G81" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="H81" s="3" t="s">
-        <v>254</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{20547B4D-98AD-40BC-8AE6-2945F626E1E9}">
+  <dimension ref="A1:K81"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1:C1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="45" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="53.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.77734375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.77734375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="22.21875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6.77734375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="36.44140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.21875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="18" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="19.44140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A1" s="6" t="s">
+        <v>254</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>259</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>255</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>256</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>257</v>
+      </c>
+      <c r="F1" s="7" t="s">
+        <v>258</v>
+      </c>
+      <c r="G1" s="7" t="s">
+        <v>260</v>
+      </c>
+      <c r="H1" s="7" t="s">
+        <v>261</v>
+      </c>
+      <c r="I1" s="7" t="s">
+        <v>262</v>
+      </c>
+      <c r="J1" s="7" t="s">
+        <v>263</v>
+      </c>
+      <c r="K1" s="7" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A2" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" s="4"/>
+      <c r="E2" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A3" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" s="4"/>
+      <c r="E3" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A4" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" s="4"/>
+      <c r="E4" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A5" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B5" s="4"/>
+      <c r="E5" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A6" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B6" s="4"/>
+      <c r="E6" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A7" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B7" s="4"/>
+      <c r="E7" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B8" s="4"/>
+      <c r="E8" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B9" s="4"/>
+      <c r="E9" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B10" s="4"/>
+      <c r="E10" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B11" s="4"/>
+      <c r="E11" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A12" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B12" s="4"/>
+      <c r="E12" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A13" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="B13" s="4"/>
+      <c r="E13" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A14" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="B14" s="4"/>
+      <c r="E14" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A15" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="B15" s="4"/>
+      <c r="E15" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A16" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="B16" s="4"/>
+      <c r="E16" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A17" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="B17" s="4"/>
+      <c r="E17" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A18" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="B18" s="4"/>
+      <c r="E18" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A19" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="B19" s="4"/>
+      <c r="E19" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A20" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="B20" s="4"/>
+      <c r="E20" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A21" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="B21" s="4"/>
+      <c r="E21" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A22" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="B22" s="4"/>
+      <c r="E22" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A23" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="B23" s="4"/>
+      <c r="E23" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A24" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="B24" s="4"/>
+      <c r="E24" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A25" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B25" s="4"/>
+      <c r="E25" s="3" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A26" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="B26" s="4"/>
+      <c r="E26" s="3" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A27" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="B27" s="4"/>
+      <c r="E27" s="3" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A28" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="B28" s="4"/>
+      <c r="E28" s="3" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A29" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="B29" s="4"/>
+      <c r="E29" s="3" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A30" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="B30" s="4"/>
+      <c r="E30" s="3" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A31" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="B31" s="4"/>
+      <c r="E31" s="3" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A32" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="B32" s="4"/>
+      <c r="E32" s="3" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A33" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="B33" s="4"/>
+      <c r="E33" s="3" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A34" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="B34" s="4"/>
+      <c r="E34" s="3" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A35" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="B35" s="4"/>
+      <c r="E35" s="3" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A36" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="B36" s="4"/>
+      <c r="E36" s="3" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A37" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="B37" s="4"/>
+      <c r="E37" s="3" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A38" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="B38" s="4"/>
+      <c r="E38" s="3" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A39" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="B39" s="4"/>
+      <c r="E39" s="3" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A40" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="B40" s="4"/>
+      <c r="E40" s="3" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A41" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="B41" s="4"/>
+      <c r="E41" s="3" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A42" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="B42" s="4"/>
+      <c r="E42" s="3" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A43" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="B43" s="4"/>
+      <c r="E43" s="3" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A44" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="B44" s="4"/>
+      <c r="E44" s="3" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A45" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="B45" s="4"/>
+      <c r="E45" s="3" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A46" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="B46" s="4"/>
+      <c r="E46" s="3" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A47" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="B47" s="4"/>
+      <c r="E47" s="3" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A48" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="B48" s="4"/>
+      <c r="E48" s="3" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A49" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="B49" s="4"/>
+      <c r="E49" s="3" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A50" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="B50" s="4"/>
+      <c r="E50" s="3" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A51" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="B51" s="4"/>
+      <c r="E51" s="3" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A52" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="B52" s="4"/>
+      <c r="E52" s="3" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A53" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="B53" s="4"/>
+      <c r="E53" s="3" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A54" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="B54" s="4"/>
+      <c r="E54" s="3" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A55" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="B55" s="4"/>
+      <c r="E55" s="3" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A56" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="B56" s="4"/>
+      <c r="E56" s="3" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A57" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="B57" s="4"/>
+      <c r="E57" s="3" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A58" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="B58" s="4"/>
+      <c r="E58" s="3" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A59" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="B59" s="4"/>
+      <c r="E59" s="3" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A60" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="B60" s="4"/>
+      <c r="E60" s="3" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A61" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="B61" s="4"/>
+      <c r="E61" s="3" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A62" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="B62" s="4"/>
+      <c r="E62" s="3" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A63" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="B63" s="4"/>
+      <c r="E63" s="3" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A64" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="B64" s="4"/>
+      <c r="E64" s="3" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A65" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="B65" s="4"/>
+      <c r="E65" s="3" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A66" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="B66" s="4"/>
+      <c r="E66" s="3" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A67" s="3" t="s">
+        <v>210</v>
+      </c>
+      <c r="B67" s="4"/>
+      <c r="E67" s="3" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A68" s="3" t="s">
+        <v>213</v>
+      </c>
+      <c r="B68" s="4"/>
+      <c r="E68" s="3" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A69" s="3" t="s">
+        <v>216</v>
+      </c>
+      <c r="B69" s="4"/>
+      <c r="E69" s="3" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A70" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="B70" s="4"/>
+      <c r="E70" s="3" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A71" s="3" t="s">
+        <v>222</v>
+      </c>
+      <c r="B71" s="4"/>
+      <c r="E71" s="3" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A72" s="3" t="s">
+        <v>225</v>
+      </c>
+      <c r="B72" s="4"/>
+      <c r="E72" s="3" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A73" s="3" t="s">
+        <v>228</v>
+      </c>
+      <c r="B73" s="4"/>
+      <c r="E73" s="3" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A74" s="3" t="s">
+        <v>231</v>
+      </c>
+      <c r="B74" s="4"/>
+      <c r="E74" s="3" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A75" s="3" t="s">
+        <v>234</v>
+      </c>
+      <c r="B75" s="4"/>
+      <c r="E75" s="3" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A76" s="3" t="s">
+        <v>237</v>
+      </c>
+      <c r="B76" s="4"/>
+      <c r="E76" s="3" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A77" s="3" t="s">
+        <v>240</v>
+      </c>
+      <c r="B77" s="4"/>
+      <c r="E77" s="3" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A78" s="3" t="s">
+        <v>243</v>
+      </c>
+      <c r="B78" s="4"/>
+      <c r="E78" s="3" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A79" s="3" t="s">
+        <v>246</v>
+      </c>
+      <c r="B79" s="4"/>
+      <c r="E79" s="3" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A80" s="3" t="s">
+        <v>249</v>
+      </c>
+      <c r="B80" s="4"/>
+      <c r="E80" s="3" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A81" s="3" t="s">
+        <v>252</v>
+      </c>
+      <c r="B81" s="4"/>
+      <c r="E81" s="3" t="s">
+        <v>208</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Deltares Base document" ma:contentTypeID="0x010100219570280C41E648BF656DDE63B7B0D10054EEBB2AE3F1714290004D0D0F7C3351" ma:contentTypeVersion="15" ma:contentTypeDescription="Deltares base content type to use throughout the organisation" ma:contentTypeScope="" ma:versionID="f9d78a5aa7caff028b353cbc75c3def4">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="58dc3081-d8a1-4e92-884a-04f6ca0fc63f" xmlns:ns3="ef87d329-744f-4db8-a50d-fd0fb068d469" xmlns:ns4="3c72cb88-c173-4d20-ae9a-a85490e15368" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="c5c2d439c986e4b0afe7560b4c5fd060" ns2:_="" ns3:_="" ns4:_="">
+    <xsd:import namespace="58dc3081-d8a1-4e92-884a-04f6ca0fc63f"/>
+    <xsd:import namespace="ef87d329-744f-4db8-a50d-fd0fb068d469"/>
+    <xsd:import namespace="3c72cb88-c173-4d20-ae9a-a85490e15368"/>
+    <xsd:element name="properties">
+      <xsd:complexType>
+        <xsd:sequence>
+          <xsd:element name="documentManagement">
+            <xsd:complexType>
+              <xsd:all>
+                <xsd:element ref="ns2:d1986a8b3bb244c0ab5037fa737207c1" minOccurs="0"/>
+                <xsd:element ref="ns2:TaxCatchAll" minOccurs="0"/>
+                <xsd:element ref="ns2:TaxCatchAllLabel" minOccurs="0"/>
+                <xsd:element ref="ns2:oc8c637b0fa845a6926b00fe9f72e1f8" minOccurs="0"/>
+                <xsd:element ref="ns3:TaxKeywordTaxHTField" minOccurs="0"/>
+                <xsd:element ref="ns4:l09k" minOccurs="0"/>
+                <xsd:element ref="ns4:MediaServiceMetadata" minOccurs="0"/>
+                <xsd:element ref="ns4:MediaServiceFastMetadata" minOccurs="0"/>
+                <xsd:element ref="ns3:SharedWithUsers" minOccurs="0"/>
+                <xsd:element ref="ns3:SharedWithDetails" minOccurs="0"/>
+                <xsd:element ref="ns4:MediaServiceAutoTags" minOccurs="0"/>
+                <xsd:element ref="ns4:MediaServiceOCR" minOccurs="0"/>
+                <xsd:element ref="ns4:MediaServiceGenerationTime" minOccurs="0"/>
+                <xsd:element ref="ns4:MediaServiceEventHashCode" minOccurs="0"/>
+              </xsd:all>
+            </xsd:complexType>
+          </xsd:element>
+        </xsd:sequence>
+      </xsd:complexType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="58dc3081-d8a1-4e92-884a-04f6ca0fc63f" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="d1986a8b3bb244c0ab5037fa737207c1" ma:index="8" nillable="true" ma:taxonomy="true" ma:internalName="d1986a8b3bb244c0ab5037fa737207c1" ma:taxonomyFieldName="DeltaresDocumentSubject" ma:displayName="Specification" ma:default="" ma:fieldId="{d1986a8b-3bb2-44c0-ab50-37fa737207c1}" ma:sspId="23b92cde-922f-41e6-b057-b97c56e4b7ba" ma:termSetId="eb2f1ffa-102c-4d46-9ec5-9d834373c11c" ma:anchorId="00000000-0000-0000-0000-000000000000" ma:open="false" ma:isKeyword="false">
+      <xsd:complexType>
+        <xsd:sequence>
+          <xsd:element ref="pc:Terms" minOccurs="0" maxOccurs="1"/>
+        </xsd:sequence>
+      </xsd:complexType>
+    </xsd:element>
+    <xsd:element name="TaxCatchAll" ma:index="9" nillable="true" ma:displayName="Taxonomy Catch All Column" ma:hidden="true" ma:list="{2ae4ee0c-0d0f-4fb1-a859-a907e6945b9c}" ma:internalName="TaxCatchAll" ma:showField="CatchAllData" ma:web="ef87d329-744f-4db8-a50d-fd0fb068d469">
+      <xsd:complexType>
+        <xsd:complexContent>
+          <xsd:extension base="dms:MultiChoiceLookup">
+            <xsd:sequence>
+              <xsd:element name="Value" type="dms:Lookup" maxOccurs="unbounded" minOccurs="0" nillable="true"/>
+            </xsd:sequence>
+          </xsd:extension>
+        </xsd:complexContent>
+      </xsd:complexType>
+    </xsd:element>
+    <xsd:element name="TaxCatchAllLabel" ma:index="10" nillable="true" ma:displayName="Taxonomy Catch All Column1" ma:hidden="true" ma:list="{2ae4ee0c-0d0f-4fb1-a859-a907e6945b9c}" ma:internalName="TaxCatchAllLabel" ma:readOnly="true" ma:showField="CatchAllDataLabel" ma:web="ef87d329-744f-4db8-a50d-fd0fb068d469">
+      <xsd:complexType>
+        <xsd:complexContent>
+          <xsd:extension base="dms:MultiChoiceLookup">
+            <xsd:sequence>
+              <xsd:element name="Value" type="dms:Lookup" maxOccurs="unbounded" minOccurs="0" nillable="true"/>
+            </xsd:sequence>
+          </xsd:extension>
+        </xsd:complexContent>
+      </xsd:complexType>
+    </xsd:element>
+    <xsd:element name="oc8c637b0fa845a6926b00fe9f72e1f8" ma:index="12" nillable="true" ma:taxonomy="true" ma:internalName="oc8c637b0fa845a6926b00fe9f72e1f8" ma:taxonomyFieldName="Document_x0020_type" ma:displayName="Document type" ma:default="" ma:fieldId="{8c8c637b-0fa8-45a6-926b-00fe9f72e1f8}" ma:sspId="23b92cde-922f-41e6-b057-b97c56e4b7ba" ma:termSetId="54460679-2d9d-4504-95dd-e8f6aeca1d6e" ma:anchorId="00000000-0000-0000-0000-000000000000" ma:open="false" ma:isKeyword="false">
+      <xsd:complexType>
+        <xsd:sequence>
+          <xsd:element ref="pc:Terms" minOccurs="0" maxOccurs="1"/>
+        </xsd:sequence>
+      </xsd:complexType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="ef87d329-744f-4db8-a50d-fd0fb068d469" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="TaxKeywordTaxHTField" ma:index="14" nillable="true" ma:taxonomy="true" ma:internalName="TaxKeywordTaxHTField" ma:taxonomyFieldName="TaxKeyword" ma:displayName="Enterprise Keywords" ma:fieldId="{23f27201-bee3-471e-b2e7-b64fd8b7ca38}" ma:taxonomyMulti="true" ma:sspId="23b92cde-922f-41e6-b057-b97c56e4b7ba" ma:termSetId="00000000-0000-0000-0000-000000000000" ma:anchorId="00000000-0000-0000-0000-000000000000" ma:open="true" ma:isKeyword="true">
+      <xsd:complexType>
+        <xsd:sequence>
+          <xsd:element ref="pc:Terms" minOccurs="0" maxOccurs="1"/>
+        </xsd:sequence>
+      </xsd:complexType>
+    </xsd:element>
+    <xsd:element name="SharedWithUsers" ma:index="19" nillable="true" ma:displayName="Shared With" ma:internalName="SharedWithUsers" ma:readOnly="true">
+      <xsd:complexType>
+        <xsd:complexContent>
+          <xsd:extension base="dms:UserMulti">
+            <xsd:sequence>
+              <xsd:element name="UserInfo" minOccurs="0" maxOccurs="unbounded">
+                <xsd:complexType>
+                  <xsd:sequence>
+                    <xsd:element name="DisplayName" type="xsd:string" minOccurs="0"/>
+                    <xsd:element name="AccountId" type="dms:UserId" minOccurs="0" nillable="true"/>
+                    <xsd:element name="AccountType" type="xsd:string" minOccurs="0"/>
+                  </xsd:sequence>
+                </xsd:complexType>
+              </xsd:element>
+            </xsd:sequence>
+          </xsd:extension>
+        </xsd:complexContent>
+      </xsd:complexType>
+    </xsd:element>
+    <xsd:element name="SharedWithDetails" ma:index="20" nillable="true" ma:displayName="Shared With Details" ma:internalName="SharedWithDetails" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="3c72cb88-c173-4d20-ae9a-a85490e15368" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="l09k" ma:index="16" nillable="true" ma:displayName="N/A" ma:internalName="l09k">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceMetadata" ma:index="17" nillable="true" ma:displayName="MediaServiceMetadata" ma:hidden="true" ma:internalName="MediaServiceMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceFastMetadata" ma:index="18" nillable="true" ma:displayName="MediaServiceFastMetadata" ma:hidden="true" ma:internalName="MediaServiceFastMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceAutoTags" ma:index="21" nillable="true" ma:displayName="Tags" ma:internalName="MediaServiceAutoTags" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceOCR" ma:index="22" nillable="true" ma:displayName="Extracted Text" ma:internalName="MediaServiceOCR" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceGenerationTime" ma:index="23" nillable="true" ma:displayName="MediaServiceGenerationTime" ma:hidden="true" ma:internalName="MediaServiceGenerationTime" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceEventHashCode" ma:index="24" nillable="true" ma:displayName="MediaServiceEventHashCode" ma:hidden="true" ma:internalName="MediaServiceEventHashCode" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:dc="http://purl.org/dc/elements/1.1/" xmlns:dcterms="http://purl.org/dc/terms/" xmlns:odoc="http://schemas.microsoft.com/internal/obd" targetNamespace="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" elementFormDefault="qualified" attributeFormDefault="unqualified" blockDefault="#all">
+    <xsd:import namespace="http://purl.org/dc/elements/1.1/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dc.xsd"/>
+    <xsd:import namespace="http://purl.org/dc/terms/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dcterms.xsd"/>
+    <xsd:element name="coreProperties" type="CT_coreProperties"/>
+    <xsd:complexType name="CT_coreProperties">
+      <xsd:all>
+        <xsd:element ref="dc:creator" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dcterms:created" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:identifier" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="0" ma:displayName="Content Type"/>
+        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="4" ma:displayName="Type"/>
+        <xsd:element ref="dc:subject" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:description" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="keywords" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dc:language" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="category" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="version" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="revision" minOccurs="0" maxOccurs="1" type="xsd:string">
+          <xsd:annotation>
+            <xsd:documentation>
+                        This value indicates the number of saves or revisions. The application is responsible for updating this value after each revision.
+                    </xsd:documentation>
+          </xsd:annotation>
+        </xsd:element>
+        <xsd:element name="lastModifiedBy" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dcterms:modified" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentStatus" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+      </xsd:all>
+    </xsd:complexType>
+  </xsd:schema>
+  <xs:schema xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" xmlns:xs="http://www.w3.org/2001/XMLSchema" targetNamespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" elementFormDefault="qualified" attributeFormDefault="unqualified">
+    <xs:element name="Person">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:DisplayName" minOccurs="0"/>
+          <xs:element ref="pc:AccountId" minOccurs="0"/>
+          <xs:element ref="pc:AccountType" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="DisplayName" type="xs:string"/>
+    <xs:element name="AccountId" type="xs:string"/>
+    <xs:element name="AccountType" type="xs:string"/>
+    <xs:element name="BDCAssociatedEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:BDCEntity" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+        <xs:attribute ref="pc:EntityNamespace"/>
+        <xs:attribute ref="pc:EntityName"/>
+        <xs:attribute ref="pc:SystemInstanceName"/>
+        <xs:attribute ref="pc:AssociationName"/>
+      </xs:complexType>
+    </xs:element>
+    <xs:attribute name="EntityNamespace" type="xs:string"/>
+    <xs:attribute name="EntityName" type="xs:string"/>
+    <xs:attribute name="SystemInstanceName" type="xs:string"/>
+    <xs:attribute name="AssociationName" type="xs:string"/>
+    <xs:element name="BDCEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:EntityDisplayName" minOccurs="0"/>
+          <xs:element ref="pc:EntityInstanceReference" minOccurs="0"/>
+          <xs:element ref="pc:EntityId1" minOccurs="0"/>
+          <xs:element ref="pc:EntityId2" minOccurs="0"/>
+          <xs:element ref="pc:EntityId3" minOccurs="0"/>
+          <xs:element ref="pc:EntityId4" minOccurs="0"/>
+          <xs:element ref="pc:EntityId5" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="EntityDisplayName" type="xs:string"/>
+    <xs:element name="EntityInstanceReference" type="xs:string"/>
+    <xs:element name="EntityId1" type="xs:string"/>
+    <xs:element name="EntityId2" type="xs:string"/>
+    <xs:element name="EntityId3" type="xs:string"/>
+    <xs:element name="EntityId4" type="xs:string"/>
+    <xs:element name="EntityId5" type="xs:string"/>
+    <xs:element name="Terms">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermInfo" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermInfo">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermName" minOccurs="0"/>
+          <xs:element ref="pc:TermId" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermName" type="xs:string"/>
+    <xs:element name="TermId" type="xs:string"/>
+  </xs:schema>
+</ct:contentTypeSchema>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<SharedContentType xmlns="Microsoft.SharePoint.Taxonomy.ContentTypeSync" SourceId="23b92cde-922f-41e6-b057-b97c56e4b7ba" ContentTypeId="0x010100219570280C41E648BF656DDE63B7B0D1" PreviousValue="false"/>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <oc8c637b0fa845a6926b00fe9f72e1f8 xmlns="58dc3081-d8a1-4e92-884a-04f6ca0fc63f">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </oc8c637b0fa845a6926b00fe9f72e1f8>
+    <l09k xmlns="3c72cb88-c173-4d20-ae9a-a85490e15368" xsi:nil="true"/>
+    <TaxCatchAll xmlns="58dc3081-d8a1-4e92-884a-04f6ca0fc63f"/>
+    <TaxKeywordTaxHTField xmlns="ef87d329-744f-4db8-a50d-fd0fb068d469">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </TaxKeywordTaxHTField>
+    <d1986a8b3bb244c0ab5037fa737207c1 xmlns="58dc3081-d8a1-4e92-884a-04f6ca0fc63f">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </d1986a8b3bb244c0ab5037fa737207c1>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7A85D606-E2EA-4637-B4C2-6ABA5779E1E2}"/>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FAF7AE3B-0E9F-440B-A3CE-BD7504C7CC69}"/>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7E1D132F-3077-4734-A985-9BCCE0A3F853}"/>
+</file>
+
+<file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{42E7B398-68E3-43FF-A497-8C0DD04B067B}"/>
 </file>
--- a/DeltaProjects.xlsx
+++ b/DeltaProjects.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\11202654-006 JCP 008 visa\git2\MetamodelTest\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3E00B69C-746A-4D12-81F5-C4A99F553214}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03FB3399-D3FC-401E-8785-AA8977DE1BE1}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -24,6 +24,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -31,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="579" uniqueCount="265">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="981" uniqueCount="727">
   <si>
     <t>datagroupid</t>
   </si>
@@ -801,18 +802,6 @@
     <t>KeyObjective</t>
   </si>
   <si>
-    <t>EstimateCost</t>
-  </si>
-  <si>
-    <t>Hotspot</t>
-  </si>
-  <si>
-    <t>District</t>
-  </si>
-  <si>
-    <t>X,Y WGS84</t>
-  </si>
-  <si>
     <t>Upazila</t>
   </si>
   <si>
@@ -822,10 +811,1408 @@
     <t>Project duration</t>
   </si>
   <si>
-    <t>ResponsibleAgencies</t>
-  </si>
-  <si>
     <t>ImplementingAgencies</t>
+  </si>
+  <si>
+    <t>Project_Code</t>
+  </si>
+  <si>
+    <t>XCOOR</t>
+  </si>
+  <si>
+    <t>YCOOR</t>
+  </si>
+  <si>
+    <t>EstimateCost(M. BDT)</t>
+  </si>
+  <si>
+    <t>ResponsibleMinistry</t>
+  </si>
+  <si>
+    <t>CZ18-121</t>
+  </si>
+  <si>
+    <t>Objective1</t>
+  </si>
+  <si>
+    <t>Upazila1</t>
+  </si>
+  <si>
+    <t>Technical1</t>
+  </si>
+  <si>
+    <t>Ministry1</t>
+  </si>
+  <si>
+    <t>Agency1</t>
+  </si>
+  <si>
+    <t>CZ111-138</t>
+  </si>
+  <si>
+    <t>Objective2</t>
+  </si>
+  <si>
+    <t>Upazila2</t>
+  </si>
+  <si>
+    <t>Technical2</t>
+  </si>
+  <si>
+    <t>Ministry2</t>
+  </si>
+  <si>
+    <t>Agency2</t>
+  </si>
+  <si>
+    <t>CZ126</t>
+  </si>
+  <si>
+    <t>Objective3</t>
+  </si>
+  <si>
+    <t>Upazila3</t>
+  </si>
+  <si>
+    <t>Technical3</t>
+  </si>
+  <si>
+    <t>Ministry3</t>
+  </si>
+  <si>
+    <t>Agency3</t>
+  </si>
+  <si>
+    <t>CZ13</t>
+  </si>
+  <si>
+    <t>Objective4</t>
+  </si>
+  <si>
+    <t>Upazila4</t>
+  </si>
+  <si>
+    <t>Technical4</t>
+  </si>
+  <si>
+    <t>Ministry4</t>
+  </si>
+  <si>
+    <t>Agency4</t>
+  </si>
+  <si>
+    <t>CZ148</t>
+  </si>
+  <si>
+    <t>Objective5</t>
+  </si>
+  <si>
+    <t>Upazila5</t>
+  </si>
+  <si>
+    <t>Technical5</t>
+  </si>
+  <si>
+    <t>Ministry5</t>
+  </si>
+  <si>
+    <t>Agency5</t>
+  </si>
+  <si>
+    <t>CZ141</t>
+  </si>
+  <si>
+    <t>Objective6</t>
+  </si>
+  <si>
+    <t>Upazila6</t>
+  </si>
+  <si>
+    <t>Technical6</t>
+  </si>
+  <si>
+    <t>Ministry6</t>
+  </si>
+  <si>
+    <t>Agency6</t>
+  </si>
+  <si>
+    <t>CZ144</t>
+  </si>
+  <si>
+    <t>Objective7</t>
+  </si>
+  <si>
+    <t>Upazila7</t>
+  </si>
+  <si>
+    <t>Technical7</t>
+  </si>
+  <si>
+    <t>Ministry7</t>
+  </si>
+  <si>
+    <t>Agency7</t>
+  </si>
+  <si>
+    <t>CZ140</t>
+  </si>
+  <si>
+    <t>Objective8</t>
+  </si>
+  <si>
+    <t>Upazila8</t>
+  </si>
+  <si>
+    <t>Technical8</t>
+  </si>
+  <si>
+    <t>Ministry8</t>
+  </si>
+  <si>
+    <t>Agency8</t>
+  </si>
+  <si>
+    <t>CZ145</t>
+  </si>
+  <si>
+    <t>Implementation of Rationalized Water Interventions In Baleswar-Tentulia Basin</t>
+  </si>
+  <si>
+    <t>Objective9</t>
+  </si>
+  <si>
+    <t>Upazila9</t>
+  </si>
+  <si>
+    <t>Technical9</t>
+  </si>
+  <si>
+    <t>Ministry9</t>
+  </si>
+  <si>
+    <t>Agency9</t>
+  </si>
+  <si>
+    <t>CZ147</t>
+  </si>
+  <si>
+    <t>Objective10</t>
+  </si>
+  <si>
+    <t>Upazila10</t>
+  </si>
+  <si>
+    <t>Technical10</t>
+  </si>
+  <si>
+    <t>Ministry10</t>
+  </si>
+  <si>
+    <t>Agency10</t>
+  </si>
+  <si>
+    <t>CZ130</t>
+  </si>
+  <si>
+    <t>Objective11</t>
+  </si>
+  <si>
+    <t>Upazila11</t>
+  </si>
+  <si>
+    <t>Technical11</t>
+  </si>
+  <si>
+    <t>Ministry11</t>
+  </si>
+  <si>
+    <t>Agency11</t>
+  </si>
+  <si>
+    <t>Objective12</t>
+  </si>
+  <si>
+    <t>Upazila12</t>
+  </si>
+  <si>
+    <t>Technical12</t>
+  </si>
+  <si>
+    <t>Ministry12</t>
+  </si>
+  <si>
+    <t>Agency12</t>
+  </si>
+  <si>
+    <t>CZ139</t>
+  </si>
+  <si>
+    <t>Objective13</t>
+  </si>
+  <si>
+    <t>Upazila13</t>
+  </si>
+  <si>
+    <t>Technical13</t>
+  </si>
+  <si>
+    <t>Ministry13</t>
+  </si>
+  <si>
+    <t>Agency13</t>
+  </si>
+  <si>
+    <t>CZ152</t>
+  </si>
+  <si>
+    <t>Objective14</t>
+  </si>
+  <si>
+    <t>Upazila14</t>
+  </si>
+  <si>
+    <t>Technical14</t>
+  </si>
+  <si>
+    <t>Ministry14</t>
+  </si>
+  <si>
+    <t>Agency14</t>
+  </si>
+  <si>
+    <t>CZ153</t>
+  </si>
+  <si>
+    <t>Objective15</t>
+  </si>
+  <si>
+    <t>Upazila15</t>
+  </si>
+  <si>
+    <t>Technical15</t>
+  </si>
+  <si>
+    <t>Ministry15</t>
+  </si>
+  <si>
+    <t>Agency15</t>
+  </si>
+  <si>
+    <t>CZ41</t>
+  </si>
+  <si>
+    <t>Objective16</t>
+  </si>
+  <si>
+    <t>Upazila16</t>
+  </si>
+  <si>
+    <t>Technical16</t>
+  </si>
+  <si>
+    <t>Ministry16</t>
+  </si>
+  <si>
+    <t>Agency16</t>
+  </si>
+  <si>
+    <t>CZ14</t>
+  </si>
+  <si>
+    <t>Objective17</t>
+  </si>
+  <si>
+    <t>Upazila17</t>
+  </si>
+  <si>
+    <t>Technical17</t>
+  </si>
+  <si>
+    <t>Ministry17</t>
+  </si>
+  <si>
+    <t>Agency17</t>
+  </si>
+  <si>
+    <t>CZ15</t>
+  </si>
+  <si>
+    <t>Objective18</t>
+  </si>
+  <si>
+    <t>Upazila18</t>
+  </si>
+  <si>
+    <t>Technical18</t>
+  </si>
+  <si>
+    <t>Ministry18</t>
+  </si>
+  <si>
+    <t>Agency18</t>
+  </si>
+  <si>
+    <t>CZ17</t>
+  </si>
+  <si>
+    <t>Objective19</t>
+  </si>
+  <si>
+    <t>Upazila19</t>
+  </si>
+  <si>
+    <t>Technical19</t>
+  </si>
+  <si>
+    <t>Ministry19</t>
+  </si>
+  <si>
+    <t>Agency19</t>
+  </si>
+  <si>
+    <t>CZ16</t>
+  </si>
+  <si>
+    <t>"1. To stimulate socio-economic development (agriculture, fisheries) relevant for the local communities (overall objective); 2. Reclamation of land through construction of a cross dam between Hatiya and Nijhum Dwip (project purpose); 3.To re-settle river eroded landless destitute people and to boost up agriculture and fish production encompassing matured land by construction of peripheral dyke in Nijhum Dwip excluding forest area "</t>
+  </si>
+  <si>
+    <t>Hatiya</t>
+  </si>
+  <si>
+    <t>Cross Dam, Embankment Sea Dyke (14.4km), Embankment Marginal Dyke (10.20km), Internal Closure Dam (10nos), Drainage cum flushing sluice (4nos)</t>
+  </si>
+  <si>
+    <t>3yrs</t>
+  </si>
+  <si>
+    <t>MoWR</t>
+  </si>
+  <si>
+    <t>BWDB</t>
+  </si>
+  <si>
+    <t>CZ128</t>
+  </si>
+  <si>
+    <t>CZ171</t>
+  </si>
+  <si>
+    <t>CZ11</t>
+  </si>
+  <si>
+    <t>to increase the irrigation facilities, restore the ecological balance and increase the livelihood opportunities of the Ganges Dependent area (GDA</t>
+  </si>
+  <si>
+    <t>Pangsha</t>
+  </si>
+  <si>
+    <t>Main Structure, Railways Bridge, Link Channels, Drainage Channels, River Bank Protection Works</t>
+  </si>
+  <si>
+    <t>7yrs</t>
+  </si>
+  <si>
+    <t>MR12</t>
+  </si>
+  <si>
+    <t>MR15</t>
+  </si>
+  <si>
+    <t>MR11</t>
+  </si>
+  <si>
+    <t>Objective20</t>
+  </si>
+  <si>
+    <t>Upazila20</t>
+  </si>
+  <si>
+    <t>Technical20</t>
+  </si>
+  <si>
+    <t>Ministry20</t>
+  </si>
+  <si>
+    <t>Agency20</t>
+  </si>
+  <si>
+    <t>MR146</t>
+  </si>
+  <si>
+    <t>Objective21</t>
+  </si>
+  <si>
+    <t>Upazila21</t>
+  </si>
+  <si>
+    <t>Technical21</t>
+  </si>
+  <si>
+    <t>Ministry21</t>
+  </si>
+  <si>
+    <t>Agency21</t>
+  </si>
+  <si>
+    <t>MR31</t>
+  </si>
+  <si>
+    <t>Objective22</t>
+  </si>
+  <si>
+    <t>Upazila22</t>
+  </si>
+  <si>
+    <t>Technical22</t>
+  </si>
+  <si>
+    <t>Ministry22</t>
+  </si>
+  <si>
+    <t>Agency22</t>
+  </si>
+  <si>
+    <t>MR16</t>
+  </si>
+  <si>
+    <t>Objective23</t>
+  </si>
+  <si>
+    <t>Upazila23</t>
+  </si>
+  <si>
+    <t>Technical23</t>
+  </si>
+  <si>
+    <t>Ministry23</t>
+  </si>
+  <si>
+    <t>Agency23</t>
+  </si>
+  <si>
+    <t>MR121</t>
+  </si>
+  <si>
+    <t>Objective24</t>
+  </si>
+  <si>
+    <t>Upazila24</t>
+  </si>
+  <si>
+    <t>Technical24</t>
+  </si>
+  <si>
+    <t>Ministry24</t>
+  </si>
+  <si>
+    <t>Agency24</t>
+  </si>
+  <si>
+    <t>UA13</t>
+  </si>
+  <si>
+    <t>Objective25</t>
+  </si>
+  <si>
+    <t>Upazila25</t>
+  </si>
+  <si>
+    <t>Technical25</t>
+  </si>
+  <si>
+    <t>Ministry25</t>
+  </si>
+  <si>
+    <t>Agency25</t>
+  </si>
+  <si>
+    <t>UA101</t>
+  </si>
+  <si>
+    <t>Objective26</t>
+  </si>
+  <si>
+    <t>Upazila26</t>
+  </si>
+  <si>
+    <t>Technical26</t>
+  </si>
+  <si>
+    <t>Ministry26</t>
+  </si>
+  <si>
+    <t>Agency26</t>
+  </si>
+  <si>
+    <t>UA111</t>
+  </si>
+  <si>
+    <t>Objective27</t>
+  </si>
+  <si>
+    <t>Upazila27</t>
+  </si>
+  <si>
+    <t>Technical27</t>
+  </si>
+  <si>
+    <t>Ministry27</t>
+  </si>
+  <si>
+    <t>Agency27</t>
+  </si>
+  <si>
+    <t>UA31</t>
+  </si>
+  <si>
+    <t>Objective28</t>
+  </si>
+  <si>
+    <t>Upazila28</t>
+  </si>
+  <si>
+    <t>Technical28</t>
+  </si>
+  <si>
+    <t>Ministry28</t>
+  </si>
+  <si>
+    <t>Agency28</t>
+  </si>
+  <si>
+    <t>UA93</t>
+  </si>
+  <si>
+    <t>Objective29</t>
+  </si>
+  <si>
+    <t>Upazila29</t>
+  </si>
+  <si>
+    <t>Technical29</t>
+  </si>
+  <si>
+    <t>Ministry29</t>
+  </si>
+  <si>
+    <t>Agency29</t>
+  </si>
+  <si>
+    <t>UA12</t>
+  </si>
+  <si>
+    <t>Objective30</t>
+  </si>
+  <si>
+    <t>Upazila30</t>
+  </si>
+  <si>
+    <t>Technical30</t>
+  </si>
+  <si>
+    <t>Ministry30</t>
+  </si>
+  <si>
+    <t>Agency30</t>
+  </si>
+  <si>
+    <t>UA201</t>
+  </si>
+  <si>
+    <t>Objective31</t>
+  </si>
+  <si>
+    <t>Upazila31</t>
+  </si>
+  <si>
+    <t>Technical31</t>
+  </si>
+  <si>
+    <t>Ministry31</t>
+  </si>
+  <si>
+    <t>Agency31</t>
+  </si>
+  <si>
+    <t>UA91</t>
+  </si>
+  <si>
+    <t>Objective32</t>
+  </si>
+  <si>
+    <t>Upazila32</t>
+  </si>
+  <si>
+    <t>Technical32</t>
+  </si>
+  <si>
+    <t>Ministry32</t>
+  </si>
+  <si>
+    <t>Agency32</t>
+  </si>
+  <si>
+    <t>UA232</t>
+  </si>
+  <si>
+    <t>Objective33</t>
+  </si>
+  <si>
+    <t>Upazila33</t>
+  </si>
+  <si>
+    <t>Technical33</t>
+  </si>
+  <si>
+    <t>Ministry33</t>
+  </si>
+  <si>
+    <t>Agency33</t>
+  </si>
+  <si>
+    <t>UA231</t>
+  </si>
+  <si>
+    <t>Objective34</t>
+  </si>
+  <si>
+    <t>Upazila34</t>
+  </si>
+  <si>
+    <t>Technical34</t>
+  </si>
+  <si>
+    <t>Ministry34</t>
+  </si>
+  <si>
+    <t>Agency34</t>
+  </si>
+  <si>
+    <t>UA92</t>
+  </si>
+  <si>
+    <t>Objective35</t>
+  </si>
+  <si>
+    <t>Upazila35</t>
+  </si>
+  <si>
+    <t>Technical35</t>
+  </si>
+  <si>
+    <t>Ministry35</t>
+  </si>
+  <si>
+    <t>Agency35</t>
+  </si>
+  <si>
+    <t>UA11</t>
+  </si>
+  <si>
+    <t>Objective36</t>
+  </si>
+  <si>
+    <t>Upazila36</t>
+  </si>
+  <si>
+    <t>Technical36</t>
+  </si>
+  <si>
+    <t>Ministry36</t>
+  </si>
+  <si>
+    <t>Agency36</t>
+  </si>
+  <si>
+    <t>DP121</t>
+  </si>
+  <si>
+    <t>Objective37</t>
+  </si>
+  <si>
+    <t>Upazila37</t>
+  </si>
+  <si>
+    <t>Technical37</t>
+  </si>
+  <si>
+    <t>Ministry37</t>
+  </si>
+  <si>
+    <t>Agency37</t>
+  </si>
+  <si>
+    <t>DP13</t>
+  </si>
+  <si>
+    <t>Objective38</t>
+  </si>
+  <si>
+    <t>Upazila38</t>
+  </si>
+  <si>
+    <t>Technical38</t>
+  </si>
+  <si>
+    <t>Ministry38</t>
+  </si>
+  <si>
+    <t>Agency38</t>
+  </si>
+  <si>
+    <t>DP11</t>
+  </si>
+  <si>
+    <t>Objective39</t>
+  </si>
+  <si>
+    <t>Upazila39</t>
+  </si>
+  <si>
+    <t>Technical39</t>
+  </si>
+  <si>
+    <t>Ministry39</t>
+  </si>
+  <si>
+    <t>Agency39</t>
+  </si>
+  <si>
+    <t>Objective40</t>
+  </si>
+  <si>
+    <t>Upazila40</t>
+  </si>
+  <si>
+    <t>Technical40</t>
+  </si>
+  <si>
+    <t>Ministry40</t>
+  </si>
+  <si>
+    <t>Agency40</t>
+  </si>
+  <si>
+    <t>DP14-15</t>
+  </si>
+  <si>
+    <t>Objective41</t>
+  </si>
+  <si>
+    <t>Upazila41</t>
+  </si>
+  <si>
+    <t>Technical41</t>
+  </si>
+  <si>
+    <t>Ministry41</t>
+  </si>
+  <si>
+    <t>Agency41</t>
+  </si>
+  <si>
+    <t>DP251</t>
+  </si>
+  <si>
+    <t>Objective42</t>
+  </si>
+  <si>
+    <t>Upazila42</t>
+  </si>
+  <si>
+    <t>Technical42</t>
+  </si>
+  <si>
+    <t>Ministry42</t>
+  </si>
+  <si>
+    <t>Agency42</t>
+  </si>
+  <si>
+    <t>DP252</t>
+  </si>
+  <si>
+    <t>Objective43</t>
+  </si>
+  <si>
+    <t>Upazila43</t>
+  </si>
+  <si>
+    <t>Technical43</t>
+  </si>
+  <si>
+    <t>Ministry43</t>
+  </si>
+  <si>
+    <t>Agency43</t>
+  </si>
+  <si>
+    <t>DP253</t>
+  </si>
+  <si>
+    <t>WMOs and Participatory Management Model for O&amp;M of Kurigram i Irrigation Schemes(1 &amp; 2)</t>
+  </si>
+  <si>
+    <t>Objective44</t>
+  </si>
+  <si>
+    <t>Upazila44</t>
+  </si>
+  <si>
+    <t>Technical44</t>
+  </si>
+  <si>
+    <t>Ministry44</t>
+  </si>
+  <si>
+    <t>Agency44</t>
+  </si>
+  <si>
+    <t>DP153</t>
+  </si>
+  <si>
+    <t>Objective45</t>
+  </si>
+  <si>
+    <t>Upazila45</t>
+  </si>
+  <si>
+    <t>Technical45</t>
+  </si>
+  <si>
+    <t>Ministry45</t>
+  </si>
+  <si>
+    <t>Agency45</t>
+  </si>
+  <si>
+    <t>CH111</t>
+  </si>
+  <si>
+    <t>Objective46</t>
+  </si>
+  <si>
+    <t>Upazila46</t>
+  </si>
+  <si>
+    <t>Technical46</t>
+  </si>
+  <si>
+    <t>Ministry46</t>
+  </si>
+  <si>
+    <t>Agency46</t>
+  </si>
+  <si>
+    <t>CH110</t>
+  </si>
+  <si>
+    <t>Objective47</t>
+  </si>
+  <si>
+    <t>Upazila47</t>
+  </si>
+  <si>
+    <t>Technical47</t>
+  </si>
+  <si>
+    <t>Ministry47</t>
+  </si>
+  <si>
+    <t>Agency47</t>
+  </si>
+  <si>
+    <t>CH262</t>
+  </si>
+  <si>
+    <t>Objective48</t>
+  </si>
+  <si>
+    <t>Upazila48</t>
+  </si>
+  <si>
+    <t>Technical48</t>
+  </si>
+  <si>
+    <t>Ministry48</t>
+  </si>
+  <si>
+    <t>Agency48</t>
+  </si>
+  <si>
+    <t>CH92</t>
+  </si>
+  <si>
+    <t>Objective49</t>
+  </si>
+  <si>
+    <t>Upazila49</t>
+  </si>
+  <si>
+    <t>Technical49</t>
+  </si>
+  <si>
+    <t>Ministry49</t>
+  </si>
+  <si>
+    <t>Agency49</t>
+  </si>
+  <si>
+    <t>CH124</t>
+  </si>
+  <si>
+    <t>Objective50</t>
+  </si>
+  <si>
+    <t>Upazila50</t>
+  </si>
+  <si>
+    <t>Technical50</t>
+  </si>
+  <si>
+    <t>Ministry50</t>
+  </si>
+  <si>
+    <t>Agency50</t>
+  </si>
+  <si>
+    <t>CH261</t>
+  </si>
+  <si>
+    <t>Objective51</t>
+  </si>
+  <si>
+    <t>Upazila51</t>
+  </si>
+  <si>
+    <t>Technical51</t>
+  </si>
+  <si>
+    <t>Ministry51</t>
+  </si>
+  <si>
+    <t>Agency51</t>
+  </si>
+  <si>
+    <t>CH11</t>
+  </si>
+  <si>
+    <t>Objective52</t>
+  </si>
+  <si>
+    <t>Upazila52</t>
+  </si>
+  <si>
+    <t>Technical52</t>
+  </si>
+  <si>
+    <t>Ministry52</t>
+  </si>
+  <si>
+    <t>Agency52</t>
+  </si>
+  <si>
+    <t>CH265</t>
+  </si>
+  <si>
+    <t>Objective53</t>
+  </si>
+  <si>
+    <t>Upazila53</t>
+  </si>
+  <si>
+    <t>Technical53</t>
+  </si>
+  <si>
+    <t>Ministry53</t>
+  </si>
+  <si>
+    <t>Agency53</t>
+  </si>
+  <si>
+    <t>HR 21-22</t>
+  </si>
+  <si>
+    <t>Objective54</t>
+  </si>
+  <si>
+    <t>Upazila54</t>
+  </si>
+  <si>
+    <t>Technical54</t>
+  </si>
+  <si>
+    <t>Ministry54</t>
+  </si>
+  <si>
+    <t>Agency54</t>
+  </si>
+  <si>
+    <t>HR11</t>
+  </si>
+  <si>
+    <t>Objective55</t>
+  </si>
+  <si>
+    <t>Upazila55</t>
+  </si>
+  <si>
+    <t>Technical55</t>
+  </si>
+  <si>
+    <t>Ministry55</t>
+  </si>
+  <si>
+    <t>Agency55</t>
+  </si>
+  <si>
+    <t>HR24</t>
+  </si>
+  <si>
+    <t>Objective56</t>
+  </si>
+  <si>
+    <t>Upazila56</t>
+  </si>
+  <si>
+    <t>Technical56</t>
+  </si>
+  <si>
+    <t>Ministry56</t>
+  </si>
+  <si>
+    <t>Agency56</t>
+  </si>
+  <si>
+    <t>HR141</t>
+  </si>
+  <si>
+    <t>Objective57</t>
+  </si>
+  <si>
+    <t>Upazila57</t>
+  </si>
+  <si>
+    <t>Technical57</t>
+  </si>
+  <si>
+    <t>Ministry57</t>
+  </si>
+  <si>
+    <t>Agency57</t>
+  </si>
+  <si>
+    <t>HR154-5</t>
+  </si>
+  <si>
+    <t>Objective58</t>
+  </si>
+  <si>
+    <t>Upazila58</t>
+  </si>
+  <si>
+    <t>Technical58</t>
+  </si>
+  <si>
+    <t>Ministry58</t>
+  </si>
+  <si>
+    <t>Agency58</t>
+  </si>
+  <si>
+    <t>HR143</t>
+  </si>
+  <si>
+    <t>Objective59</t>
+  </si>
+  <si>
+    <t>Upazila59</t>
+  </si>
+  <si>
+    <t>Technical59</t>
+  </si>
+  <si>
+    <t>Ministry59</t>
+  </si>
+  <si>
+    <t>Agency59</t>
+  </si>
+  <si>
+    <t>CC185</t>
+  </si>
+  <si>
+    <t>Objective60</t>
+  </si>
+  <si>
+    <t>Upazila60</t>
+  </si>
+  <si>
+    <t>Technical60</t>
+  </si>
+  <si>
+    <t>Ministry60</t>
+  </si>
+  <si>
+    <t>Agency60</t>
+  </si>
+  <si>
+    <t>CC1237</t>
+  </si>
+  <si>
+    <t>Objective61</t>
+  </si>
+  <si>
+    <t>Upazila61</t>
+  </si>
+  <si>
+    <t>Technical61</t>
+  </si>
+  <si>
+    <t>Ministry61</t>
+  </si>
+  <si>
+    <t>Agency61</t>
+  </si>
+  <si>
+    <t>CC14</t>
+  </si>
+  <si>
+    <t>Objective62</t>
+  </si>
+  <si>
+    <t>Upazila62</t>
+  </si>
+  <si>
+    <t>Technical62</t>
+  </si>
+  <si>
+    <t>Ministry62</t>
+  </si>
+  <si>
+    <t>Agency62</t>
+  </si>
+  <si>
+    <t>CC13</t>
+  </si>
+  <si>
+    <t>Objective63</t>
+  </si>
+  <si>
+    <t>Upazila63</t>
+  </si>
+  <si>
+    <t>Technical63</t>
+  </si>
+  <si>
+    <t>Ministry63</t>
+  </si>
+  <si>
+    <t>Agency63</t>
+  </si>
+  <si>
+    <t>CC141</t>
+  </si>
+  <si>
+    <t>Objective64</t>
+  </si>
+  <si>
+    <t>Upazila64</t>
+  </si>
+  <si>
+    <t>Technical64</t>
+  </si>
+  <si>
+    <t>Ministry64</t>
+  </si>
+  <si>
+    <t>Agency64</t>
+  </si>
+  <si>
+    <t>CC143</t>
+  </si>
+  <si>
+    <t>Objective65</t>
+  </si>
+  <si>
+    <t>Upazila65</t>
+  </si>
+  <si>
+    <t>Technical65</t>
+  </si>
+  <si>
+    <t>Ministry65</t>
+  </si>
+  <si>
+    <t>Agency65</t>
+  </si>
+  <si>
+    <t>CC918</t>
+  </si>
+  <si>
+    <t>Project for Improvement of Storm Water Drainage Facilities in pourrashavas(Phase1)</t>
+  </si>
+  <si>
+    <t>Objective66</t>
+  </si>
+  <si>
+    <t>Upazila66</t>
+  </si>
+  <si>
+    <t>Technical66</t>
+  </si>
+  <si>
+    <t>Ministry66</t>
+  </si>
+  <si>
+    <t>Agency66</t>
+  </si>
+  <si>
+    <t>CC910</t>
+  </si>
+  <si>
+    <t>Objective67</t>
+  </si>
+  <si>
+    <t>Upazila67</t>
+  </si>
+  <si>
+    <t>Technical67</t>
+  </si>
+  <si>
+    <t>Ministry67</t>
+  </si>
+  <si>
+    <t>Agency67</t>
+  </si>
+  <si>
+    <t>CC911</t>
+  </si>
+  <si>
+    <t>Objective68</t>
+  </si>
+  <si>
+    <t>Upazila68</t>
+  </si>
+  <si>
+    <t>Technical68</t>
+  </si>
+  <si>
+    <t>Ministry68</t>
+  </si>
+  <si>
+    <t>Agency68</t>
+  </si>
+  <si>
+    <t>CC917</t>
+  </si>
+  <si>
+    <t>Objective69</t>
+  </si>
+  <si>
+    <t>Upazila69</t>
+  </si>
+  <si>
+    <t>Technical69</t>
+  </si>
+  <si>
+    <t>Ministry69</t>
+  </si>
+  <si>
+    <t>Agency69</t>
+  </si>
+  <si>
+    <t>CC913</t>
+  </si>
+  <si>
+    <t>Objective70</t>
+  </si>
+  <si>
+    <t>Upazila70</t>
+  </si>
+  <si>
+    <t>Technical70</t>
+  </si>
+  <si>
+    <t>Ministry70</t>
+  </si>
+  <si>
+    <t>Agency70</t>
+  </si>
+  <si>
+    <t>CC145</t>
+  </si>
+  <si>
+    <t>Objective71</t>
+  </si>
+  <si>
+    <t>Upazila71</t>
+  </si>
+  <si>
+    <t>Technical71</t>
+  </si>
+  <si>
+    <t>Ministry71</t>
+  </si>
+  <si>
+    <t>Agency71</t>
+  </si>
+  <si>
+    <t>CC146</t>
+  </si>
+  <si>
+    <t>Objective72</t>
+  </si>
+  <si>
+    <t>Upazila72</t>
+  </si>
+  <si>
+    <t>Technical72</t>
+  </si>
+  <si>
+    <t>Ministry72</t>
+  </si>
+  <si>
+    <t>Agency72</t>
+  </si>
+  <si>
+    <t>CC912</t>
+  </si>
+  <si>
+    <t>Improvement of Sanitation Systems in Urban Areas of Bangladesh</t>
+  </si>
+  <si>
+    <t>Objective73</t>
+  </si>
+  <si>
+    <t>Upazila73</t>
+  </si>
+  <si>
+    <t>Technical73</t>
+  </si>
+  <si>
+    <t>Ministry73</t>
+  </si>
+  <si>
+    <t>Agency73</t>
+  </si>
+  <si>
+    <t>CC1619</t>
+  </si>
+  <si>
+    <t>Objective74</t>
+  </si>
+  <si>
+    <t>Upazila74</t>
+  </si>
+  <si>
+    <t>Technical74</t>
+  </si>
+  <si>
+    <t>Ministry74</t>
+  </si>
+  <si>
+    <t>Agency74</t>
   </si>
 </sst>
 </file>
@@ -851,7 +2238,7 @@
       <name val="Arial"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -864,20 +2251,8 @@
         <bgColor indexed="0"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
-        <bgColor indexed="0"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="5">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -915,40 +2290,12 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="22"/>
-      </left>
-      <right style="thin">
-        <color indexed="22"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="22"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -959,16 +2306,12 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1287,7 +2630,7 @@
   <dimension ref="A1:H81"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:B1048576"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3419,777 +4762,2856 @@
   <dimension ref="A1:K81"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:C1048576"/>
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="45" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="53.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.77734375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.5546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.77734375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="22.21875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="6.77734375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="7" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="36.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="27.44140625" customWidth="1"/>
+    <col min="3" max="4" width="11.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="22.109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="18" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="14.21875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="18" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="17.44140625" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="19.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A1" s="6" t="s">
+    <row r="1" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A1" s="4" t="s">
+        <v>260</v>
+      </c>
+      <c r="B1" s="4" t="s">
         <v>254</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="C1" s="4" t="s">
+        <v>261</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>262</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>255</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>263</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>256</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>257</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>258</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>264</v>
+      </c>
+      <c r="K1" s="4" t="s">
         <v>259</v>
       </c>
-      <c r="C1" s="7" t="s">
-        <v>255</v>
-      </c>
-      <c r="D1" s="7" t="s">
-        <v>256</v>
-      </c>
-      <c r="E1" s="6" t="s">
-        <v>257</v>
-      </c>
-      <c r="F1" s="7" t="s">
-        <v>258</v>
-      </c>
-      <c r="G1" s="7" t="s">
-        <v>260</v>
-      </c>
-      <c r="H1" s="7" t="s">
-        <v>261</v>
-      </c>
-      <c r="I1" s="7" t="s">
-        <v>262</v>
-      </c>
-      <c r="J1" s="7" t="s">
-        <v>263</v>
-      </c>
-      <c r="K1" s="7" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A2" s="5" t="s">
+    </row>
+    <row r="2" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A2" s="4" t="s">
+        <v>265</v>
+      </c>
+      <c r="B2" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="4"/>
-      <c r="E2" s="5" t="s">
+      <c r="C2" s="4">
+        <v>88.556092000000007</v>
+      </c>
+      <c r="D2" s="4">
+        <v>23.667276999999999</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>266</v>
+      </c>
+      <c r="F2" s="4">
+        <v>5</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>268</v>
+      </c>
+      <c r="I2" s="4">
+        <v>2</v>
+      </c>
+      <c r="J2" s="4" t="s">
+        <v>269</v>
+      </c>
+      <c r="K2" s="4" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A3" s="4" t="s">
+        <v>271</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" s="4">
+        <v>89.990103000000005</v>
+      </c>
+      <c r="D3" s="4">
+        <v>25.455874000000001</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>272</v>
+      </c>
+      <c r="F3" s="4">
+        <v>2</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>273</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>274</v>
+      </c>
+      <c r="I3" s="4">
         <v>7</v>
       </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A3" s="3" t="s">
+      <c r="J3" s="4" t="s">
+        <v>275</v>
+      </c>
+      <c r="K3" s="4" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A4" s="4" t="s">
+        <v>277</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" s="4">
+        <v>89.210634999999996</v>
+      </c>
+      <c r="D4" s="4">
+        <v>22.006951000000001</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>278</v>
+      </c>
+      <c r="F4" s="4">
+        <v>15</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>279</v>
+      </c>
+      <c r="H4" s="4" t="s">
+        <v>280</v>
+      </c>
+      <c r="I4" s="4">
+        <v>6</v>
+      </c>
+      <c r="J4" s="4" t="s">
+        <v>281</v>
+      </c>
+      <c r="K4" s="4" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A5" s="4" t="s">
+        <v>283</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C5" s="4">
+        <v>88.175605000000004</v>
+      </c>
+      <c r="D5" s="4">
+        <v>23.939259</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>284</v>
+      </c>
+      <c r="F5" s="4">
+        <v>6</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>285</v>
+      </c>
+      <c r="H5" s="4" t="s">
+        <v>286</v>
+      </c>
+      <c r="I5" s="4">
+        <v>4</v>
+      </c>
+      <c r="J5" s="4" t="s">
+        <v>287</v>
+      </c>
+      <c r="K5" s="4" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A6" s="4" t="s">
+        <v>289</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" s="4">
+        <v>89.309796000000006</v>
+      </c>
+      <c r="D6" s="4">
+        <v>22.161411999999999</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>290</v>
+      </c>
+      <c r="F6" s="4">
+        <v>5</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>291</v>
+      </c>
+      <c r="H6" s="4" t="s">
+        <v>292</v>
+      </c>
+      <c r="I6" s="4">
+        <v>1</v>
+      </c>
+      <c r="J6" s="4" t="s">
+        <v>293</v>
+      </c>
+      <c r="K6" s="4" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A7" s="4" t="s">
+        <v>295</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7" s="4">
+        <v>88.034633999999997</v>
+      </c>
+      <c r="D7" s="4">
+        <v>25.812512000000002</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>296</v>
+      </c>
+      <c r="F7" s="4">
+        <v>28</v>
+      </c>
+      <c r="G7" s="4" t="s">
+        <v>297</v>
+      </c>
+      <c r="H7" s="4" t="s">
+        <v>298</v>
+      </c>
+      <c r="I7" s="4">
+        <v>4</v>
+      </c>
+      <c r="J7" s="4" t="s">
+        <v>299</v>
+      </c>
+      <c r="K7" s="4" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A8" s="4" t="s">
+        <v>301</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C8" s="4">
+        <v>88.278091000000003</v>
+      </c>
+      <c r="D8" s="4">
+        <v>24.227117</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>302</v>
+      </c>
+      <c r="F8" s="4">
+        <v>6</v>
+      </c>
+      <c r="G8" s="4" t="s">
+        <v>303</v>
+      </c>
+      <c r="H8" s="4" t="s">
+        <v>304</v>
+      </c>
+      <c r="I8" s="4">
+        <v>1</v>
+      </c>
+      <c r="J8" s="4" t="s">
+        <v>305</v>
+      </c>
+      <c r="K8" s="4" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A9" s="4" t="s">
+        <v>307</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C9" s="4">
+        <v>88.862753999999995</v>
+      </c>
+      <c r="D9" s="4">
+        <v>23.043444999999998</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>308</v>
+      </c>
+      <c r="F9" s="4">
+        <v>7</v>
+      </c>
+      <c r="G9" s="4" t="s">
+        <v>309</v>
+      </c>
+      <c r="H9" s="4" t="s">
+        <v>310</v>
+      </c>
+      <c r="I9" s="4">
+        <v>2</v>
+      </c>
+      <c r="J9" s="4" t="s">
+        <v>311</v>
+      </c>
+      <c r="K9" s="4" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A10" s="4" t="s">
+        <v>313</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>314</v>
+      </c>
+      <c r="C10" s="4">
+        <v>89.797895999999994</v>
+      </c>
+      <c r="D10" s="4">
+        <v>24.191037000000001</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>315</v>
+      </c>
+      <c r="F10" s="4">
+        <v>18</v>
+      </c>
+      <c r="G10" s="4" t="s">
+        <v>316</v>
+      </c>
+      <c r="H10" s="4" t="s">
+        <v>317</v>
+      </c>
+      <c r="I10" s="4">
+        <v>3</v>
+      </c>
+      <c r="J10" s="4" t="s">
+        <v>318</v>
+      </c>
+      <c r="K10" s="4" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A11" s="4" t="s">
+        <v>320</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="C11" s="4">
+        <v>88.863322999999994</v>
+      </c>
+      <c r="D11" s="4">
+        <v>22.292854999999999</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>321</v>
+      </c>
+      <c r="F11" s="4">
+        <v>15</v>
+      </c>
+      <c r="G11" s="4" t="s">
+        <v>322</v>
+      </c>
+      <c r="H11" s="4" t="s">
+        <v>323</v>
+      </c>
+      <c r="I11" s="4">
+        <v>5</v>
+      </c>
+      <c r="J11" s="4" t="s">
+        <v>324</v>
+      </c>
+      <c r="K11" s="4" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A12" s="4" t="s">
+        <v>326</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C12" s="4">
+        <v>89.455865000000003</v>
+      </c>
+      <c r="D12" s="4">
+        <v>22.066096000000002</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>327</v>
+      </c>
+      <c r="F12" s="4">
+        <v>14</v>
+      </c>
+      <c r="G12" s="4" t="s">
+        <v>328</v>
+      </c>
+      <c r="H12" s="4" t="s">
+        <v>329</v>
+      </c>
+      <c r="I12" s="4">
+        <v>5</v>
+      </c>
+      <c r="J12" s="4" t="s">
+        <v>330</v>
+      </c>
+      <c r="K12" s="4" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A13" s="4" t="s">
+        <v>277</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="C13" s="4">
+        <v>88.087096000000003</v>
+      </c>
+      <c r="D13" s="4">
+        <v>22.199826999999999</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>332</v>
+      </c>
+      <c r="F13" s="4">
+        <v>30</v>
+      </c>
+      <c r="G13" s="4" t="s">
+        <v>333</v>
+      </c>
+      <c r="H13" s="4" t="s">
+        <v>334</v>
+      </c>
+      <c r="I13" s="4">
+        <v>1</v>
+      </c>
+      <c r="J13" s="4" t="s">
+        <v>335</v>
+      </c>
+      <c r="K13" s="4" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A14" s="4" t="s">
+        <v>337</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="C14" s="4">
+        <v>88.171587000000002</v>
+      </c>
+      <c r="D14" s="4">
+        <v>25.223134000000002</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>338</v>
+      </c>
+      <c r="F14" s="4">
+        <v>27</v>
+      </c>
+      <c r="G14" s="4" t="s">
+        <v>339</v>
+      </c>
+      <c r="H14" s="4" t="s">
+        <v>340</v>
+      </c>
+      <c r="I14" s="4">
+        <v>5</v>
+      </c>
+      <c r="J14" s="4" t="s">
+        <v>341</v>
+      </c>
+      <c r="K14" s="4" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A15" s="4" t="s">
+        <v>343</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="C15" s="4">
+        <v>88.735011</v>
+      </c>
+      <c r="D15" s="4">
+        <v>23.889099999999999</v>
+      </c>
+      <c r="E15" s="4" t="s">
+        <v>344</v>
+      </c>
+      <c r="F15" s="4">
+        <v>9</v>
+      </c>
+      <c r="G15" s="4" t="s">
+        <v>345</v>
+      </c>
+      <c r="H15" s="4" t="s">
+        <v>346</v>
+      </c>
+      <c r="I15" s="4">
+        <v>5</v>
+      </c>
+      <c r="J15" s="4" t="s">
+        <v>347</v>
+      </c>
+      <c r="K15" s="4" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A16" s="4" t="s">
+        <v>349</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="C16" s="4">
+        <v>88.126198000000002</v>
+      </c>
+      <c r="D16" s="4">
+        <v>25.558098000000001</v>
+      </c>
+      <c r="E16" s="4" t="s">
+        <v>350</v>
+      </c>
+      <c r="F16" s="4">
+        <v>1</v>
+      </c>
+      <c r="G16" s="4" t="s">
+        <v>351</v>
+      </c>
+      <c r="H16" s="4" t="s">
+        <v>352</v>
+      </c>
+      <c r="I16" s="4">
+        <v>7</v>
+      </c>
+      <c r="J16" s="4" t="s">
+        <v>353</v>
+      </c>
+      <c r="K16" s="4" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A17" s="4" t="s">
+        <v>355</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="C17" s="4">
+        <v>88.474405000000004</v>
+      </c>
+      <c r="D17" s="4">
+        <v>22.005870999999999</v>
+      </c>
+      <c r="E17" s="4" t="s">
+        <v>356</v>
+      </c>
+      <c r="F17" s="4">
+        <v>0</v>
+      </c>
+      <c r="G17" s="4" t="s">
+        <v>357</v>
+      </c>
+      <c r="H17" s="4" t="s">
+        <v>358</v>
+      </c>
+      <c r="I17" s="4">
+        <v>5</v>
+      </c>
+      <c r="J17" s="4" t="s">
+        <v>359</v>
+      </c>
+      <c r="K17" s="4" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A18" s="4" t="s">
+        <v>361</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="C18" s="4">
+        <v>89.037891000000002</v>
+      </c>
+      <c r="D18" s="4">
+        <v>24.691503999999998</v>
+      </c>
+      <c r="E18" s="4" t="s">
+        <v>362</v>
+      </c>
+      <c r="F18" s="4">
+        <v>0</v>
+      </c>
+      <c r="G18" s="4" t="s">
+        <v>363</v>
+      </c>
+      <c r="H18" s="4" t="s">
+        <v>364</v>
+      </c>
+      <c r="I18" s="4">
+        <v>7</v>
+      </c>
+      <c r="J18" s="4" t="s">
+        <v>365</v>
+      </c>
+      <c r="K18" s="4" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A19" s="4" t="s">
+        <v>367</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="C19" s="4">
+        <v>88.308458999999999</v>
+      </c>
+      <c r="D19" s="4">
+        <v>25.542100999999999</v>
+      </c>
+      <c r="E19" s="4" t="s">
+        <v>368</v>
+      </c>
+      <c r="F19" s="4">
+        <v>17</v>
+      </c>
+      <c r="G19" s="4" t="s">
+        <v>369</v>
+      </c>
+      <c r="H19" s="4" t="s">
+        <v>370</v>
+      </c>
+      <c r="I19" s="4">
+        <v>6</v>
+      </c>
+      <c r="J19" s="4" t="s">
+        <v>371</v>
+      </c>
+      <c r="K19" s="4" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A20" s="4" t="s">
+        <v>373</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="C20" s="4">
+        <v>88.839043000000004</v>
+      </c>
+      <c r="D20" s="4">
+        <v>25.392458999999999</v>
+      </c>
+      <c r="E20" s="4" t="s">
+        <v>374</v>
+      </c>
+      <c r="F20" s="4">
+        <v>19</v>
+      </c>
+      <c r="G20" s="4" t="s">
+        <v>375</v>
+      </c>
+      <c r="H20" s="4" t="s">
+        <v>376</v>
+      </c>
+      <c r="I20" s="4">
+        <v>5</v>
+      </c>
+      <c r="J20" s="4" t="s">
+        <v>377</v>
+      </c>
+      <c r="K20" s="4" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" ht="302.39999999999998" x14ac:dyDescent="0.3">
+      <c r="A21" s="4" t="s">
+        <v>379</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="C21" s="4">
+        <v>91.063822000000002</v>
+      </c>
+      <c r="D21" s="4">
+        <v>22.128042000000001</v>
+      </c>
+      <c r="E21" s="4" t="s">
+        <v>380</v>
+      </c>
+      <c r="F21" s="5">
+        <v>1071.06</v>
+      </c>
+      <c r="G21" s="4" t="s">
+        <v>381</v>
+      </c>
+      <c r="H21" s="4" t="s">
+        <v>382</v>
+      </c>
+      <c r="I21" s="4" t="s">
+        <v>383</v>
+      </c>
+      <c r="J21" s="4" t="s">
+        <v>384</v>
+      </c>
+      <c r="K21" s="4" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A22" s="4" t="s">
+        <v>386</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="C22" s="4">
+        <v>89.58708</v>
+      </c>
+      <c r="D22" s="4">
+        <v>22.605958000000001</v>
+      </c>
+      <c r="E22" s="4" t="s">
+        <v>368</v>
+      </c>
+      <c r="F22" s="4">
+        <v>29</v>
+      </c>
+      <c r="G22" s="4" t="s">
+        <v>369</v>
+      </c>
+      <c r="H22" s="4" t="s">
+        <v>370</v>
+      </c>
+      <c r="I22" s="4">
+        <v>4</v>
+      </c>
+      <c r="J22" s="4" t="s">
+        <v>371</v>
+      </c>
+      <c r="K22" s="4" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A23" s="4" t="s">
+        <v>387</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="C23" s="4">
+        <v>89.636860999999996</v>
+      </c>
+      <c r="D23" s="4">
+        <v>23.329194000000001</v>
+      </c>
+      <c r="E23" s="4" t="s">
+        <v>374</v>
+      </c>
+      <c r="F23" s="4">
+        <v>22</v>
+      </c>
+      <c r="G23" s="4" t="s">
+        <v>375</v>
+      </c>
+      <c r="H23" s="4" t="s">
+        <v>376</v>
+      </c>
+      <c r="I23" s="4">
+        <v>1</v>
+      </c>
+      <c r="J23" s="4" t="s">
+        <v>377</v>
+      </c>
+      <c r="K23" s="4" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A24" s="4" t="s">
+        <v>388</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="C24" s="4">
+        <v>89.184607999999997</v>
+      </c>
+      <c r="D24" s="4">
+        <v>23.954238</v>
+      </c>
+      <c r="E24" s="4" t="s">
+        <v>389</v>
+      </c>
+      <c r="F24" s="5">
+        <v>407659.83</v>
+      </c>
+      <c r="G24" s="4" t="s">
+        <v>390</v>
+      </c>
+      <c r="H24" s="4" t="s">
+        <v>391</v>
+      </c>
+      <c r="I24" s="4" t="s">
+        <v>392</v>
+      </c>
+      <c r="J24" s="4" t="s">
+        <v>384</v>
+      </c>
+      <c r="K24" s="4" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A25" s="4" t="s">
+        <v>393</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="C25" s="4">
+        <v>88.529298999999995</v>
+      </c>
+      <c r="D25" s="4">
+        <v>22.115302</v>
+      </c>
+      <c r="E25" s="4" t="s">
+        <v>368</v>
+      </c>
+      <c r="F25" s="4">
         <v>13</v>
       </c>
-      <c r="B3" s="4"/>
-      <c r="E3" s="3" t="s">
+      <c r="G25" s="4" t="s">
+        <v>369</v>
+      </c>
+      <c r="H25" s="4" t="s">
+        <v>370</v>
+      </c>
+      <c r="I25" s="4">
+        <v>2</v>
+      </c>
+      <c r="J25" s="4" t="s">
+        <v>371</v>
+      </c>
+      <c r="K25" s="4" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A26" s="4" t="s">
+        <v>394</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="C26" s="4">
+        <v>88.863603999999995</v>
+      </c>
+      <c r="D26" s="4">
+        <v>23.344335999999998</v>
+      </c>
+      <c r="E26" s="4" t="s">
+        <v>374</v>
+      </c>
+      <c r="F26" s="4">
+        <v>5</v>
+      </c>
+      <c r="G26" s="4" t="s">
+        <v>375</v>
+      </c>
+      <c r="H26" s="4" t="s">
+        <v>376</v>
+      </c>
+      <c r="I26" s="4">
+        <v>5</v>
+      </c>
+      <c r="J26" s="4" t="s">
+        <v>377</v>
+      </c>
+      <c r="K26" s="4" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A27" s="4" t="s">
+        <v>395</v>
+      </c>
+      <c r="B27" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="C27" s="4">
+        <v>89.689940000000007</v>
+      </c>
+      <c r="D27" s="4">
+        <v>25.189990000000002</v>
+      </c>
+      <c r="E27" s="4" t="s">
+        <v>396</v>
+      </c>
+      <c r="F27" s="4">
+        <v>13</v>
+      </c>
+      <c r="G27" s="4" t="s">
+        <v>397</v>
+      </c>
+      <c r="H27" s="4" t="s">
+        <v>398</v>
+      </c>
+      <c r="I27" s="4">
+        <v>2</v>
+      </c>
+      <c r="J27" s="4" t="s">
+        <v>399</v>
+      </c>
+      <c r="K27" s="4" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A28" s="4" t="s">
+        <v>401</v>
+      </c>
+      <c r="B28" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="C28" s="4">
+        <v>89.681224</v>
+      </c>
+      <c r="D28" s="4">
+        <v>22.111886999999999</v>
+      </c>
+      <c r="E28" s="4" t="s">
+        <v>402</v>
+      </c>
+      <c r="F28" s="4">
+        <v>8</v>
+      </c>
+      <c r="G28" s="4" t="s">
+        <v>403</v>
+      </c>
+      <c r="H28" s="4" t="s">
+        <v>404</v>
+      </c>
+      <c r="I28" s="4">
+        <v>3</v>
+      </c>
+      <c r="J28" s="4" t="s">
+        <v>405</v>
+      </c>
+      <c r="K28" s="4" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A29" s="4" t="s">
+        <v>407</v>
+      </c>
+      <c r="B29" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="C29" s="4">
+        <v>89.910067999999995</v>
+      </c>
+      <c r="D29" s="4">
+        <v>23.423774999999999</v>
+      </c>
+      <c r="E29" s="4" t="s">
+        <v>408</v>
+      </c>
+      <c r="F29" s="4">
+        <v>12</v>
+      </c>
+      <c r="G29" s="4" t="s">
+        <v>409</v>
+      </c>
+      <c r="H29" s="4" t="s">
+        <v>410</v>
+      </c>
+      <c r="I29" s="4">
+        <v>3</v>
+      </c>
+      <c r="J29" s="4" t="s">
+        <v>411</v>
+      </c>
+      <c r="K29" s="4" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A30" s="4" t="s">
+        <v>413</v>
+      </c>
+      <c r="B30" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="C30" s="4">
+        <v>88.624504000000002</v>
+      </c>
+      <c r="D30" s="4">
+        <v>25.526624000000002</v>
+      </c>
+      <c r="E30" s="4" t="s">
+        <v>414</v>
+      </c>
+      <c r="F30" s="4">
+        <v>20</v>
+      </c>
+      <c r="G30" s="4" t="s">
+        <v>415</v>
+      </c>
+      <c r="H30" s="4" t="s">
+        <v>416</v>
+      </c>
+      <c r="I30" s="4">
+        <v>5</v>
+      </c>
+      <c r="J30" s="4" t="s">
+        <v>417</v>
+      </c>
+      <c r="K30" s="4" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A31" s="4" t="s">
+        <v>419</v>
+      </c>
+      <c r="B31" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="C31" s="4">
+        <v>89.888886999999997</v>
+      </c>
+      <c r="D31" s="4">
+        <v>23.960508999999998</v>
+      </c>
+      <c r="E31" s="4" t="s">
+        <v>420</v>
+      </c>
+      <c r="F31" s="4">
+        <v>20</v>
+      </c>
+      <c r="G31" s="4" t="s">
+        <v>421</v>
+      </c>
+      <c r="H31" s="4" t="s">
+        <v>422</v>
+      </c>
+      <c r="I31" s="4">
+        <v>2</v>
+      </c>
+      <c r="J31" s="4" t="s">
+        <v>423</v>
+      </c>
+      <c r="K31" s="4" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A32" s="4" t="s">
+        <v>425</v>
+      </c>
+      <c r="B32" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="C32" s="4">
+        <v>88.343097999999998</v>
+      </c>
+      <c r="D32" s="4">
+        <v>23.582843</v>
+      </c>
+      <c r="E32" s="4" t="s">
+        <v>426</v>
+      </c>
+      <c r="F32" s="4">
+        <v>27</v>
+      </c>
+      <c r="G32" s="4" t="s">
+        <v>427</v>
+      </c>
+      <c r="H32" s="4" t="s">
+        <v>428</v>
+      </c>
+      <c r="I32" s="4">
+        <v>3</v>
+      </c>
+      <c r="J32" s="4" t="s">
+        <v>429</v>
+      </c>
+      <c r="K32" s="4" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A33" s="4" t="s">
+        <v>431</v>
+      </c>
+      <c r="B33" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="C33" s="4">
+        <v>88.118854999999996</v>
+      </c>
+      <c r="D33" s="4">
+        <v>25.829878000000001</v>
+      </c>
+      <c r="E33" s="4" t="s">
+        <v>432</v>
+      </c>
+      <c r="F33" s="4">
+        <v>8</v>
+      </c>
+      <c r="G33" s="4" t="s">
+        <v>433</v>
+      </c>
+      <c r="H33" s="4" t="s">
+        <v>434</v>
+      </c>
+      <c r="I33" s="4">
+        <v>2</v>
+      </c>
+      <c r="J33" s="4" t="s">
+        <v>435</v>
+      </c>
+      <c r="K33" s="4" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A34" s="4" t="s">
+        <v>437</v>
+      </c>
+      <c r="B34" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="C34" s="4">
+        <v>88.794310999999993</v>
+      </c>
+      <c r="D34" s="4">
+        <v>22.257062000000001</v>
+      </c>
+      <c r="E34" s="4" t="s">
+        <v>438</v>
+      </c>
+      <c r="F34" s="4">
+        <v>23</v>
+      </c>
+      <c r="G34" s="4" t="s">
+        <v>439</v>
+      </c>
+      <c r="H34" s="4" t="s">
+        <v>440</v>
+      </c>
+      <c r="I34" s="4">
+        <v>3</v>
+      </c>
+      <c r="J34" s="4" t="s">
+        <v>441</v>
+      </c>
+      <c r="K34" s="4" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A35" s="4" t="s">
+        <v>443</v>
+      </c>
+      <c r="B35" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="C35" s="4">
+        <v>88.542064999999994</v>
+      </c>
+      <c r="D35" s="4">
+        <v>24.719757000000001</v>
+      </c>
+      <c r="E35" s="4" t="s">
+        <v>444</v>
+      </c>
+      <c r="F35" s="4">
+        <v>22</v>
+      </c>
+      <c r="G35" s="4" t="s">
+        <v>445</v>
+      </c>
+      <c r="H35" s="4" t="s">
+        <v>446</v>
+      </c>
+      <c r="I35" s="4">
+        <v>1</v>
+      </c>
+      <c r="J35" s="4" t="s">
+        <v>447</v>
+      </c>
+      <c r="K35" s="4" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A36" s="4" t="s">
+        <v>449</v>
+      </c>
+      <c r="B36" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="C36" s="4">
+        <v>89.563695999999993</v>
+      </c>
+      <c r="D36" s="4">
+        <v>22.761310000000002</v>
+      </c>
+      <c r="E36" s="4" t="s">
+        <v>450</v>
+      </c>
+      <c r="F36" s="4">
+        <v>14</v>
+      </c>
+      <c r="G36" s="4" t="s">
+        <v>451</v>
+      </c>
+      <c r="H36" s="4" t="s">
+        <v>452</v>
+      </c>
+      <c r="I36" s="4">
+        <v>2</v>
+      </c>
+      <c r="J36" s="4" t="s">
+        <v>453</v>
+      </c>
+      <c r="K36" s="4" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A37" s="4" t="s">
+        <v>455</v>
+      </c>
+      <c r="B37" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="C37" s="4">
+        <v>89.905834999999996</v>
+      </c>
+      <c r="D37" s="4">
+        <v>23.018201000000001</v>
+      </c>
+      <c r="E37" s="4" t="s">
+        <v>456</v>
+      </c>
+      <c r="F37" s="4">
+        <v>8</v>
+      </c>
+      <c r="G37" s="4" t="s">
+        <v>457</v>
+      </c>
+      <c r="H37" s="4" t="s">
+        <v>458</v>
+      </c>
+      <c r="I37" s="4">
+        <v>5</v>
+      </c>
+      <c r="J37" s="4" t="s">
+        <v>459</v>
+      </c>
+      <c r="K37" s="4" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A38" s="4" t="s">
+        <v>461</v>
+      </c>
+      <c r="B38" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="C38" s="4">
+        <v>89.331614999999999</v>
+      </c>
+      <c r="D38" s="4">
+        <v>24.418077</v>
+      </c>
+      <c r="E38" s="4" t="s">
+        <v>462</v>
+      </c>
+      <c r="F38" s="4">
+        <v>5</v>
+      </c>
+      <c r="G38" s="4" t="s">
+        <v>463</v>
+      </c>
+      <c r="H38" s="4" t="s">
+        <v>464</v>
+      </c>
+      <c r="I38" s="4">
         <v>7</v>
       </c>
-    </row>
-    <row r="4" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A4" s="3" t="s">
+      <c r="J38" s="4" t="s">
+        <v>465</v>
+      </c>
+      <c r="K38" s="4" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A39" s="4" t="s">
+        <v>467</v>
+      </c>
+      <c r="B39" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="C39" s="4">
+        <v>89.113855999999998</v>
+      </c>
+      <c r="D39" s="4">
+        <v>22.321149999999999</v>
+      </c>
+      <c r="E39" s="4" t="s">
+        <v>468</v>
+      </c>
+      <c r="F39" s="4">
+        <v>3</v>
+      </c>
+      <c r="G39" s="4" t="s">
+        <v>469</v>
+      </c>
+      <c r="H39" s="4" t="s">
+        <v>470</v>
+      </c>
+      <c r="I39" s="4">
+        <v>5</v>
+      </c>
+      <c r="J39" s="4" t="s">
+        <v>471</v>
+      </c>
+      <c r="K39" s="4" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A40" s="4" t="s">
+        <v>473</v>
+      </c>
+      <c r="B40" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="C40" s="4">
+        <v>89.761555999999999</v>
+      </c>
+      <c r="D40" s="4">
+        <v>24.688924</v>
+      </c>
+      <c r="E40" s="4" t="s">
+        <v>474</v>
+      </c>
+      <c r="F40" s="4">
         <v>16</v>
       </c>
-      <c r="B4" s="4"/>
-      <c r="E4" s="3" t="s">
+      <c r="G40" s="4" t="s">
+        <v>475</v>
+      </c>
+      <c r="H40" s="4" t="s">
+        <v>476</v>
+      </c>
+      <c r="I40" s="4">
+        <v>5</v>
+      </c>
+      <c r="J40" s="4" t="s">
+        <v>477</v>
+      </c>
+      <c r="K40" s="4" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A41" s="4" t="s">
+        <v>479</v>
+      </c>
+      <c r="B41" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="C41" s="4">
+        <v>88.199661000000006</v>
+      </c>
+      <c r="D41" s="4">
+        <v>22.511351000000001</v>
+      </c>
+      <c r="E41" s="4" t="s">
+        <v>480</v>
+      </c>
+      <c r="F41" s="4">
+        <v>6</v>
+      </c>
+      <c r="G41" s="4" t="s">
+        <v>481</v>
+      </c>
+      <c r="H41" s="4" t="s">
+        <v>482</v>
+      </c>
+      <c r="I41" s="4">
+        <v>6</v>
+      </c>
+      <c r="J41" s="4" t="s">
+        <v>483</v>
+      </c>
+      <c r="K41" s="4" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A42" s="4" t="s">
+        <v>485</v>
+      </c>
+      <c r="B42" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="C42" s="4">
+        <v>89.977571999999995</v>
+      </c>
+      <c r="D42" s="4">
+        <v>24.428816000000001</v>
+      </c>
+      <c r="E42" s="4" t="s">
+        <v>486</v>
+      </c>
+      <c r="F42" s="4">
+        <v>4</v>
+      </c>
+      <c r="G42" s="4" t="s">
+        <v>487</v>
+      </c>
+      <c r="H42" s="4" t="s">
+        <v>488</v>
+      </c>
+      <c r="I42" s="4">
+        <v>6</v>
+      </c>
+      <c r="J42" s="4" t="s">
+        <v>489</v>
+      </c>
+      <c r="K42" s="4" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A43" s="4" t="s">
+        <v>491</v>
+      </c>
+      <c r="B43" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="C43" s="4">
+        <v>89.258735999999999</v>
+      </c>
+      <c r="D43" s="4">
+        <v>25.675630999999999</v>
+      </c>
+      <c r="E43" s="4" t="s">
+        <v>492</v>
+      </c>
+      <c r="F43" s="4">
+        <v>24</v>
+      </c>
+      <c r="G43" s="4" t="s">
+        <v>493</v>
+      </c>
+      <c r="H43" s="4" t="s">
+        <v>494</v>
+      </c>
+      <c r="I43" s="4">
+        <v>5</v>
+      </c>
+      <c r="J43" s="4" t="s">
+        <v>495</v>
+      </c>
+      <c r="K43" s="4" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A44" s="4" t="s">
+        <v>497</v>
+      </c>
+      <c r="B44" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="C44" s="4">
+        <v>89.862930000000006</v>
+      </c>
+      <c r="D44" s="4">
+        <v>24.528406</v>
+      </c>
+      <c r="E44" s="4" t="s">
+        <v>498</v>
+      </c>
+      <c r="F44" s="4">
+        <v>5</v>
+      </c>
+      <c r="G44" s="4" t="s">
+        <v>499</v>
+      </c>
+      <c r="H44" s="4" t="s">
+        <v>500</v>
+      </c>
+      <c r="I44" s="4">
+        <v>3</v>
+      </c>
+      <c r="J44" s="4" t="s">
+        <v>501</v>
+      </c>
+      <c r="K44" s="4" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A45" s="4" t="s">
+        <v>503</v>
+      </c>
+      <c r="B45" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="C45" s="4">
+        <v>88.374863000000005</v>
+      </c>
+      <c r="D45" s="4">
+        <v>24.851911999999999</v>
+      </c>
+      <c r="E45" s="4" t="s">
+        <v>504</v>
+      </c>
+      <c r="F45" s="4">
+        <v>3</v>
+      </c>
+      <c r="G45" s="4" t="s">
+        <v>505</v>
+      </c>
+      <c r="H45" s="4" t="s">
+        <v>506</v>
+      </c>
+      <c r="I45" s="4">
+        <v>4</v>
+      </c>
+      <c r="J45" s="4" t="s">
+        <v>507</v>
+      </c>
+      <c r="K45" s="4" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A46" s="4" t="s">
+        <v>509</v>
+      </c>
+      <c r="B46" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="C46" s="4">
+        <v>88.964731999999998</v>
+      </c>
+      <c r="D46" s="4">
+        <v>22.121072000000002</v>
+      </c>
+      <c r="E46" s="4" t="s">
+        <v>510</v>
+      </c>
+      <c r="F46" s="4">
+        <v>14</v>
+      </c>
+      <c r="G46" s="4" t="s">
+        <v>511</v>
+      </c>
+      <c r="H46" s="4" t="s">
+        <v>512</v>
+      </c>
+      <c r="I46" s="4">
+        <v>1</v>
+      </c>
+      <c r="J46" s="4" t="s">
+        <v>513</v>
+      </c>
+      <c r="K46" s="4" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A47" s="4" t="s">
+        <v>497</v>
+      </c>
+      <c r="B47" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="C47" s="4">
+        <v>88.224822000000003</v>
+      </c>
+      <c r="D47" s="4">
+        <v>23.344951999999999</v>
+      </c>
+      <c r="E47" s="4" t="s">
+        <v>515</v>
+      </c>
+      <c r="F47" s="4">
+        <v>30</v>
+      </c>
+      <c r="G47" s="4" t="s">
+        <v>516</v>
+      </c>
+      <c r="H47" s="4" t="s">
+        <v>517</v>
+      </c>
+      <c r="I47" s="4">
+        <v>6</v>
+      </c>
+      <c r="J47" s="4" t="s">
+        <v>518</v>
+      </c>
+      <c r="K47" s="4" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A48" s="4" t="s">
+        <v>520</v>
+      </c>
+      <c r="B48" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="C48" s="4">
+        <v>89.736481999999995</v>
+      </c>
+      <c r="D48" s="4">
+        <v>25.561463</v>
+      </c>
+      <c r="E48" s="4" t="s">
+        <v>521</v>
+      </c>
+      <c r="F48" s="4">
+        <v>16</v>
+      </c>
+      <c r="G48" s="4" t="s">
+        <v>522</v>
+      </c>
+      <c r="H48" s="4" t="s">
+        <v>523</v>
+      </c>
+      <c r="I48" s="4">
+        <v>1</v>
+      </c>
+      <c r="J48" s="4" t="s">
+        <v>524</v>
+      </c>
+      <c r="K48" s="4" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A49" s="4" t="s">
+        <v>526</v>
+      </c>
+      <c r="B49" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="C49" s="4">
+        <v>89.635817000000003</v>
+      </c>
+      <c r="D49" s="4">
+        <v>22.525193999999999</v>
+      </c>
+      <c r="E49" s="4" t="s">
+        <v>527</v>
+      </c>
+      <c r="F49" s="4">
+        <v>28</v>
+      </c>
+      <c r="G49" s="4" t="s">
+        <v>528</v>
+      </c>
+      <c r="H49" s="4" t="s">
+        <v>529</v>
+      </c>
+      <c r="I49" s="4">
         <v>7</v>
       </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A5" s="3" t="s">
+      <c r="J49" s="4" t="s">
+        <v>530</v>
+      </c>
+      <c r="K49" s="4" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A50" s="4" t="s">
+        <v>532</v>
+      </c>
+      <c r="B50" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="C50" s="4">
+        <v>88.234560000000002</v>
+      </c>
+      <c r="D50" s="4">
+        <v>24.377966000000001</v>
+      </c>
+      <c r="E50" s="4" t="s">
+        <v>533</v>
+      </c>
+      <c r="F50" s="4">
+        <v>29</v>
+      </c>
+      <c r="G50" s="4" t="s">
+        <v>534</v>
+      </c>
+      <c r="H50" s="4" t="s">
+        <v>535</v>
+      </c>
+      <c r="I50" s="4">
+        <v>3</v>
+      </c>
+      <c r="J50" s="4" t="s">
+        <v>536</v>
+      </c>
+      <c r="K50" s="4" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A51" s="4" t="s">
+        <v>538</v>
+      </c>
+      <c r="B51" s="4" t="s">
+        <v>539</v>
+      </c>
+      <c r="C51" s="4">
+        <v>89.788086000000007</v>
+      </c>
+      <c r="D51" s="4">
+        <v>24.074493</v>
+      </c>
+      <c r="E51" s="4" t="s">
+        <v>540</v>
+      </c>
+      <c r="F51" s="4">
+        <v>3</v>
+      </c>
+      <c r="G51" s="4" t="s">
+        <v>541</v>
+      </c>
+      <c r="H51" s="4" t="s">
+        <v>542</v>
+      </c>
+      <c r="I51" s="4">
+        <v>7</v>
+      </c>
+      <c r="J51" s="4" t="s">
+        <v>543</v>
+      </c>
+      <c r="K51" s="4" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A52" s="4" t="s">
+        <v>545</v>
+      </c>
+      <c r="B52" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="C52" s="4">
+        <v>88.359612999999996</v>
+      </c>
+      <c r="D52" s="4">
+        <v>24.554711000000001</v>
+      </c>
+      <c r="E52" s="4" t="s">
+        <v>546</v>
+      </c>
+      <c r="F52" s="4">
+        <v>12</v>
+      </c>
+      <c r="G52" s="4" t="s">
+        <v>547</v>
+      </c>
+      <c r="H52" s="4" t="s">
+        <v>548</v>
+      </c>
+      <c r="I52" s="4">
+        <v>2</v>
+      </c>
+      <c r="J52" s="4" t="s">
+        <v>549</v>
+      </c>
+      <c r="K52" s="4" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A53" s="4" t="s">
+        <v>551</v>
+      </c>
+      <c r="B53" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="C53" s="4">
+        <v>88.126177999999996</v>
+      </c>
+      <c r="D53" s="4">
+        <v>22.062348</v>
+      </c>
+      <c r="E53" s="4" t="s">
+        <v>552</v>
+      </c>
+      <c r="F53" s="4">
+        <v>21</v>
+      </c>
+      <c r="G53" s="4" t="s">
+        <v>553</v>
+      </c>
+      <c r="H53" s="4" t="s">
+        <v>554</v>
+      </c>
+      <c r="I53" s="4">
+        <v>3</v>
+      </c>
+      <c r="J53" s="4" t="s">
+        <v>555</v>
+      </c>
+      <c r="K53" s="4" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A54" s="4" t="s">
+        <v>557</v>
+      </c>
+      <c r="B54" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="C54" s="4">
+        <v>89.325990000000004</v>
+      </c>
+      <c r="D54" s="4">
+        <v>22.753063999999998</v>
+      </c>
+      <c r="E54" s="4" t="s">
+        <v>558</v>
+      </c>
+      <c r="F54" s="4">
+        <v>10</v>
+      </c>
+      <c r="G54" s="4" t="s">
+        <v>559</v>
+      </c>
+      <c r="H54" s="4" t="s">
+        <v>560</v>
+      </c>
+      <c r="I54" s="4">
+        <v>2</v>
+      </c>
+      <c r="J54" s="4" t="s">
+        <v>561</v>
+      </c>
+      <c r="K54" s="4" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A55" s="4" t="s">
+        <v>563</v>
+      </c>
+      <c r="B55" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="C55" s="4">
+        <v>89.772435000000002</v>
+      </c>
+      <c r="D55" s="4">
+        <v>23.446793</v>
+      </c>
+      <c r="E55" s="4" t="s">
+        <v>564</v>
+      </c>
+      <c r="F55" s="4">
+        <v>28</v>
+      </c>
+      <c r="G55" s="4" t="s">
+        <v>565</v>
+      </c>
+      <c r="H55" s="4" t="s">
+        <v>566</v>
+      </c>
+      <c r="I55" s="4">
+        <v>1</v>
+      </c>
+      <c r="J55" s="4" t="s">
+        <v>567</v>
+      </c>
+      <c r="K55" s="4" t="s">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A56" s="4" t="s">
+        <v>569</v>
+      </c>
+      <c r="B56" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="C56" s="4">
+        <v>89.562094999999999</v>
+      </c>
+      <c r="D56" s="4">
+        <v>22.768405999999999</v>
+      </c>
+      <c r="E56" s="4" t="s">
+        <v>570</v>
+      </c>
+      <c r="F56" s="4">
         <v>19</v>
       </c>
-      <c r="B5" s="4"/>
-      <c r="E5" s="3" t="s">
+      <c r="G56" s="4" t="s">
+        <v>571</v>
+      </c>
+      <c r="H56" s="4" t="s">
+        <v>572</v>
+      </c>
+      <c r="I56" s="4">
+        <v>5</v>
+      </c>
+      <c r="J56" s="4" t="s">
+        <v>573</v>
+      </c>
+      <c r="K56" s="4" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A57" s="4" t="s">
+        <v>575</v>
+      </c>
+      <c r="B57" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="C57" s="4">
+        <v>88.616365000000002</v>
+      </c>
+      <c r="D57" s="4">
+        <v>25.519822000000001</v>
+      </c>
+      <c r="E57" s="4" t="s">
+        <v>576</v>
+      </c>
+      <c r="F57" s="4">
+        <v>16</v>
+      </c>
+      <c r="G57" s="4" t="s">
+        <v>577</v>
+      </c>
+      <c r="H57" s="4" t="s">
+        <v>578</v>
+      </c>
+      <c r="I57" s="4">
+        <v>2</v>
+      </c>
+      <c r="J57" s="4" t="s">
+        <v>579</v>
+      </c>
+      <c r="K57" s="4" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A58" s="4" t="s">
+        <v>581</v>
+      </c>
+      <c r="B58" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="C58" s="4">
+        <v>88.664113</v>
+      </c>
+      <c r="D58" s="4">
+        <v>25.986363000000001</v>
+      </c>
+      <c r="E58" s="4" t="s">
+        <v>582</v>
+      </c>
+      <c r="F58" s="4">
+        <v>10</v>
+      </c>
+      <c r="G58" s="4" t="s">
+        <v>583</v>
+      </c>
+      <c r="H58" s="4" t="s">
+        <v>584</v>
+      </c>
+      <c r="I58" s="4">
+        <v>6</v>
+      </c>
+      <c r="J58" s="4" t="s">
+        <v>585</v>
+      </c>
+      <c r="K58" s="4" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A59" s="4" t="s">
+        <v>587</v>
+      </c>
+      <c r="B59" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="C59" s="4">
+        <v>89.025219000000007</v>
+      </c>
+      <c r="D59" s="4">
+        <v>23.869229000000001</v>
+      </c>
+      <c r="E59" s="4" t="s">
+        <v>588</v>
+      </c>
+      <c r="F59" s="4">
+        <v>10</v>
+      </c>
+      <c r="G59" s="4" t="s">
+        <v>589</v>
+      </c>
+      <c r="H59" s="4" t="s">
+        <v>590</v>
+      </c>
+      <c r="I59" s="4">
+        <v>6</v>
+      </c>
+      <c r="J59" s="4" t="s">
+        <v>591</v>
+      </c>
+      <c r="K59" s="4" t="s">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A60" s="4" t="s">
+        <v>593</v>
+      </c>
+      <c r="B60" s="4" t="s">
+        <v>187</v>
+      </c>
+      <c r="C60" s="4">
+        <v>88.163978</v>
+      </c>
+      <c r="D60" s="4">
+        <v>24.886773000000002</v>
+      </c>
+      <c r="E60" s="4" t="s">
+        <v>594</v>
+      </c>
+      <c r="F60" s="4">
+        <v>10</v>
+      </c>
+      <c r="G60" s="4" t="s">
+        <v>595</v>
+      </c>
+      <c r="H60" s="4" t="s">
+        <v>596</v>
+      </c>
+      <c r="I60" s="4">
+        <v>5</v>
+      </c>
+      <c r="J60" s="4" t="s">
+        <v>597</v>
+      </c>
+      <c r="K60" s="4" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A61" s="4" t="s">
+        <v>599</v>
+      </c>
+      <c r="B61" s="4" t="s">
+        <v>191</v>
+      </c>
+      <c r="C61" s="4">
+        <v>88.176050000000004</v>
+      </c>
+      <c r="D61" s="4">
+        <v>25.999891000000002</v>
+      </c>
+      <c r="E61" s="4" t="s">
+        <v>600</v>
+      </c>
+      <c r="F61" s="4">
+        <v>17</v>
+      </c>
+      <c r="G61" s="4" t="s">
+        <v>601</v>
+      </c>
+      <c r="H61" s="4" t="s">
+        <v>602</v>
+      </c>
+      <c r="I61" s="4">
+        <v>3</v>
+      </c>
+      <c r="J61" s="4" t="s">
+        <v>603</v>
+      </c>
+      <c r="K61" s="4" t="s">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A62" s="4" t="s">
+        <v>605</v>
+      </c>
+      <c r="B62" s="4" t="s">
+        <v>194</v>
+      </c>
+      <c r="C62" s="4">
+        <v>89.413184999999999</v>
+      </c>
+      <c r="D62" s="4">
+        <v>25.151520999999999</v>
+      </c>
+      <c r="E62" s="4" t="s">
+        <v>606</v>
+      </c>
+      <c r="F62" s="4">
+        <v>12</v>
+      </c>
+      <c r="G62" s="4" t="s">
+        <v>607</v>
+      </c>
+      <c r="H62" s="4" t="s">
+        <v>608</v>
+      </c>
+      <c r="I62" s="4">
+        <v>5</v>
+      </c>
+      <c r="J62" s="4" t="s">
+        <v>609</v>
+      </c>
+      <c r="K62" s="4" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A63" s="4" t="s">
+        <v>611</v>
+      </c>
+      <c r="B63" s="4" t="s">
+        <v>197</v>
+      </c>
+      <c r="C63" s="4">
+        <v>89.493035000000006</v>
+      </c>
+      <c r="D63" s="4">
+        <v>23.211817</v>
+      </c>
+      <c r="E63" s="4" t="s">
+        <v>612</v>
+      </c>
+      <c r="F63" s="4">
+        <v>24</v>
+      </c>
+      <c r="G63" s="4" t="s">
+        <v>613</v>
+      </c>
+      <c r="H63" s="4" t="s">
+        <v>614</v>
+      </c>
+      <c r="I63" s="4">
         <v>7</v>
       </c>
-    </row>
-    <row r="6" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A6" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="B6" s="4"/>
-      <c r="E6" s="3" t="s">
+      <c r="J63" s="4" t="s">
+        <v>615</v>
+      </c>
+      <c r="K63" s="4" t="s">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A64" s="4" t="s">
+        <v>617</v>
+      </c>
+      <c r="B64" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="C64" s="4">
+        <v>88.012232999999995</v>
+      </c>
+      <c r="D64" s="4">
+        <v>25.955545000000001</v>
+      </c>
+      <c r="E64" s="4" t="s">
+        <v>618</v>
+      </c>
+      <c r="F64" s="4">
+        <v>29</v>
+      </c>
+      <c r="G64" s="4" t="s">
+        <v>619</v>
+      </c>
+      <c r="H64" s="4" t="s">
+        <v>620</v>
+      </c>
+      <c r="I64" s="4">
+        <v>3</v>
+      </c>
+      <c r="J64" s="4" t="s">
+        <v>621</v>
+      </c>
+      <c r="K64" s="4" t="s">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="65" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A65" s="4" t="s">
+        <v>623</v>
+      </c>
+      <c r="B65" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="C65" s="4">
+        <v>89.397165000000001</v>
+      </c>
+      <c r="D65" s="4">
+        <v>22.488522</v>
+      </c>
+      <c r="E65" s="4" t="s">
+        <v>624</v>
+      </c>
+      <c r="F65" s="4">
+        <v>8</v>
+      </c>
+      <c r="G65" s="4" t="s">
+        <v>625</v>
+      </c>
+      <c r="H65" s="4" t="s">
+        <v>626</v>
+      </c>
+      <c r="I65" s="4">
+        <v>6</v>
+      </c>
+      <c r="J65" s="4" t="s">
+        <v>627</v>
+      </c>
+      <c r="K65" s="4" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="66" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A66" s="4" t="s">
+        <v>629</v>
+      </c>
+      <c r="B66" s="4" t="s">
+        <v>206</v>
+      </c>
+      <c r="C66" s="4">
+        <v>88.847862000000006</v>
+      </c>
+      <c r="D66" s="4">
+        <v>24.625447999999999</v>
+      </c>
+      <c r="E66" s="4" t="s">
+        <v>630</v>
+      </c>
+      <c r="F66" s="4">
+        <v>14</v>
+      </c>
+      <c r="G66" s="4" t="s">
+        <v>631</v>
+      </c>
+      <c r="H66" s="4" t="s">
+        <v>632</v>
+      </c>
+      <c r="I66" s="4">
+        <v>1</v>
+      </c>
+      <c r="J66" s="4" t="s">
+        <v>633</v>
+      </c>
+      <c r="K66" s="4" t="s">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="67" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A67" s="4" t="s">
+        <v>635</v>
+      </c>
+      <c r="B67" s="4" t="s">
+        <v>210</v>
+      </c>
+      <c r="C67" s="4">
+        <v>89.427019999999999</v>
+      </c>
+      <c r="D67" s="4">
+        <v>23.824867999999999</v>
+      </c>
+      <c r="E67" s="4" t="s">
+        <v>636</v>
+      </c>
+      <c r="F67" s="4">
+        <v>15</v>
+      </c>
+      <c r="G67" s="4" t="s">
+        <v>637</v>
+      </c>
+      <c r="H67" s="4" t="s">
+        <v>638</v>
+      </c>
+      <c r="I67" s="4">
+        <v>3</v>
+      </c>
+      <c r="J67" s="4" t="s">
+        <v>639</v>
+      </c>
+      <c r="K67" s="4" t="s">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="68" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A68" s="4" t="s">
+        <v>641</v>
+      </c>
+      <c r="B68" s="4" t="s">
+        <v>213</v>
+      </c>
+      <c r="C68" s="4">
+        <v>88.499347</v>
+      </c>
+      <c r="D68" s="4">
+        <v>24.889306999999999</v>
+      </c>
+      <c r="E68" s="4" t="s">
+        <v>642</v>
+      </c>
+      <c r="F68" s="4">
+        <v>15</v>
+      </c>
+      <c r="G68" s="4" t="s">
+        <v>643</v>
+      </c>
+      <c r="H68" s="4" t="s">
+        <v>644</v>
+      </c>
+      <c r="I68" s="4">
+        <v>4</v>
+      </c>
+      <c r="J68" s="4" t="s">
+        <v>645</v>
+      </c>
+      <c r="K68" s="4" t="s">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="69" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A69" s="4" t="s">
+        <v>647</v>
+      </c>
+      <c r="B69" s="4" t="s">
+        <v>216</v>
+      </c>
+      <c r="C69" s="4">
+        <v>88.247873999999996</v>
+      </c>
+      <c r="D69" s="4">
+        <v>25.727323999999999</v>
+      </c>
+      <c r="E69" s="4" t="s">
+        <v>648</v>
+      </c>
+      <c r="F69" s="4">
+        <v>11</v>
+      </c>
+      <c r="G69" s="4" t="s">
+        <v>649</v>
+      </c>
+      <c r="H69" s="4" t="s">
+        <v>650</v>
+      </c>
+      <c r="I69" s="4">
+        <v>4</v>
+      </c>
+      <c r="J69" s="4" t="s">
+        <v>651</v>
+      </c>
+      <c r="K69" s="4" t="s">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="70" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A70" s="4" t="s">
+        <v>653</v>
+      </c>
+      <c r="B70" s="4" t="s">
+        <v>219</v>
+      </c>
+      <c r="C70" s="4">
+        <v>89.279363000000004</v>
+      </c>
+      <c r="D70" s="4">
+        <v>24.103784000000001</v>
+      </c>
+      <c r="E70" s="4" t="s">
+        <v>654</v>
+      </c>
+      <c r="F70" s="4">
         <v>7</v>
       </c>
-    </row>
-    <row r="7" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A7" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="B7" s="4"/>
-      <c r="E7" s="3" t="s">
+      <c r="G70" s="4" t="s">
+        <v>655</v>
+      </c>
+      <c r="H70" s="4" t="s">
+        <v>656</v>
+      </c>
+      <c r="I70" s="4">
+        <v>3</v>
+      </c>
+      <c r="J70" s="4" t="s">
+        <v>657</v>
+      </c>
+      <c r="K70" s="4" t="s">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="71" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A71" s="4" t="s">
+        <v>659</v>
+      </c>
+      <c r="B71" s="4" t="s">
+        <v>222</v>
+      </c>
+      <c r="C71" s="4">
+        <v>89.369282999999996</v>
+      </c>
+      <c r="D71" s="4">
+        <v>22.357558999999998</v>
+      </c>
+      <c r="E71" s="4" t="s">
+        <v>660</v>
+      </c>
+      <c r="F71" s="4">
+        <v>20</v>
+      </c>
+      <c r="G71" s="4" t="s">
+        <v>661</v>
+      </c>
+      <c r="H71" s="4" t="s">
+        <v>662</v>
+      </c>
+      <c r="I71" s="4">
+        <v>6</v>
+      </c>
+      <c r="J71" s="4" t="s">
+        <v>663</v>
+      </c>
+      <c r="K71" s="4" t="s">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="72" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A72" s="4" t="s">
+        <v>665</v>
+      </c>
+      <c r="B72" s="4" t="s">
+        <v>225</v>
+      </c>
+      <c r="C72" s="4">
+        <v>89.750664999999998</v>
+      </c>
+      <c r="D72" s="4">
+        <v>24.998182</v>
+      </c>
+      <c r="E72" s="4" t="s">
+        <v>666</v>
+      </c>
+      <c r="F72" s="4">
+        <v>12</v>
+      </c>
+      <c r="G72" s="4" t="s">
+        <v>667</v>
+      </c>
+      <c r="H72" s="4" t="s">
+        <v>668</v>
+      </c>
+      <c r="I72" s="4">
+        <v>3</v>
+      </c>
+      <c r="J72" s="4" t="s">
+        <v>669</v>
+      </c>
+      <c r="K72" s="4" t="s">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="73" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A73" s="4" t="s">
+        <v>671</v>
+      </c>
+      <c r="B73" s="4" t="s">
+        <v>672</v>
+      </c>
+      <c r="C73" s="4">
+        <v>88.844815999999994</v>
+      </c>
+      <c r="D73" s="4">
+        <v>25.354240999999998</v>
+      </c>
+      <c r="E73" s="4" t="s">
+        <v>673</v>
+      </c>
+      <c r="F73" s="4">
+        <v>2</v>
+      </c>
+      <c r="G73" s="4" t="s">
+        <v>674</v>
+      </c>
+      <c r="H73" s="4" t="s">
+        <v>675</v>
+      </c>
+      <c r="I73" s="4">
+        <v>6</v>
+      </c>
+      <c r="J73" s="4" t="s">
+        <v>676</v>
+      </c>
+      <c r="K73" s="4" t="s">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="74" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A74" s="4" t="s">
+        <v>678</v>
+      </c>
+      <c r="B74" s="4" t="s">
+        <v>231</v>
+      </c>
+      <c r="C74" s="4">
+        <v>88.604592999999994</v>
+      </c>
+      <c r="D74" s="4">
+        <v>23.108578000000001</v>
+      </c>
+      <c r="E74" s="4" t="s">
+        <v>679</v>
+      </c>
+      <c r="F74" s="4">
+        <v>4</v>
+      </c>
+      <c r="G74" s="4" t="s">
+        <v>680</v>
+      </c>
+      <c r="H74" s="4" t="s">
+        <v>681</v>
+      </c>
+      <c r="I74" s="4">
+        <v>3</v>
+      </c>
+      <c r="J74" s="4" t="s">
+        <v>682</v>
+      </c>
+      <c r="K74" s="4" t="s">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="75" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A75" s="4" t="s">
+        <v>684</v>
+      </c>
+      <c r="B75" s="4" t="s">
+        <v>234</v>
+      </c>
+      <c r="C75" s="4">
+        <v>89.921576999999999</v>
+      </c>
+      <c r="D75" s="4">
+        <v>24.577143</v>
+      </c>
+      <c r="E75" s="4" t="s">
+        <v>685</v>
+      </c>
+      <c r="F75" s="4">
+        <v>13</v>
+      </c>
+      <c r="G75" s="4" t="s">
+        <v>686</v>
+      </c>
+      <c r="H75" s="4" t="s">
+        <v>687</v>
+      </c>
+      <c r="I75" s="4">
+        <v>5</v>
+      </c>
+      <c r="J75" s="4" t="s">
+        <v>688</v>
+      </c>
+      <c r="K75" s="4" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="76" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A76" s="4" t="s">
+        <v>690</v>
+      </c>
+      <c r="B76" s="4" t="s">
+        <v>237</v>
+      </c>
+      <c r="C76" s="4">
+        <v>89.241219000000001</v>
+      </c>
+      <c r="D76" s="4">
+        <v>22.964988999999999</v>
+      </c>
+      <c r="E76" s="4" t="s">
+        <v>691</v>
+      </c>
+      <c r="F76" s="4">
+        <v>17</v>
+      </c>
+      <c r="G76" s="4" t="s">
+        <v>692</v>
+      </c>
+      <c r="H76" s="4" t="s">
+        <v>693</v>
+      </c>
+      <c r="I76" s="4">
+        <v>3</v>
+      </c>
+      <c r="J76" s="4" t="s">
+        <v>694</v>
+      </c>
+      <c r="K76" s="4" t="s">
+        <v>695</v>
+      </c>
+    </row>
+    <row r="77" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A77" s="4" t="s">
+        <v>696</v>
+      </c>
+      <c r="B77" s="4" t="s">
+        <v>240</v>
+      </c>
+      <c r="C77" s="4">
+        <v>89.189528999999993</v>
+      </c>
+      <c r="D77" s="4">
+        <v>25.392484</v>
+      </c>
+      <c r="E77" s="4" t="s">
+        <v>697</v>
+      </c>
+      <c r="F77" s="4">
+        <v>13</v>
+      </c>
+      <c r="G77" s="4" t="s">
+        <v>698</v>
+      </c>
+      <c r="H77" s="4" t="s">
+        <v>699</v>
+      </c>
+      <c r="I77" s="4">
+        <v>6</v>
+      </c>
+      <c r="J77" s="4" t="s">
+        <v>700</v>
+      </c>
+      <c r="K77" s="4" t="s">
+        <v>701</v>
+      </c>
+    </row>
+    <row r="78" spans="1:11" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A78" s="4" t="s">
+        <v>702</v>
+      </c>
+      <c r="B78" s="4" t="s">
+        <v>243</v>
+      </c>
+      <c r="C78" s="4">
+        <v>88.525711000000001</v>
+      </c>
+      <c r="D78" s="4">
+        <v>24.710630999999999</v>
+      </c>
+      <c r="E78" s="4" t="s">
+        <v>703</v>
+      </c>
+      <c r="F78" s="4">
         <v>7</v>
       </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A8" s="3" t="s">
+      <c r="G78" s="4" t="s">
+        <v>704</v>
+      </c>
+      <c r="H78" s="4" t="s">
+        <v>705</v>
+      </c>
+      <c r="I78" s="4">
+        <v>2</v>
+      </c>
+      <c r="J78" s="4" t="s">
+        <v>706</v>
+      </c>
+      <c r="K78" s="4" t="s">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="79" spans="1:11" ht="72" x14ac:dyDescent="0.3">
+      <c r="A79" s="4" t="s">
+        <v>708</v>
+      </c>
+      <c r="B79" s="4" t="s">
+        <v>246</v>
+      </c>
+      <c r="C79" s="4">
+        <v>89.468749000000003</v>
+      </c>
+      <c r="D79" s="4">
+        <v>22.413647999999998</v>
+      </c>
+      <c r="E79" s="4" t="s">
+        <v>709</v>
+      </c>
+      <c r="F79" s="4">
+        <v>11</v>
+      </c>
+      <c r="G79" s="4" t="s">
+        <v>710</v>
+      </c>
+      <c r="H79" s="4" t="s">
+        <v>711</v>
+      </c>
+      <c r="I79" s="4">
+        <v>5</v>
+      </c>
+      <c r="J79" s="4" t="s">
+        <v>712</v>
+      </c>
+      <c r="K79" s="4" t="s">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="80" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A80" s="4" t="s">
+        <v>714</v>
+      </c>
+      <c r="B80" s="4" t="s">
+        <v>715</v>
+      </c>
+      <c r="C80" s="4">
+        <v>89.411145000000005</v>
+      </c>
+      <c r="D80" s="4">
+        <v>23.943750000000001</v>
+      </c>
+      <c r="E80" s="4" t="s">
+        <v>716</v>
+      </c>
+      <c r="F80" s="4">
         <v>28</v>
       </c>
-      <c r="B8" s="4"/>
-      <c r="E8" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A9" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="B9" s="4"/>
-      <c r="E9" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A10" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="B10" s="4"/>
-      <c r="E10" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A11" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="B11" s="4"/>
-      <c r="E11" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A12" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="B12" s="4"/>
-      <c r="E12" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A13" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="B13" s="4"/>
-      <c r="E13" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A14" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="B14" s="4"/>
-      <c r="E14" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A15" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="B15" s="4"/>
-      <c r="E15" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A16" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="B16" s="4"/>
-      <c r="E16" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A17" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="B17" s="4"/>
-      <c r="E17" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A18" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="B18" s="4"/>
-      <c r="E18" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A19" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="B19" s="4"/>
-      <c r="E19" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A20" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="B20" s="4"/>
-      <c r="E20" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A21" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="B21" s="4"/>
-      <c r="E21" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A22" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="B22" s="4"/>
-      <c r="E22" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A23" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="B23" s="4"/>
-      <c r="E23" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A24" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="B24" s="4"/>
-      <c r="E24" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A25" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="B25" s="4"/>
-      <c r="E25" s="3" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A26" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="B26" s="4"/>
-      <c r="E26" s="3" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A27" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="B27" s="4"/>
-      <c r="E27" s="3" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A28" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="B28" s="4"/>
-      <c r="E28" s="3" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A29" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="B29" s="4"/>
-      <c r="E29" s="3" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A30" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="B30" s="4"/>
-      <c r="E30" s="3" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A31" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="B31" s="4"/>
-      <c r="E31" s="3" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A32" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="B32" s="4"/>
-      <c r="E32" s="3" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A33" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="B33" s="4"/>
-      <c r="E33" s="3" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A34" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="B34" s="4"/>
-      <c r="E34" s="3" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A35" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="B35" s="4"/>
-      <c r="E35" s="3" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A36" s="3" t="s">
-        <v>114</v>
-      </c>
-      <c r="B36" s="4"/>
-      <c r="E36" s="3" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A37" s="3" t="s">
-        <v>117</v>
-      </c>
-      <c r="B37" s="4"/>
-      <c r="E37" s="3" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A38" s="3" t="s">
-        <v>120</v>
-      </c>
-      <c r="B38" s="4"/>
-      <c r="E38" s="3" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A39" s="3" t="s">
-        <v>123</v>
-      </c>
-      <c r="B39" s="4"/>
-      <c r="E39" s="3" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A40" s="3" t="s">
-        <v>126</v>
-      </c>
-      <c r="B40" s="4"/>
-      <c r="E40" s="3" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A41" s="3" t="s">
-        <v>129</v>
-      </c>
-      <c r="B41" s="4"/>
-      <c r="E41" s="3" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A42" s="3" t="s">
-        <v>132</v>
-      </c>
-      <c r="B42" s="4"/>
-      <c r="E42" s="3" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A43" s="3" t="s">
-        <v>135</v>
-      </c>
-      <c r="B43" s="4"/>
-      <c r="E43" s="3" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A44" s="3" t="s">
-        <v>139</v>
-      </c>
-      <c r="B44" s="4"/>
-      <c r="E44" s="3" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A45" s="3" t="s">
-        <v>142</v>
-      </c>
-      <c r="B45" s="4"/>
-      <c r="E45" s="3" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A46" s="3" t="s">
-        <v>145</v>
-      </c>
-      <c r="B46" s="4"/>
-      <c r="E46" s="3" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A47" s="3" t="s">
-        <v>147</v>
-      </c>
-      <c r="B47" s="4"/>
-      <c r="E47" s="3" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A48" s="3" t="s">
-        <v>150</v>
-      </c>
-      <c r="B48" s="4"/>
-      <c r="E48" s="3" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A49" s="3" t="s">
-        <v>153</v>
-      </c>
-      <c r="B49" s="4"/>
-      <c r="E49" s="3" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A50" s="3" t="s">
-        <v>156</v>
-      </c>
-      <c r="B50" s="4"/>
-      <c r="E50" s="3" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A51" s="3" t="s">
-        <v>159</v>
-      </c>
-      <c r="B51" s="4"/>
-      <c r="E51" s="3" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A52" s="3" t="s">
-        <v>162</v>
-      </c>
-      <c r="B52" s="4"/>
-      <c r="E52" s="3" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A53" s="3" t="s">
-        <v>166</v>
-      </c>
-      <c r="B53" s="4"/>
-      <c r="E53" s="3" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A54" s="3" t="s">
-        <v>169</v>
-      </c>
-      <c r="B54" s="4"/>
-      <c r="E54" s="3" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A55" s="3" t="s">
-        <v>172</v>
-      </c>
-      <c r="B55" s="4"/>
-      <c r="E55" s="3" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A56" s="3" t="s">
-        <v>175</v>
-      </c>
-      <c r="B56" s="4"/>
-      <c r="E56" s="3" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A57" s="3" t="s">
-        <v>178</v>
-      </c>
-      <c r="B57" s="4"/>
-      <c r="E57" s="3" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A58" s="3" t="s">
-        <v>181</v>
-      </c>
-      <c r="B58" s="4"/>
-      <c r="E58" s="3" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A59" s="3" t="s">
-        <v>184</v>
-      </c>
-      <c r="B59" s="4"/>
-      <c r="E59" s="3" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A60" s="3" t="s">
-        <v>187</v>
-      </c>
-      <c r="B60" s="4"/>
-      <c r="E60" s="3" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A61" s="3" t="s">
-        <v>191</v>
-      </c>
-      <c r="B61" s="4"/>
-      <c r="E61" s="3" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A62" s="3" t="s">
-        <v>194</v>
-      </c>
-      <c r="B62" s="4"/>
-      <c r="E62" s="3" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A63" s="3" t="s">
-        <v>197</v>
-      </c>
-      <c r="B63" s="4"/>
-      <c r="E63" s="3" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A64" s="3" t="s">
-        <v>200</v>
-      </c>
-      <c r="B64" s="4"/>
-      <c r="E64" s="3" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A65" s="3" t="s">
-        <v>203</v>
-      </c>
-      <c r="B65" s="4"/>
-      <c r="E65" s="3" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A66" s="3" t="s">
-        <v>206</v>
-      </c>
-      <c r="B66" s="4"/>
-      <c r="E66" s="3" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A67" s="3" t="s">
-        <v>210</v>
-      </c>
-      <c r="B67" s="4"/>
-      <c r="E67" s="3" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A68" s="3" t="s">
-        <v>213</v>
-      </c>
-      <c r="B68" s="4"/>
-      <c r="E68" s="3" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A69" s="3" t="s">
-        <v>216</v>
-      </c>
-      <c r="B69" s="4"/>
-      <c r="E69" s="3" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A70" s="3" t="s">
-        <v>219</v>
-      </c>
-      <c r="B70" s="4"/>
-      <c r="E70" s="3" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="71" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A71" s="3" t="s">
-        <v>222</v>
-      </c>
-      <c r="B71" s="4"/>
-      <c r="E71" s="3" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A72" s="3" t="s">
-        <v>225</v>
-      </c>
-      <c r="B72" s="4"/>
-      <c r="E72" s="3" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A73" s="3" t="s">
-        <v>228</v>
-      </c>
-      <c r="B73" s="4"/>
-      <c r="E73" s="3" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A74" s="3" t="s">
-        <v>231</v>
-      </c>
-      <c r="B74" s="4"/>
-      <c r="E74" s="3" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A75" s="3" t="s">
-        <v>234</v>
-      </c>
-      <c r="B75" s="4"/>
-      <c r="E75" s="3" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="76" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A76" s="3" t="s">
-        <v>237</v>
-      </c>
-      <c r="B76" s="4"/>
-      <c r="E76" s="3" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A77" s="3" t="s">
-        <v>240</v>
-      </c>
-      <c r="B77" s="4"/>
-      <c r="E77" s="3" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="78" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A78" s="3" t="s">
-        <v>243</v>
-      </c>
-      <c r="B78" s="4"/>
-      <c r="E78" s="3" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="79" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A79" s="3" t="s">
-        <v>246</v>
-      </c>
-      <c r="B79" s="4"/>
-      <c r="E79" s="3" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="80" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A80" s="3" t="s">
-        <v>249</v>
-      </c>
-      <c r="B80" s="4"/>
-      <c r="E80" s="3" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A81" s="3" t="s">
+      <c r="G80" s="4" t="s">
+        <v>717</v>
+      </c>
+      <c r="H80" s="4" t="s">
+        <v>718</v>
+      </c>
+      <c r="I80" s="4">
+        <v>4</v>
+      </c>
+      <c r="J80" s="4" t="s">
+        <v>719</v>
+      </c>
+      <c r="K80" s="4" t="s">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="81" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A81" s="4" t="s">
+        <v>721</v>
+      </c>
+      <c r="B81" s="4" t="s">
         <v>252</v>
       </c>
-      <c r="B81" s="4"/>
-      <c r="E81" s="3" t="s">
-        <v>208</v>
+      <c r="C81" s="4">
+        <v>89.639116000000001</v>
+      </c>
+      <c r="D81" s="4">
+        <v>25.164131999999999</v>
+      </c>
+      <c r="E81" s="4" t="s">
+        <v>722</v>
+      </c>
+      <c r="F81" s="4">
+        <v>23</v>
+      </c>
+      <c r="G81" s="4" t="s">
+        <v>723</v>
+      </c>
+      <c r="H81" s="4" t="s">
+        <v>724</v>
+      </c>
+      <c r="I81" s="4">
+        <v>6</v>
+      </c>
+      <c r="J81" s="4" t="s">
+        <v>725</v>
+      </c>
+      <c r="K81" s="4" t="s">
+        <v>726</v>
       </c>
     </row>
   </sheetData>
@@ -4199,6 +7621,38 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <oc8c637b0fa845a6926b00fe9f72e1f8 xmlns="58dc3081-d8a1-4e92-884a-04f6ca0fc63f">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </oc8c637b0fa845a6926b00fe9f72e1f8>
+    <l09k xmlns="3c72cb88-c173-4d20-ae9a-a85490e15368" xsi:nil="true"/>
+    <TaxCatchAll xmlns="58dc3081-d8a1-4e92-884a-04f6ca0fc63f"/>
+    <TaxKeywordTaxHTField xmlns="ef87d329-744f-4db8-a50d-fd0fb068d469">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </TaxKeywordTaxHTField>
+    <d1986a8b3bb244c0ab5037fa737207c1 xmlns="58dc3081-d8a1-4e92-884a-04f6ca0fc63f">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </d1986a8b3bb244c0ab5037fa737207c1>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<SharedContentType xmlns="Microsoft.SharePoint.Taxonomy.ContentTypeSync" SourceId="23b92cde-922f-41e6-b057-b97c56e4b7ba" ContentTypeId="0x010100219570280C41E648BF656DDE63B7B0D1" PreviousValue="false"/>
+</file>
+
+<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Deltares Base document" ma:contentTypeID="0x010100219570280C41E648BF656DDE63B7B0D10054EEBB2AE3F1714290004D0D0F7C3351" ma:contentTypeVersion="15" ma:contentTypeDescription="Deltares base content type to use throughout the organisation" ma:contentTypeScope="" ma:versionID="f9d78a5aa7caff028b353cbc75c3def4">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="58dc3081-d8a1-4e92-884a-04f6ca0fc63f" xmlns:ns3="ef87d329-744f-4db8-a50d-fd0fb068d469" xmlns:ns4="3c72cb88-c173-4d20-ae9a-a85490e15368" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="c5c2d439c986e4b0afe7560b4c5fd060" ns2:_="" ns3:_="" ns4:_="">
     <xsd:import namespace="58dc3081-d8a1-4e92-884a-04f6ca0fc63f"/>
@@ -4448,50 +7902,50 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<SharedContentType xmlns="Microsoft.SharePoint.Taxonomy.ContentTypeSync" SourceId="23b92cde-922f-41e6-b057-b97c56e4b7ba" ContentTypeId="0x010100219570280C41E648BF656DDE63B7B0D1" PreviousValue="false"/>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <oc8c637b0fa845a6926b00fe9f72e1f8 xmlns="58dc3081-d8a1-4e92-884a-04f6ca0fc63f">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </oc8c637b0fa845a6926b00fe9f72e1f8>
-    <l09k xmlns="3c72cb88-c173-4d20-ae9a-a85490e15368" xsi:nil="true"/>
-    <TaxCatchAll xmlns="58dc3081-d8a1-4e92-884a-04f6ca0fc63f"/>
-    <TaxKeywordTaxHTField xmlns="ef87d329-744f-4db8-a50d-fd0fb068d469">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </TaxKeywordTaxHTField>
-    <d1986a8b3bb244c0ab5037fa737207c1 xmlns="58dc3081-d8a1-4e92-884a-04f6ca0fc63f">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </d1986a8b3bb244c0ab5037fa737207c1>
-  </documentManagement>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7A85D606-E2EA-4637-B4C2-6ABA5779E1E2}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{42E7B398-68E3-43FF-A497-8C0DD04B067B}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="58dc3081-d8a1-4e92-884a-04f6ca0fc63f"/>
+    <ds:schemaRef ds:uri="3c72cb88-c173-4d20-ae9a-a85490e15368"/>
+    <ds:schemaRef ds:uri="ef87d329-744f-4db8-a50d-fd0fb068d469"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FAF7AE3B-0E9F-440B-A3CE-BD7504C7CC69}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7E1D132F-3077-4734-A985-9BCCE0A3F853}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7E1D132F-3077-4734-A985-9BCCE0A3F853}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FAF7AE3B-0E9F-440B-A3CE-BD7504C7CC69}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="Microsoft.SharePoint.Taxonomy.ContentTypeSync"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{42E7B398-68E3-43FF-A497-8C0DD04B067B}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7A85D606-E2EA-4637-B4C2-6ABA5779E1E2}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="58dc3081-d8a1-4e92-884a-04f6ca0fc63f"/>
+    <ds:schemaRef ds:uri="ef87d329-744f-4db8-a50d-fd0fb068d469"/>
+    <ds:schemaRef ds:uri="3c72cb88-c173-4d20-ae9a-a85490e15368"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/DeltaProjects.xlsx
+++ b/DeltaProjects.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\11202654-006 JCP 008 visa\git2\MetamodelTest\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03FB3399-D3FC-401E-8785-AA8977DE1BE1}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B096D4B-2513-4718-ACDA-E39624A49CC2}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="981" uniqueCount="727">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1062" uniqueCount="730">
   <si>
     <t>datagroupid</t>
   </si>
@@ -829,9 +829,6 @@
     <t>ResponsibleMinistry</t>
   </si>
   <si>
-    <t>CZ18-121</t>
-  </si>
-  <si>
     <t>Objective1</t>
   </si>
   <si>
@@ -847,9 +844,6 @@
     <t>Agency1</t>
   </si>
   <si>
-    <t>CZ111-138</t>
-  </si>
-  <si>
     <t>Objective2</t>
   </si>
   <si>
@@ -865,9 +859,6 @@
     <t>Agency2</t>
   </si>
   <si>
-    <t>CZ126</t>
-  </si>
-  <si>
     <t>Objective3</t>
   </si>
   <si>
@@ -883,9 +874,6 @@
     <t>Agency3</t>
   </si>
   <si>
-    <t>CZ13</t>
-  </si>
-  <si>
     <t>Objective4</t>
   </si>
   <si>
@@ -901,9 +889,6 @@
     <t>Agency4</t>
   </si>
   <si>
-    <t>CZ148</t>
-  </si>
-  <si>
     <t>Objective5</t>
   </si>
   <si>
@@ -919,9 +904,6 @@
     <t>Agency5</t>
   </si>
   <si>
-    <t>CZ141</t>
-  </si>
-  <si>
     <t>Objective6</t>
   </si>
   <si>
@@ -937,9 +919,6 @@
     <t>Agency6</t>
   </si>
   <si>
-    <t>CZ144</t>
-  </si>
-  <si>
     <t>Objective7</t>
   </si>
   <si>
@@ -955,9 +934,6 @@
     <t>Agency7</t>
   </si>
   <si>
-    <t>CZ140</t>
-  </si>
-  <si>
     <t>Objective8</t>
   </si>
   <si>
@@ -973,9 +949,6 @@
     <t>Agency8</t>
   </si>
   <si>
-    <t>CZ145</t>
-  </si>
-  <si>
     <t>Implementation of Rationalized Water Interventions In Baleswar-Tentulia Basin</t>
   </si>
   <si>
@@ -994,9 +967,6 @@
     <t>Agency9</t>
   </si>
   <si>
-    <t>CZ147</t>
-  </si>
-  <si>
     <t>Objective10</t>
   </si>
   <si>
@@ -1012,9 +982,6 @@
     <t>Agency10</t>
   </si>
   <si>
-    <t>CZ130</t>
-  </si>
-  <si>
     <t>Objective11</t>
   </si>
   <si>
@@ -1045,9 +1012,6 @@
     <t>Agency12</t>
   </si>
   <si>
-    <t>CZ139</t>
-  </si>
-  <si>
     <t>Objective13</t>
   </si>
   <si>
@@ -1063,9 +1027,6 @@
     <t>Agency13</t>
   </si>
   <si>
-    <t>CZ152</t>
-  </si>
-  <si>
     <t>Objective14</t>
   </si>
   <si>
@@ -1081,9 +1042,6 @@
     <t>Agency14</t>
   </si>
   <si>
-    <t>CZ153</t>
-  </si>
-  <si>
     <t>Objective15</t>
   </si>
   <si>
@@ -1099,9 +1057,6 @@
     <t>Agency15</t>
   </si>
   <si>
-    <t>CZ41</t>
-  </si>
-  <si>
     <t>Objective16</t>
   </si>
   <si>
@@ -1117,9 +1072,6 @@
     <t>Agency16</t>
   </si>
   <si>
-    <t>CZ14</t>
-  </si>
-  <si>
     <t>Objective17</t>
   </si>
   <si>
@@ -1135,9 +1087,6 @@
     <t>Agency17</t>
   </si>
   <si>
-    <t>CZ15</t>
-  </si>
-  <si>
     <t>Objective18</t>
   </si>
   <si>
@@ -1153,9 +1102,6 @@
     <t>Agency18</t>
   </si>
   <si>
-    <t>CZ17</t>
-  </si>
-  <si>
     <t>Objective19</t>
   </si>
   <si>
@@ -1171,9 +1117,6 @@
     <t>Agency19</t>
   </si>
   <si>
-    <t>CZ16</t>
-  </si>
-  <si>
     <t>"1. To stimulate socio-economic development (agriculture, fisheries) relevant for the local communities (overall objective); 2. Reclamation of land through construction of a cross dam between Hatiya and Nijhum Dwip (project purpose); 3.To re-settle river eroded landless destitute people and to boost up agriculture and fish production encompassing matured land by construction of peripheral dyke in Nijhum Dwip excluding forest area "</t>
   </si>
   <si>
@@ -1192,15 +1135,6 @@
     <t>BWDB</t>
   </si>
   <si>
-    <t>CZ128</t>
-  </si>
-  <si>
-    <t>CZ171</t>
-  </si>
-  <si>
-    <t>CZ11</t>
-  </si>
-  <si>
     <t>to increase the irrigation facilities, restore the ecological balance and increase the livelihood opportunities of the Ganges Dependent area (GDA</t>
   </si>
   <si>
@@ -1213,15 +1147,6 @@
     <t>7yrs</t>
   </si>
   <si>
-    <t>MR12</t>
-  </si>
-  <si>
-    <t>MR15</t>
-  </si>
-  <si>
-    <t>MR11</t>
-  </si>
-  <si>
     <t>Objective20</t>
   </si>
   <si>
@@ -1237,9 +1162,6 @@
     <t>Agency20</t>
   </si>
   <si>
-    <t>MR146</t>
-  </si>
-  <si>
     <t>Objective21</t>
   </si>
   <si>
@@ -1255,9 +1177,6 @@
     <t>Agency21</t>
   </si>
   <si>
-    <t>MR31</t>
-  </si>
-  <si>
     <t>Objective22</t>
   </si>
   <si>
@@ -1273,9 +1192,6 @@
     <t>Agency22</t>
   </si>
   <si>
-    <t>MR16</t>
-  </si>
-  <si>
     <t>Objective23</t>
   </si>
   <si>
@@ -1291,9 +1207,6 @@
     <t>Agency23</t>
   </si>
   <si>
-    <t>MR121</t>
-  </si>
-  <si>
     <t>Objective24</t>
   </si>
   <si>
@@ -1309,9 +1222,6 @@
     <t>Agency24</t>
   </si>
   <si>
-    <t>UA13</t>
-  </si>
-  <si>
     <t>Objective25</t>
   </si>
   <si>
@@ -1327,9 +1237,6 @@
     <t>Agency25</t>
   </si>
   <si>
-    <t>UA101</t>
-  </si>
-  <si>
     <t>Objective26</t>
   </si>
   <si>
@@ -1345,9 +1252,6 @@
     <t>Agency26</t>
   </si>
   <si>
-    <t>UA111</t>
-  </si>
-  <si>
     <t>Objective27</t>
   </si>
   <si>
@@ -1363,9 +1267,6 @@
     <t>Agency27</t>
   </si>
   <si>
-    <t>UA31</t>
-  </si>
-  <si>
     <t>Objective28</t>
   </si>
   <si>
@@ -1381,9 +1282,6 @@
     <t>Agency28</t>
   </si>
   <si>
-    <t>UA93</t>
-  </si>
-  <si>
     <t>Objective29</t>
   </si>
   <si>
@@ -1399,9 +1297,6 @@
     <t>Agency29</t>
   </si>
   <si>
-    <t>UA12</t>
-  </si>
-  <si>
     <t>Objective30</t>
   </si>
   <si>
@@ -1417,9 +1312,6 @@
     <t>Agency30</t>
   </si>
   <si>
-    <t>UA201</t>
-  </si>
-  <si>
     <t>Objective31</t>
   </si>
   <si>
@@ -1435,9 +1327,6 @@
     <t>Agency31</t>
   </si>
   <si>
-    <t>UA91</t>
-  </si>
-  <si>
     <t>Objective32</t>
   </si>
   <si>
@@ -1453,9 +1342,6 @@
     <t>Agency32</t>
   </si>
   <si>
-    <t>UA232</t>
-  </si>
-  <si>
     <t>Objective33</t>
   </si>
   <si>
@@ -1471,9 +1357,6 @@
     <t>Agency33</t>
   </si>
   <si>
-    <t>UA231</t>
-  </si>
-  <si>
     <t>Objective34</t>
   </si>
   <si>
@@ -1489,9 +1372,6 @@
     <t>Agency34</t>
   </si>
   <si>
-    <t>UA92</t>
-  </si>
-  <si>
     <t>Objective35</t>
   </si>
   <si>
@@ -1507,9 +1387,6 @@
     <t>Agency35</t>
   </si>
   <si>
-    <t>UA11</t>
-  </si>
-  <si>
     <t>Objective36</t>
   </si>
   <si>
@@ -1525,9 +1402,6 @@
     <t>Agency36</t>
   </si>
   <si>
-    <t>DP121</t>
-  </si>
-  <si>
     <t>Objective37</t>
   </si>
   <si>
@@ -1543,9 +1417,6 @@
     <t>Agency37</t>
   </si>
   <si>
-    <t>DP13</t>
-  </si>
-  <si>
     <t>Objective38</t>
   </si>
   <si>
@@ -1561,9 +1432,6 @@
     <t>Agency38</t>
   </si>
   <si>
-    <t>DP11</t>
-  </si>
-  <si>
     <t>Objective39</t>
   </si>
   <si>
@@ -1594,9 +1462,6 @@
     <t>Agency40</t>
   </si>
   <si>
-    <t>DP14-15</t>
-  </si>
-  <si>
     <t>Objective41</t>
   </si>
   <si>
@@ -1612,9 +1477,6 @@
     <t>Agency41</t>
   </si>
   <si>
-    <t>DP251</t>
-  </si>
-  <si>
     <t>Objective42</t>
   </si>
   <si>
@@ -1630,9 +1492,6 @@
     <t>Agency42</t>
   </si>
   <si>
-    <t>DP252</t>
-  </si>
-  <si>
     <t>Objective43</t>
   </si>
   <si>
@@ -1648,9 +1507,6 @@
     <t>Agency43</t>
   </si>
   <si>
-    <t>DP253</t>
-  </si>
-  <si>
     <t>WMOs and Participatory Management Model for O&amp;M of Kurigram i Irrigation Schemes(1 &amp; 2)</t>
   </si>
   <si>
@@ -1669,9 +1525,6 @@
     <t>Agency44</t>
   </si>
   <si>
-    <t>DP153</t>
-  </si>
-  <si>
     <t>Objective45</t>
   </si>
   <si>
@@ -1687,9 +1540,6 @@
     <t>Agency45</t>
   </si>
   <si>
-    <t>CH111</t>
-  </si>
-  <si>
     <t>Objective46</t>
   </si>
   <si>
@@ -1705,9 +1555,6 @@
     <t>Agency46</t>
   </si>
   <si>
-    <t>CH110</t>
-  </si>
-  <si>
     <t>Objective47</t>
   </si>
   <si>
@@ -1723,9 +1570,6 @@
     <t>Agency47</t>
   </si>
   <si>
-    <t>CH262</t>
-  </si>
-  <si>
     <t>Objective48</t>
   </si>
   <si>
@@ -1741,9 +1585,6 @@
     <t>Agency48</t>
   </si>
   <si>
-    <t>CH92</t>
-  </si>
-  <si>
     <t>Objective49</t>
   </si>
   <si>
@@ -1759,9 +1600,6 @@
     <t>Agency49</t>
   </si>
   <si>
-    <t>CH124</t>
-  </si>
-  <si>
     <t>Objective50</t>
   </si>
   <si>
@@ -1777,9 +1615,6 @@
     <t>Agency50</t>
   </si>
   <si>
-    <t>CH261</t>
-  </si>
-  <si>
     <t>Objective51</t>
   </si>
   <si>
@@ -1795,9 +1630,6 @@
     <t>Agency51</t>
   </si>
   <si>
-    <t>CH11</t>
-  </si>
-  <si>
     <t>Objective52</t>
   </si>
   <si>
@@ -1813,9 +1645,6 @@
     <t>Agency52</t>
   </si>
   <si>
-    <t>CH265</t>
-  </si>
-  <si>
     <t>Objective53</t>
   </si>
   <si>
@@ -1831,9 +1660,6 @@
     <t>Agency53</t>
   </si>
   <si>
-    <t>HR 21-22</t>
-  </si>
-  <si>
     <t>Objective54</t>
   </si>
   <si>
@@ -1849,9 +1675,6 @@
     <t>Agency54</t>
   </si>
   <si>
-    <t>HR11</t>
-  </si>
-  <si>
     <t>Objective55</t>
   </si>
   <si>
@@ -1867,9 +1690,6 @@
     <t>Agency55</t>
   </si>
   <si>
-    <t>HR24</t>
-  </si>
-  <si>
     <t>Objective56</t>
   </si>
   <si>
@@ -1885,9 +1705,6 @@
     <t>Agency56</t>
   </si>
   <si>
-    <t>HR141</t>
-  </si>
-  <si>
     <t>Objective57</t>
   </si>
   <si>
@@ -1903,9 +1720,6 @@
     <t>Agency57</t>
   </si>
   <si>
-    <t>HR154-5</t>
-  </si>
-  <si>
     <t>Objective58</t>
   </si>
   <si>
@@ -1921,9 +1735,6 @@
     <t>Agency58</t>
   </si>
   <si>
-    <t>HR143</t>
-  </si>
-  <si>
     <t>Objective59</t>
   </si>
   <si>
@@ -1939,9 +1750,6 @@
     <t>Agency59</t>
   </si>
   <si>
-    <t>CC185</t>
-  </si>
-  <si>
     <t>Objective60</t>
   </si>
   <si>
@@ -1957,9 +1765,6 @@
     <t>Agency60</t>
   </si>
   <si>
-    <t>CC1237</t>
-  </si>
-  <si>
     <t>Objective61</t>
   </si>
   <si>
@@ -1975,9 +1780,6 @@
     <t>Agency61</t>
   </si>
   <si>
-    <t>CC14</t>
-  </si>
-  <si>
     <t>Objective62</t>
   </si>
   <si>
@@ -1993,9 +1795,6 @@
     <t>Agency62</t>
   </si>
   <si>
-    <t>CC13</t>
-  </si>
-  <si>
     <t>Objective63</t>
   </si>
   <si>
@@ -2011,9 +1810,6 @@
     <t>Agency63</t>
   </si>
   <si>
-    <t>CC141</t>
-  </si>
-  <si>
     <t>Objective64</t>
   </si>
   <si>
@@ -2029,9 +1825,6 @@
     <t>Agency64</t>
   </si>
   <si>
-    <t>CC143</t>
-  </si>
-  <si>
     <t>Objective65</t>
   </si>
   <si>
@@ -2047,9 +1840,6 @@
     <t>Agency65</t>
   </si>
   <si>
-    <t>CC918</t>
-  </si>
-  <si>
     <t>Project for Improvement of Storm Water Drainage Facilities in pourrashavas(Phase1)</t>
   </si>
   <si>
@@ -2068,9 +1858,6 @@
     <t>Agency66</t>
   </si>
   <si>
-    <t>CC910</t>
-  </si>
-  <si>
     <t>Objective67</t>
   </si>
   <si>
@@ -2086,9 +1873,6 @@
     <t>Agency67</t>
   </si>
   <si>
-    <t>CC911</t>
-  </si>
-  <si>
     <t>Objective68</t>
   </si>
   <si>
@@ -2104,9 +1888,6 @@
     <t>Agency68</t>
   </si>
   <si>
-    <t>CC917</t>
-  </si>
-  <si>
     <t>Objective69</t>
   </si>
   <si>
@@ -2122,9 +1903,6 @@
     <t>Agency69</t>
   </si>
   <si>
-    <t>CC913</t>
-  </si>
-  <si>
     <t>Objective70</t>
   </si>
   <si>
@@ -2140,9 +1918,6 @@
     <t>Agency70</t>
   </si>
   <si>
-    <t>CC145</t>
-  </si>
-  <si>
     <t>Objective71</t>
   </si>
   <si>
@@ -2158,9 +1933,6 @@
     <t>Agency71</t>
   </si>
   <si>
-    <t>CC146</t>
-  </si>
-  <si>
     <t>Objective72</t>
   </si>
   <si>
@@ -2176,9 +1948,6 @@
     <t>Agency72</t>
   </si>
   <si>
-    <t>CC912</t>
-  </si>
-  <si>
     <t>Improvement of Sanitation Systems in Urban Areas of Bangladesh</t>
   </si>
   <si>
@@ -2197,9 +1966,6 @@
     <t>Agency73</t>
   </si>
   <si>
-    <t>CC1619</t>
-  </si>
-  <si>
     <t>Objective74</t>
   </si>
   <si>
@@ -2213,6 +1979,249 @@
   </si>
   <si>
     <t>Agency74</t>
+  </si>
+  <si>
+    <t>CZ1-26</t>
+  </si>
+  <si>
+    <t>CZ1-3</t>
+  </si>
+  <si>
+    <t>CZ1-48</t>
+  </si>
+  <si>
+    <t>CZ1-41</t>
+  </si>
+  <si>
+    <t>CZ1-44</t>
+  </si>
+  <si>
+    <t>CZ1-40</t>
+  </si>
+  <si>
+    <t>CZ1-45</t>
+  </si>
+  <si>
+    <t>CZ1-47</t>
+  </si>
+  <si>
+    <t>CZ1-30</t>
+  </si>
+  <si>
+    <t>CZ12-6</t>
+  </si>
+  <si>
+    <t>CZ1-39</t>
+  </si>
+  <si>
+    <t>CZ1-52</t>
+  </si>
+  <si>
+    <t>CZ1-53</t>
+  </si>
+  <si>
+    <t>CZ4-1</t>
+  </si>
+  <si>
+    <t>CZ1-4</t>
+  </si>
+  <si>
+    <t>CZ1-5</t>
+  </si>
+  <si>
+    <t>CZ1-7</t>
+  </si>
+  <si>
+    <t>CZ1-6</t>
+  </si>
+  <si>
+    <t>CZ12-8</t>
+  </si>
+  <si>
+    <t>CZ17-1</t>
+  </si>
+  <si>
+    <t>CZ1-1</t>
+  </si>
+  <si>
+    <t>MR1-2</t>
+  </si>
+  <si>
+    <t>MR1-5</t>
+  </si>
+  <si>
+    <t>MR1-1</t>
+  </si>
+  <si>
+    <t>MR1-46</t>
+  </si>
+  <si>
+    <t>MR3-1</t>
+  </si>
+  <si>
+    <t>MR1-6</t>
+  </si>
+  <si>
+    <t>MR12-1</t>
+  </si>
+  <si>
+    <t>UA1-3</t>
+  </si>
+  <si>
+    <t>UA10-1</t>
+  </si>
+  <si>
+    <t>UA11-1</t>
+  </si>
+  <si>
+    <t>UA3-1</t>
+  </si>
+  <si>
+    <t>UA9-3</t>
+  </si>
+  <si>
+    <t>UA1-2</t>
+  </si>
+  <si>
+    <t>UA20-1</t>
+  </si>
+  <si>
+    <t>UA9-1</t>
+  </si>
+  <si>
+    <t>UA23-2</t>
+  </si>
+  <si>
+    <t>UA23-1</t>
+  </si>
+  <si>
+    <t>UA9-2</t>
+  </si>
+  <si>
+    <t>UA1-1</t>
+  </si>
+  <si>
+    <t>DP1-3</t>
+  </si>
+  <si>
+    <t>DP1-1</t>
+  </si>
+  <si>
+    <t>DP25-1</t>
+  </si>
+  <si>
+    <t>DP25-2</t>
+  </si>
+  <si>
+    <t>DP25-3</t>
+  </si>
+  <si>
+    <t>DP15-3</t>
+  </si>
+  <si>
+    <t>CH1-11</t>
+  </si>
+  <si>
+    <t>CH1-10</t>
+  </si>
+  <si>
+    <t>CH26-2</t>
+  </si>
+  <si>
+    <t>CH9-2</t>
+  </si>
+  <si>
+    <t>CH12-4</t>
+  </si>
+  <si>
+    <t>CH26-1</t>
+  </si>
+  <si>
+    <t>CH1-1</t>
+  </si>
+  <si>
+    <t>CH26-5</t>
+  </si>
+  <si>
+    <t>HR1-1</t>
+  </si>
+  <si>
+    <t>HR2-4</t>
+  </si>
+  <si>
+    <t>HR14-1</t>
+  </si>
+  <si>
+    <t>HR14-3</t>
+  </si>
+  <si>
+    <t>CC18-5</t>
+  </si>
+  <si>
+    <t>CC12-37</t>
+  </si>
+  <si>
+    <t>CC1-4</t>
+  </si>
+  <si>
+    <t>CC1-3</t>
+  </si>
+  <si>
+    <t>CC1-41</t>
+  </si>
+  <si>
+    <t>CC1-43</t>
+  </si>
+  <si>
+    <t>CC9-18</t>
+  </si>
+  <si>
+    <t>CC9-10</t>
+  </si>
+  <si>
+    <t>CC9-11</t>
+  </si>
+  <si>
+    <t>CC9-17</t>
+  </si>
+  <si>
+    <t>CC9-13</t>
+  </si>
+  <si>
+    <t>CC1-45</t>
+  </si>
+  <si>
+    <t>CC1-46</t>
+  </si>
+  <si>
+    <t>CC9-12</t>
+  </si>
+  <si>
+    <t>CC16-19</t>
+  </si>
+  <si>
+    <t>CZ1-8_1-21</t>
+  </si>
+  <si>
+    <t>CZ1-11_1-38</t>
+  </si>
+  <si>
+    <t>DP1-4_1-5</t>
+  </si>
+  <si>
+    <t>HR 2-1_2-2</t>
+  </si>
+  <si>
+    <t>HR15-4_5</t>
+  </si>
+  <si>
+    <t>new</t>
+  </si>
+  <si>
+    <t>DP1-21_1</t>
+  </si>
+  <si>
+    <t>DP1-21_2</t>
   </si>
 </sst>
 </file>
@@ -2627,10 +2636,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H81"/>
+  <dimension ref="A1:I81"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView topLeftCell="A68" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2:F81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2640,12 +2649,13 @@
     <col min="3" max="3" width="11.5546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="8.21875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10.88671875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="54.6640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.77734375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="82.33203125" customWidth="1"/>
+    <col min="6" max="6" width="11.109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="54.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.77734375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="82.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2662,16 +2672,19 @@
         <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
+        <v>727</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>254</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -2688,16 +2701,19 @@
         <v>8</v>
       </c>
       <c r="F2" s="3" t="s">
+        <v>722</v>
+      </c>
+      <c r="G2" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="G2" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="H2" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="I2" s="3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" s="2">
         <v>1</v>
       </c>
@@ -2714,16 +2730,19 @@
         <v>12</v>
       </c>
       <c r="F3" s="3" t="s">
+        <v>723</v>
+      </c>
+      <c r="G3" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="G3" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="H3" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="I3" s="3" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
         <v>1</v>
       </c>
@@ -2740,16 +2759,19 @@
         <v>15</v>
       </c>
       <c r="F4" s="3" t="s">
+        <v>649</v>
+      </c>
+      <c r="G4" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="G4" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="H4" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="I4" s="3" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" s="2">
         <v>1</v>
       </c>
@@ -2766,16 +2788,19 @@
         <v>18</v>
       </c>
       <c r="F5" s="3" t="s">
+        <v>650</v>
+      </c>
+      <c r="G5" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="G5" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="H5" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="I5" s="3" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A6" s="2">
         <v>1</v>
       </c>
@@ -2792,16 +2817,19 @@
         <v>21</v>
       </c>
       <c r="F6" s="3" t="s">
+        <v>651</v>
+      </c>
+      <c r="G6" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="G6" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="H6" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="I6" s="3" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A7" s="2">
         <v>1</v>
       </c>
@@ -2818,16 +2846,19 @@
         <v>24</v>
       </c>
       <c r="F7" s="3" t="s">
+        <v>652</v>
+      </c>
+      <c r="G7" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="G7" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="H7" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="I7" s="3" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" s="2">
         <v>1</v>
       </c>
@@ -2844,16 +2875,19 @@
         <v>27</v>
       </c>
       <c r="F8" s="3" t="s">
+        <v>653</v>
+      </c>
+      <c r="G8" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="G8" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="H8" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="I8" s="3" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" s="2">
         <v>1</v>
       </c>
@@ -2870,16 +2904,19 @@
         <v>30</v>
       </c>
       <c r="F9" s="3" t="s">
+        <v>654</v>
+      </c>
+      <c r="G9" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="G9" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="H9" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="I9" s="3" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A10" s="2">
         <v>1</v>
       </c>
@@ -2896,16 +2933,19 @@
         <v>33</v>
       </c>
       <c r="F10" s="3" t="s">
+        <v>655</v>
+      </c>
+      <c r="G10" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="G10" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="H10" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="I10" s="3" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" s="2">
         <v>1</v>
       </c>
@@ -2922,16 +2962,19 @@
         <v>36</v>
       </c>
       <c r="F11" s="3" t="s">
+        <v>656</v>
+      </c>
+      <c r="G11" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="G11" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="H11" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="I11" s="3" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A12" s="2">
         <v>1</v>
       </c>
@@ -2948,16 +2991,19 @@
         <v>39</v>
       </c>
       <c r="F12" s="3" t="s">
+        <v>657</v>
+      </c>
+      <c r="G12" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="G12" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="H12" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="I12" s="3" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A13" s="2">
         <v>1</v>
       </c>
@@ -2974,16 +3020,19 @@
         <v>42</v>
       </c>
       <c r="F13" s="3" t="s">
+        <v>658</v>
+      </c>
+      <c r="G13" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="G13" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="H13" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="I13" s="3" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A14" s="2">
         <v>1</v>
       </c>
@@ -3000,16 +3049,19 @@
         <v>45</v>
       </c>
       <c r="F14" s="3" t="s">
+        <v>659</v>
+      </c>
+      <c r="G14" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="G14" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="H14" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="I14" s="3" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15" s="2">
         <v>1</v>
       </c>
@@ -3026,16 +3078,19 @@
         <v>48</v>
       </c>
       <c r="F15" s="3" t="s">
+        <v>660</v>
+      </c>
+      <c r="G15" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="G15" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="H15" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="I15" s="3" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="16" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A16" s="2">
         <v>1</v>
       </c>
@@ -3052,16 +3107,19 @@
         <v>51</v>
       </c>
       <c r="F16" s="3" t="s">
+        <v>661</v>
+      </c>
+      <c r="G16" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="G16" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="H16" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="I16" s="3" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="17" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A17" s="2">
         <v>1</v>
       </c>
@@ -3078,16 +3136,19 @@
         <v>54</v>
       </c>
       <c r="F17" s="3" t="s">
+        <v>662</v>
+      </c>
+      <c r="G17" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="G17" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="H17" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="I17" s="3" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="18" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A18" s="2">
         <v>1</v>
       </c>
@@ -3104,16 +3165,19 @@
         <v>57</v>
       </c>
       <c r="F18" s="3" t="s">
+        <v>663</v>
+      </c>
+      <c r="G18" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="G18" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="H18" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="I18" s="3" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A19" s="2">
         <v>1</v>
       </c>
@@ -3130,16 +3194,19 @@
         <v>60</v>
       </c>
       <c r="F19" s="3" t="s">
+        <v>664</v>
+      </c>
+      <c r="G19" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="G19" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="H19" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="I19" s="3" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A20" s="2">
         <v>1</v>
       </c>
@@ -3156,16 +3223,19 @@
         <v>63</v>
       </c>
       <c r="F20" s="3" t="s">
+        <v>665</v>
+      </c>
+      <c r="G20" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="G20" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="H20" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="I20" s="3" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="21" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A21" s="2">
         <v>1</v>
       </c>
@@ -3182,16 +3252,19 @@
         <v>66</v>
       </c>
       <c r="F21" s="3" t="s">
+        <v>666</v>
+      </c>
+      <c r="G21" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="G21" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="H21" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="I21" s="3" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A22" s="2">
         <v>1</v>
       </c>
@@ -3208,16 +3281,19 @@
         <v>69</v>
       </c>
       <c r="F22" s="3" t="s">
+        <v>667</v>
+      </c>
+      <c r="G22" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="G22" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="H22" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="I22" s="3" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="23" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A23" s="2">
         <v>1</v>
       </c>
@@ -3234,16 +3310,19 @@
         <v>72</v>
       </c>
       <c r="F23" s="3" t="s">
+        <v>668</v>
+      </c>
+      <c r="G23" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="G23" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="H23" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="I23" s="3" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A24" s="2">
         <v>1</v>
       </c>
@@ -3260,16 +3339,19 @@
         <v>75</v>
       </c>
       <c r="F24" s="3" t="s">
+        <v>669</v>
+      </c>
+      <c r="G24" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="G24" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="H24" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="I24" s="3" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="25" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A25" s="2">
         <v>2</v>
       </c>
@@ -3286,16 +3368,19 @@
         <v>79</v>
       </c>
       <c r="F25" s="3" t="s">
+        <v>670</v>
+      </c>
+      <c r="G25" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="G25" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="H25" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="I25" s="3" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A26" s="2">
         <v>2</v>
       </c>
@@ -3312,16 +3397,19 @@
         <v>82</v>
       </c>
       <c r="F26" s="3" t="s">
+        <v>671</v>
+      </c>
+      <c r="G26" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="G26" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="H26" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="I26" s="3" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A27" s="2">
         <v>2</v>
       </c>
@@ -3338,16 +3426,19 @@
         <v>85</v>
       </c>
       <c r="F27" s="3" t="s">
+        <v>672</v>
+      </c>
+      <c r="G27" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="G27" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="H27" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="I27" s="3" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="28" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A28" s="2">
         <v>2</v>
       </c>
@@ -3364,16 +3455,19 @@
         <v>88</v>
       </c>
       <c r="F28" s="3" t="s">
+        <v>673</v>
+      </c>
+      <c r="G28" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="G28" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="H28" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="I28" s="3" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="29" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A29" s="2">
         <v>2</v>
       </c>
@@ -3390,16 +3484,19 @@
         <v>91</v>
       </c>
       <c r="F29" s="3" t="s">
+        <v>674</v>
+      </c>
+      <c r="G29" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="G29" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="H29" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="I29" s="3" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A30" s="2">
         <v>2</v>
       </c>
@@ -3416,16 +3513,19 @@
         <v>94</v>
       </c>
       <c r="F30" s="3" t="s">
+        <v>675</v>
+      </c>
+      <c r="G30" s="3" t="s">
         <v>95</v>
       </c>
-      <c r="G30" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="H30" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="I30" s="3" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="31" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A31" s="2">
         <v>2</v>
       </c>
@@ -3442,16 +3542,19 @@
         <v>97</v>
       </c>
       <c r="F31" s="3" t="s">
+        <v>676</v>
+      </c>
+      <c r="G31" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="G31" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="H31" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="I31" s="3" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="32" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A32" s="2">
         <v>3</v>
       </c>
@@ -3468,16 +3571,19 @@
         <v>101</v>
       </c>
       <c r="F32" s="3" t="s">
+        <v>677</v>
+      </c>
+      <c r="G32" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="G32" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="H32" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="I32" s="3" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="33" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A33" s="2">
         <v>3</v>
       </c>
@@ -3494,16 +3600,19 @@
         <v>104</v>
       </c>
       <c r="F33" s="3" t="s">
+        <v>678</v>
+      </c>
+      <c r="G33" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="G33" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="H33" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="I33" s="3" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="34" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A34" s="2">
         <v>3</v>
       </c>
@@ -3520,16 +3629,19 @@
         <v>107</v>
       </c>
       <c r="F34" s="3" t="s">
+        <v>679</v>
+      </c>
+      <c r="G34" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="G34" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="H34" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="I34" s="3" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="35" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A35" s="2">
         <v>3</v>
       </c>
@@ -3546,16 +3658,19 @@
         <v>110</v>
       </c>
       <c r="F35" s="3" t="s">
+        <v>680</v>
+      </c>
+      <c r="G35" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="G35" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="H35" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="I35" s="3" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="36" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A36" s="2">
         <v>3</v>
       </c>
@@ -3572,16 +3687,19 @@
         <v>113</v>
       </c>
       <c r="F36" s="3" t="s">
+        <v>681</v>
+      </c>
+      <c r="G36" s="3" t="s">
         <v>114</v>
       </c>
-      <c r="G36" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="H36" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="I36" s="3" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="37" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A37" s="2">
         <v>3</v>
       </c>
@@ -3598,16 +3716,19 @@
         <v>116</v>
       </c>
       <c r="F37" s="3" t="s">
+        <v>682</v>
+      </c>
+      <c r="G37" s="3" t="s">
         <v>117</v>
       </c>
-      <c r="G37" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="H37" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="I37" s="3" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="38" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A38" s="2">
         <v>3</v>
       </c>
@@ -3624,16 +3745,19 @@
         <v>119</v>
       </c>
       <c r="F38" s="3" t="s">
+        <v>683</v>
+      </c>
+      <c r="G38" s="3" t="s">
         <v>120</v>
       </c>
-      <c r="G38" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="H38" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="I38" s="3" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="39" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A39" s="2">
         <v>3</v>
       </c>
@@ -3650,16 +3774,19 @@
         <v>122</v>
       </c>
       <c r="F39" s="3" t="s">
+        <v>684</v>
+      </c>
+      <c r="G39" s="3" t="s">
         <v>123</v>
       </c>
-      <c r="G39" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="H39" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="I39" s="3" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="40" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A40" s="2">
         <v>3</v>
       </c>
@@ -3676,16 +3803,19 @@
         <v>125</v>
       </c>
       <c r="F40" s="3" t="s">
+        <v>685</v>
+      </c>
+      <c r="G40" s="3" t="s">
         <v>126</v>
       </c>
-      <c r="G40" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="H40" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="I40" s="3" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A41" s="2">
         <v>3</v>
       </c>
@@ -3702,16 +3832,19 @@
         <v>128</v>
       </c>
       <c r="F41" s="3" t="s">
+        <v>686</v>
+      </c>
+      <c r="G41" s="3" t="s">
         <v>129</v>
       </c>
-      <c r="G41" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="H41" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="I41" s="3" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="42" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A42" s="2">
         <v>3</v>
       </c>
@@ -3728,16 +3861,19 @@
         <v>131</v>
       </c>
       <c r="F42" s="3" t="s">
+        <v>687</v>
+      </c>
+      <c r="G42" s="3" t="s">
         <v>132</v>
       </c>
-      <c r="G42" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="H42" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="I42" s="3" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="43" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A43" s="2">
         <v>3</v>
       </c>
@@ -3754,16 +3890,19 @@
         <v>134</v>
       </c>
       <c r="F43" s="3" t="s">
+        <v>688</v>
+      </c>
+      <c r="G43" s="3" t="s">
         <v>135</v>
       </c>
-      <c r="G43" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="H43" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="I43" s="3" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="44" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A44" s="2">
         <v>4</v>
       </c>
@@ -3780,16 +3919,19 @@
         <v>138</v>
       </c>
       <c r="F44" s="3" t="s">
+        <v>728</v>
+      </c>
+      <c r="G44" s="3" t="s">
         <v>139</v>
       </c>
-      <c r="G44" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="H44" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="I44" s="3" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="45" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A45" s="2">
         <v>4</v>
       </c>
@@ -3806,16 +3948,19 @@
         <v>141</v>
       </c>
       <c r="F45" s="3" t="s">
+        <v>689</v>
+      </c>
+      <c r="G45" s="3" t="s">
         <v>142</v>
       </c>
-      <c r="G45" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="H45" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="I45" s="3" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="46" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A46" s="2">
         <v>4</v>
       </c>
@@ -3832,16 +3977,19 @@
         <v>144</v>
       </c>
       <c r="F46" s="3" t="s">
+        <v>690</v>
+      </c>
+      <c r="G46" s="3" t="s">
         <v>145</v>
       </c>
-      <c r="G46" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="H46" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="I46" s="3" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="47" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A47" s="2">
         <v>4</v>
       </c>
@@ -3858,16 +4006,19 @@
         <v>138</v>
       </c>
       <c r="F47" s="3" t="s">
+        <v>729</v>
+      </c>
+      <c r="G47" s="3" t="s">
         <v>147</v>
       </c>
-      <c r="G47" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="H47" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="I47" s="3" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="48" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A48" s="2">
         <v>4</v>
       </c>
@@ -3884,16 +4035,19 @@
         <v>149</v>
       </c>
       <c r="F48" s="3" t="s">
+        <v>724</v>
+      </c>
+      <c r="G48" s="3" t="s">
         <v>150</v>
       </c>
-      <c r="G48" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="H48" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="I48" s="3" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="49" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A49" s="2">
         <v>4</v>
       </c>
@@ -3910,16 +4064,19 @@
         <v>152</v>
       </c>
       <c r="F49" s="3" t="s">
+        <v>691</v>
+      </c>
+      <c r="G49" s="3" t="s">
         <v>153</v>
       </c>
-      <c r="G49" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="H49" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="I49" s="3" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="50" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A50" s="2">
         <v>4</v>
       </c>
@@ -3936,16 +4093,19 @@
         <v>155</v>
       </c>
       <c r="F50" s="3" t="s">
+        <v>692</v>
+      </c>
+      <c r="G50" s="3" t="s">
         <v>156</v>
       </c>
-      <c r="G50" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="H50" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="I50" s="3" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="51" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A51" s="2">
         <v>4</v>
       </c>
@@ -3962,16 +4122,19 @@
         <v>158</v>
       </c>
       <c r="F51" s="3" t="s">
+        <v>693</v>
+      </c>
+      <c r="G51" s="3" t="s">
         <v>159</v>
       </c>
-      <c r="G51" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="H51" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="I51" s="3" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="52" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A52" s="2">
         <v>4</v>
       </c>
@@ -3988,16 +4151,19 @@
         <v>161</v>
       </c>
       <c r="F52" s="3" t="s">
+        <v>694</v>
+      </c>
+      <c r="G52" s="3" t="s">
         <v>162</v>
       </c>
-      <c r="G52" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="H52" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="I52" s="3" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="53" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A53" s="2">
         <v>5</v>
       </c>
@@ -4014,16 +4180,19 @@
         <v>165</v>
       </c>
       <c r="F53" s="3" t="s">
+        <v>695</v>
+      </c>
+      <c r="G53" s="3" t="s">
         <v>166</v>
       </c>
-      <c r="G53" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="H53" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="I53" s="3" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A54" s="2">
         <v>5</v>
       </c>
@@ -4040,16 +4209,19 @@
         <v>168</v>
       </c>
       <c r="F54" s="3" t="s">
+        <v>696</v>
+      </c>
+      <c r="G54" s="3" t="s">
         <v>169</v>
       </c>
-      <c r="G54" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="H54" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="I54" s="3" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="55" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A55" s="2">
         <v>5</v>
       </c>
@@ -4066,16 +4238,19 @@
         <v>171</v>
       </c>
       <c r="F55" s="3" t="s">
+        <v>697</v>
+      </c>
+      <c r="G55" s="3" t="s">
         <v>172</v>
       </c>
-      <c r="G55" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="H55" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="I55" s="3" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="56" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A56" s="2">
         <v>5</v>
       </c>
@@ -4092,16 +4267,19 @@
         <v>174</v>
       </c>
       <c r="F56" s="3" t="s">
+        <v>698</v>
+      </c>
+      <c r="G56" s="3" t="s">
         <v>175</v>
       </c>
-      <c r="G56" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="H56" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="I56" s="3" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="57" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A57" s="2">
         <v>5</v>
       </c>
@@ -4118,16 +4296,19 @@
         <v>177</v>
       </c>
       <c r="F57" s="3" t="s">
+        <v>699</v>
+      </c>
+      <c r="G57" s="3" t="s">
         <v>178</v>
       </c>
-      <c r="G57" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="H57" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="I57" s="3" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A58" s="2">
         <v>5</v>
       </c>
@@ -4144,16 +4325,19 @@
         <v>180</v>
       </c>
       <c r="F58" s="3" t="s">
+        <v>700</v>
+      </c>
+      <c r="G58" s="3" t="s">
         <v>181</v>
       </c>
-      <c r="G58" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="H58" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="I58" s="3" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="59" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A59" s="2">
         <v>5</v>
       </c>
@@ -4170,16 +4354,19 @@
         <v>183</v>
       </c>
       <c r="F59" s="3" t="s">
+        <v>701</v>
+      </c>
+      <c r="G59" s="3" t="s">
         <v>184</v>
       </c>
-      <c r="G59" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="H59" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="I59" s="3" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="60" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A60" s="2">
         <v>5</v>
       </c>
@@ -4196,16 +4383,19 @@
         <v>186</v>
       </c>
       <c r="F60" s="3" t="s">
+        <v>702</v>
+      </c>
+      <c r="G60" s="3" t="s">
         <v>187</v>
       </c>
-      <c r="G60" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="H60" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="I60" s="3" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="61" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A61" s="2">
         <v>6</v>
       </c>
@@ -4222,16 +4412,19 @@
         <v>190</v>
       </c>
       <c r="F61" s="3" t="s">
+        <v>725</v>
+      </c>
+      <c r="G61" s="3" t="s">
         <v>191</v>
       </c>
-      <c r="G61" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="H61" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="I61" s="3" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="62" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A62" s="2">
         <v>6</v>
       </c>
@@ -4248,16 +4441,19 @@
         <v>193</v>
       </c>
       <c r="F62" s="3" t="s">
+        <v>703</v>
+      </c>
+      <c r="G62" s="3" t="s">
         <v>194</v>
       </c>
-      <c r="G62" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="H62" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="I62" s="3" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A63" s="2">
         <v>6</v>
       </c>
@@ -4274,16 +4470,19 @@
         <v>196</v>
       </c>
       <c r="F63" s="3" t="s">
+        <v>704</v>
+      </c>
+      <c r="G63" s="3" t="s">
         <v>197</v>
       </c>
-      <c r="G63" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="H63" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="I63" s="3" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="64" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A64" s="2">
         <v>6</v>
       </c>
@@ -4300,16 +4499,19 @@
         <v>199</v>
       </c>
       <c r="F64" s="3" t="s">
+        <v>705</v>
+      </c>
+      <c r="G64" s="3" t="s">
         <v>200</v>
       </c>
-      <c r="G64" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="H64" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="I64" s="3" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A65" s="2">
         <v>6</v>
       </c>
@@ -4326,16 +4528,19 @@
         <v>202</v>
       </c>
       <c r="F65" s="3" t="s">
+        <v>726</v>
+      </c>
+      <c r="G65" s="3" t="s">
         <v>203</v>
       </c>
-      <c r="G65" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="H65" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="I65" s="3" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A66" s="2">
         <v>6</v>
       </c>
@@ -4352,16 +4557,19 @@
         <v>205</v>
       </c>
       <c r="F66" s="3" t="s">
+        <v>706</v>
+      </c>
+      <c r="G66" s="3" t="s">
         <v>206</v>
       </c>
-      <c r="G66" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="H66" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="I66" s="3" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="67" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A67" s="2">
         <v>7</v>
       </c>
@@ -4378,16 +4586,19 @@
         <v>209</v>
       </c>
       <c r="F67" s="3" t="s">
+        <v>707</v>
+      </c>
+      <c r="G67" s="3" t="s">
         <v>210</v>
       </c>
-      <c r="G67" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="H67" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="I67" s="3" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="68" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A68" s="2">
         <v>7</v>
       </c>
@@ -4404,16 +4615,19 @@
         <v>212</v>
       </c>
       <c r="F68" s="3" t="s">
+        <v>708</v>
+      </c>
+      <c r="G68" s="3" t="s">
         <v>213</v>
       </c>
-      <c r="G68" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="H68" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="I68" s="3" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="69" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A69" s="2">
         <v>7</v>
       </c>
@@ -4430,16 +4644,19 @@
         <v>215</v>
       </c>
       <c r="F69" s="3" t="s">
+        <v>709</v>
+      </c>
+      <c r="G69" s="3" t="s">
         <v>216</v>
       </c>
-      <c r="G69" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="H69" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="I69" s="3" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="70" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A70" s="2">
         <v>7</v>
       </c>
@@ -4456,16 +4673,19 @@
         <v>218</v>
       </c>
       <c r="F70" s="3" t="s">
+        <v>710</v>
+      </c>
+      <c r="G70" s="3" t="s">
         <v>219</v>
       </c>
-      <c r="G70" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="H70" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="I70" s="3" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="71" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A71" s="2">
         <v>7</v>
       </c>
@@ -4482,16 +4702,19 @@
         <v>221</v>
       </c>
       <c r="F71" s="3" t="s">
+        <v>711</v>
+      </c>
+      <c r="G71" s="3" t="s">
         <v>222</v>
       </c>
-      <c r="G71" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="H71" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="I71" s="3" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A72" s="2">
         <v>7</v>
       </c>
@@ -4508,16 +4731,19 @@
         <v>224</v>
       </c>
       <c r="F72" s="3" t="s">
+        <v>712</v>
+      </c>
+      <c r="G72" s="3" t="s">
         <v>225</v>
       </c>
-      <c r="G72" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="H72" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="I72" s="3" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="73" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A73" s="2">
         <v>7</v>
       </c>
@@ -4534,16 +4760,19 @@
         <v>227</v>
       </c>
       <c r="F73" s="3" t="s">
+        <v>713</v>
+      </c>
+      <c r="G73" s="3" t="s">
         <v>228</v>
       </c>
-      <c r="G73" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="H73" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="I73" s="3" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A74" s="2">
         <v>7</v>
       </c>
@@ -4560,16 +4789,19 @@
         <v>230</v>
       </c>
       <c r="F74" s="3" t="s">
+        <v>714</v>
+      </c>
+      <c r="G74" s="3" t="s">
         <v>231</v>
       </c>
-      <c r="G74" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="H74" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="I74" s="3" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="75" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A75" s="2">
         <v>7</v>
       </c>
@@ -4586,16 +4818,19 @@
         <v>233</v>
       </c>
       <c r="F75" s="3" t="s">
+        <v>715</v>
+      </c>
+      <c r="G75" s="3" t="s">
         <v>234</v>
       </c>
-      <c r="G75" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="H75" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="I75" s="3" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="76" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A76" s="2">
         <v>7</v>
       </c>
@@ -4612,16 +4847,19 @@
         <v>236</v>
       </c>
       <c r="F76" s="3" t="s">
+        <v>716</v>
+      </c>
+      <c r="G76" s="3" t="s">
         <v>237</v>
       </c>
-      <c r="G76" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="H76" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="I76" s="3" t="s">
         <v>238</v>
       </c>
     </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A77" s="2">
         <v>7</v>
       </c>
@@ -4638,16 +4876,19 @@
         <v>239</v>
       </c>
       <c r="F77" s="3" t="s">
+        <v>717</v>
+      </c>
+      <c r="G77" s="3" t="s">
         <v>240</v>
       </c>
-      <c r="G77" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="H77" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="I77" s="3" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="78" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A78" s="2">
         <v>7</v>
       </c>
@@ -4664,16 +4905,19 @@
         <v>242</v>
       </c>
       <c r="F78" s="3" t="s">
+        <v>718</v>
+      </c>
+      <c r="G78" s="3" t="s">
         <v>243</v>
       </c>
-      <c r="G78" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="H78" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="I78" s="3" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="79" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A79" s="2">
         <v>7</v>
       </c>
@@ -4690,16 +4934,19 @@
         <v>245</v>
       </c>
       <c r="F79" s="3" t="s">
+        <v>719</v>
+      </c>
+      <c r="G79" s="3" t="s">
         <v>246</v>
       </c>
-      <c r="G79" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="H79" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="I79" s="3" t="s">
         <v>247</v>
       </c>
     </row>
-    <row r="80" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A80" s="2">
         <v>7</v>
       </c>
@@ -4716,16 +4963,19 @@
         <v>248</v>
       </c>
       <c r="F80" s="3" t="s">
+        <v>720</v>
+      </c>
+      <c r="G80" s="3" t="s">
         <v>249</v>
       </c>
-      <c r="G80" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="H80" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="I80" s="3" t="s">
         <v>250</v>
       </c>
     </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A81" s="2">
         <v>7</v>
       </c>
@@ -4742,12 +4992,15 @@
         <v>251</v>
       </c>
       <c r="F81" s="3" t="s">
+        <v>721</v>
+      </c>
+      <c r="G81" s="3" t="s">
         <v>252</v>
       </c>
-      <c r="G81" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="H81" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="I81" s="3" t="s">
         <v>253</v>
       </c>
     </row>
@@ -4762,7 +5015,7 @@
   <dimension ref="A1:K81"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="45" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4815,8 +5068,8 @@
       </c>
     </row>
     <row r="2" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A2" s="4" t="s">
-        <v>265</v>
+      <c r="A2" s="3" t="s">
+        <v>722</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>9</v>
@@ -4828,30 +5081,30 @@
         <v>23.667276999999999</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="F2" s="4">
         <v>5</v>
       </c>
       <c r="G2" s="4" t="s">
+        <v>266</v>
+      </c>
+      <c r="H2" s="4" t="s">
         <v>267</v>
-      </c>
-      <c r="H2" s="4" t="s">
-        <v>268</v>
       </c>
       <c r="I2" s="4">
         <v>2</v>
       </c>
       <c r="J2" s="4" t="s">
+        <v>268</v>
+      </c>
+      <c r="K2" s="4" t="s">
         <v>269</v>
       </c>
-      <c r="K2" s="4" t="s">
-        <v>270</v>
-      </c>
     </row>
     <row r="3" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A3" s="4" t="s">
-        <v>271</v>
+      <c r="A3" s="3" t="s">
+        <v>723</v>
       </c>
       <c r="B3" s="4" t="s">
         <v>13</v>
@@ -4863,30 +5116,30 @@
         <v>25.455874000000001</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="F3" s="4">
         <v>2</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="H3" s="4" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="I3" s="4">
         <v>7</v>
       </c>
       <c r="J3" s="4" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="K3" s="4" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A4" s="4" t="s">
-        <v>277</v>
+      <c r="A4" s="3" t="s">
+        <v>649</v>
       </c>
       <c r="B4" s="4" t="s">
         <v>16</v>
@@ -4898,30 +5151,30 @@
         <v>22.006951000000001</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="F4" s="4">
         <v>15</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="H4" s="4" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="I4" s="4">
         <v>6</v>
       </c>
       <c r="J4" s="4" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="K4" s="4" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A5" s="4" t="s">
-        <v>283</v>
+      <c r="A5" s="3" t="s">
+        <v>650</v>
       </c>
       <c r="B5" s="4" t="s">
         <v>19</v>
@@ -4933,30 +5186,30 @@
         <v>23.939259</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="F5" s="4">
         <v>6</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="H5" s="4" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="I5" s="4">
         <v>4</v>
       </c>
       <c r="J5" s="4" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="K5" s="4" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A6" s="4" t="s">
-        <v>289</v>
+      <c r="A6" s="3" t="s">
+        <v>651</v>
       </c>
       <c r="B6" s="4" t="s">
         <v>22</v>
@@ -4968,30 +5221,30 @@
         <v>22.161411999999999</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>290</v>
+        <v>285</v>
       </c>
       <c r="F6" s="4">
         <v>5</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>291</v>
+        <v>286</v>
       </c>
       <c r="H6" s="4" t="s">
-        <v>292</v>
+        <v>287</v>
       </c>
       <c r="I6" s="4">
         <v>1</v>
       </c>
       <c r="J6" s="4" t="s">
-        <v>293</v>
+        <v>288</v>
       </c>
       <c r="K6" s="4" t="s">
-        <v>294</v>
+        <v>289</v>
       </c>
     </row>
     <row r="7" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A7" s="4" t="s">
-        <v>295</v>
+      <c r="A7" s="3" t="s">
+        <v>652</v>
       </c>
       <c r="B7" s="4" t="s">
         <v>25</v>
@@ -5003,30 +5256,30 @@
         <v>25.812512000000002</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>296</v>
+        <v>290</v>
       </c>
       <c r="F7" s="4">
         <v>28</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>297</v>
+        <v>291</v>
       </c>
       <c r="H7" s="4" t="s">
-        <v>298</v>
+        <v>292</v>
       </c>
       <c r="I7" s="4">
         <v>4</v>
       </c>
       <c r="J7" s="4" t="s">
-        <v>299</v>
+        <v>293</v>
       </c>
       <c r="K7" s="4" t="s">
-        <v>300</v>
+        <v>294</v>
       </c>
     </row>
     <row r="8" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A8" s="4" t="s">
-        <v>301</v>
+      <c r="A8" s="3" t="s">
+        <v>653</v>
       </c>
       <c r="B8" s="4" t="s">
         <v>28</v>
@@ -5038,30 +5291,30 @@
         <v>24.227117</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>302</v>
+        <v>295</v>
       </c>
       <c r="F8" s="4">
         <v>6</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>303</v>
+        <v>296</v>
       </c>
       <c r="H8" s="4" t="s">
-        <v>304</v>
+        <v>297</v>
       </c>
       <c r="I8" s="4">
         <v>1</v>
       </c>
       <c r="J8" s="4" t="s">
-        <v>305</v>
+        <v>298</v>
       </c>
       <c r="K8" s="4" t="s">
-        <v>306</v>
+        <v>299</v>
       </c>
     </row>
     <row r="9" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A9" s="4" t="s">
-        <v>307</v>
+      <c r="A9" s="3" t="s">
+        <v>654</v>
       </c>
       <c r="B9" s="4" t="s">
         <v>31</v>
@@ -5073,33 +5326,33 @@
         <v>23.043444999999998</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>308</v>
+        <v>300</v>
       </c>
       <c r="F9" s="4">
         <v>7</v>
       </c>
       <c r="G9" s="4" t="s">
-        <v>309</v>
+        <v>301</v>
       </c>
       <c r="H9" s="4" t="s">
-        <v>310</v>
+        <v>302</v>
       </c>
       <c r="I9" s="4">
         <v>2</v>
       </c>
       <c r="J9" s="4" t="s">
-        <v>311</v>
+        <v>303</v>
       </c>
       <c r="K9" s="4" t="s">
-        <v>312</v>
+        <v>304</v>
       </c>
     </row>
     <row r="10" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A10" s="4" t="s">
-        <v>313</v>
+      <c r="A10" s="3" t="s">
+        <v>655</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>314</v>
+        <v>305</v>
       </c>
       <c r="C10" s="4">
         <v>89.797895999999994</v>
@@ -5108,30 +5361,30 @@
         <v>24.191037000000001</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>315</v>
+        <v>306</v>
       </c>
       <c r="F10" s="4">
         <v>18</v>
       </c>
       <c r="G10" s="4" t="s">
-        <v>316</v>
+        <v>307</v>
       </c>
       <c r="H10" s="4" t="s">
-        <v>317</v>
+        <v>308</v>
       </c>
       <c r="I10" s="4">
         <v>3</v>
       </c>
       <c r="J10" s="4" t="s">
-        <v>318</v>
+        <v>309</v>
       </c>
       <c r="K10" s="4" t="s">
-        <v>319</v>
+        <v>310</v>
       </c>
     </row>
     <row r="11" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A11" s="4" t="s">
-        <v>320</v>
+      <c r="A11" s="3" t="s">
+        <v>656</v>
       </c>
       <c r="B11" s="4" t="s">
         <v>37</v>
@@ -5143,30 +5396,30 @@
         <v>22.292854999999999</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>321</v>
+        <v>311</v>
       </c>
       <c r="F11" s="4">
         <v>15</v>
       </c>
       <c r="G11" s="4" t="s">
-        <v>322</v>
+        <v>312</v>
       </c>
       <c r="H11" s="4" t="s">
-        <v>323</v>
+        <v>313</v>
       </c>
       <c r="I11" s="4">
         <v>5</v>
       </c>
       <c r="J11" s="4" t="s">
-        <v>324</v>
+        <v>314</v>
       </c>
       <c r="K11" s="4" t="s">
-        <v>325</v>
+        <v>315</v>
       </c>
     </row>
     <row r="12" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A12" s="4" t="s">
-        <v>326</v>
+      <c r="A12" s="3" t="s">
+        <v>657</v>
       </c>
       <c r="B12" s="4" t="s">
         <v>40</v>
@@ -5178,30 +5431,30 @@
         <v>22.066096000000002</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>327</v>
+        <v>316</v>
       </c>
       <c r="F12" s="4">
         <v>14</v>
       </c>
       <c r="G12" s="4" t="s">
-        <v>328</v>
+        <v>317</v>
       </c>
       <c r="H12" s="4" t="s">
-        <v>329</v>
+        <v>318</v>
       </c>
       <c r="I12" s="4">
         <v>5</v>
       </c>
       <c r="J12" s="4" t="s">
-        <v>330</v>
+        <v>319</v>
       </c>
       <c r="K12" s="4" t="s">
-        <v>331</v>
+        <v>320</v>
       </c>
     </row>
     <row r="13" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A13" s="4" t="s">
-        <v>277</v>
+      <c r="A13" s="3" t="s">
+        <v>658</v>
       </c>
       <c r="B13" s="4" t="s">
         <v>43</v>
@@ -5213,30 +5466,30 @@
         <v>22.199826999999999</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>332</v>
+        <v>321</v>
       </c>
       <c r="F13" s="4">
         <v>30</v>
       </c>
       <c r="G13" s="4" t="s">
-        <v>333</v>
+        <v>322</v>
       </c>
       <c r="H13" s="4" t="s">
-        <v>334</v>
+        <v>323</v>
       </c>
       <c r="I13" s="4">
         <v>1</v>
       </c>
       <c r="J13" s="4" t="s">
-        <v>335</v>
+        <v>324</v>
       </c>
       <c r="K13" s="4" t="s">
-        <v>336</v>
+        <v>325</v>
       </c>
     </row>
     <row r="14" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A14" s="4" t="s">
-        <v>337</v>
+      <c r="A14" s="3" t="s">
+        <v>659</v>
       </c>
       <c r="B14" s="4" t="s">
         <v>46</v>
@@ -5248,30 +5501,30 @@
         <v>25.223134000000002</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>338</v>
+        <v>326</v>
       </c>
       <c r="F14" s="4">
         <v>27</v>
       </c>
       <c r="G14" s="4" t="s">
-        <v>339</v>
+        <v>327</v>
       </c>
       <c r="H14" s="4" t="s">
-        <v>340</v>
+        <v>328</v>
       </c>
       <c r="I14" s="4">
         <v>5</v>
       </c>
       <c r="J14" s="4" t="s">
-        <v>341</v>
+        <v>329</v>
       </c>
       <c r="K14" s="4" t="s">
-        <v>342</v>
+        <v>330</v>
       </c>
     </row>
     <row r="15" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A15" s="4" t="s">
-        <v>343</v>
+      <c r="A15" s="3" t="s">
+        <v>660</v>
       </c>
       <c r="B15" s="4" t="s">
         <v>49</v>
@@ -5283,30 +5536,30 @@
         <v>23.889099999999999</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>344</v>
+        <v>331</v>
       </c>
       <c r="F15" s="4">
         <v>9</v>
       </c>
       <c r="G15" s="4" t="s">
-        <v>345</v>
+        <v>332</v>
       </c>
       <c r="H15" s="4" t="s">
-        <v>346</v>
+        <v>333</v>
       </c>
       <c r="I15" s="4">
         <v>5</v>
       </c>
       <c r="J15" s="4" t="s">
-        <v>347</v>
+        <v>334</v>
       </c>
       <c r="K15" s="4" t="s">
-        <v>348</v>
+        <v>335</v>
       </c>
     </row>
     <row r="16" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A16" s="4" t="s">
-        <v>349</v>
+      <c r="A16" s="3" t="s">
+        <v>661</v>
       </c>
       <c r="B16" s="4" t="s">
         <v>52</v>
@@ -5318,30 +5571,30 @@
         <v>25.558098000000001</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>350</v>
+        <v>336</v>
       </c>
       <c r="F16" s="4">
         <v>1</v>
       </c>
       <c r="G16" s="4" t="s">
-        <v>351</v>
+        <v>337</v>
       </c>
       <c r="H16" s="4" t="s">
-        <v>352</v>
+        <v>338</v>
       </c>
       <c r="I16" s="4">
         <v>7</v>
       </c>
       <c r="J16" s="4" t="s">
-        <v>353</v>
+        <v>339</v>
       </c>
       <c r="K16" s="4" t="s">
-        <v>354</v>
+        <v>340</v>
       </c>
     </row>
     <row r="17" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A17" s="4" t="s">
-        <v>355</v>
+      <c r="A17" s="3" t="s">
+        <v>662</v>
       </c>
       <c r="B17" s="4" t="s">
         <v>55</v>
@@ -5353,30 +5606,30 @@
         <v>22.005870999999999</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>356</v>
+        <v>341</v>
       </c>
       <c r="F17" s="4">
         <v>0</v>
       </c>
       <c r="G17" s="4" t="s">
-        <v>357</v>
+        <v>342</v>
       </c>
       <c r="H17" s="4" t="s">
-        <v>358</v>
+        <v>343</v>
       </c>
       <c r="I17" s="4">
         <v>5</v>
       </c>
       <c r="J17" s="4" t="s">
-        <v>359</v>
+        <v>344</v>
       </c>
       <c r="K17" s="4" t="s">
-        <v>360</v>
+        <v>345</v>
       </c>
     </row>
     <row r="18" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A18" s="4" t="s">
-        <v>361</v>
+      <c r="A18" s="3" t="s">
+        <v>663</v>
       </c>
       <c r="B18" s="4" t="s">
         <v>58</v>
@@ -5388,30 +5641,30 @@
         <v>24.691503999999998</v>
       </c>
       <c r="E18" s="4" t="s">
-        <v>362</v>
+        <v>346</v>
       </c>
       <c r="F18" s="4">
         <v>0</v>
       </c>
       <c r="G18" s="4" t="s">
-        <v>363</v>
+        <v>347</v>
       </c>
       <c r="H18" s="4" t="s">
-        <v>364</v>
+        <v>348</v>
       </c>
       <c r="I18" s="4">
         <v>7</v>
       </c>
       <c r="J18" s="4" t="s">
-        <v>365</v>
+        <v>349</v>
       </c>
       <c r="K18" s="4" t="s">
-        <v>366</v>
+        <v>350</v>
       </c>
     </row>
     <row r="19" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A19" s="4" t="s">
-        <v>367</v>
+      <c r="A19" s="3" t="s">
+        <v>664</v>
       </c>
       <c r="B19" s="4" t="s">
         <v>61</v>
@@ -5423,30 +5676,30 @@
         <v>25.542100999999999</v>
       </c>
       <c r="E19" s="4" t="s">
-        <v>368</v>
+        <v>351</v>
       </c>
       <c r="F19" s="4">
         <v>17</v>
       </c>
       <c r="G19" s="4" t="s">
-        <v>369</v>
+        <v>352</v>
       </c>
       <c r="H19" s="4" t="s">
-        <v>370</v>
+        <v>353</v>
       </c>
       <c r="I19" s="4">
         <v>6</v>
       </c>
       <c r="J19" s="4" t="s">
-        <v>371</v>
+        <v>354</v>
       </c>
       <c r="K19" s="4" t="s">
-        <v>372</v>
+        <v>355</v>
       </c>
     </row>
     <row r="20" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A20" s="4" t="s">
-        <v>373</v>
+      <c r="A20" s="3" t="s">
+        <v>665</v>
       </c>
       <c r="B20" s="4" t="s">
         <v>64</v>
@@ -5458,30 +5711,30 @@
         <v>25.392458999999999</v>
       </c>
       <c r="E20" s="4" t="s">
-        <v>374</v>
+        <v>356</v>
       </c>
       <c r="F20" s="4">
         <v>19</v>
       </c>
       <c r="G20" s="4" t="s">
-        <v>375</v>
+        <v>357</v>
       </c>
       <c r="H20" s="4" t="s">
-        <v>376</v>
+        <v>358</v>
       </c>
       <c r="I20" s="4">
         <v>5</v>
       </c>
       <c r="J20" s="4" t="s">
-        <v>377</v>
+        <v>359</v>
       </c>
       <c r="K20" s="4" t="s">
-        <v>378</v>
+        <v>360</v>
       </c>
     </row>
     <row r="21" spans="1:11" ht="302.39999999999998" x14ac:dyDescent="0.3">
-      <c r="A21" s="4" t="s">
-        <v>379</v>
+      <c r="A21" s="3" t="s">
+        <v>666</v>
       </c>
       <c r="B21" s="4" t="s">
         <v>67</v>
@@ -5493,30 +5746,30 @@
         <v>22.128042000000001</v>
       </c>
       <c r="E21" s="4" t="s">
-        <v>380</v>
+        <v>361</v>
       </c>
       <c r="F21" s="5">
         <v>1071.06</v>
       </c>
       <c r="G21" s="4" t="s">
-        <v>381</v>
+        <v>362</v>
       </c>
       <c r="H21" s="4" t="s">
-        <v>382</v>
+        <v>363</v>
       </c>
       <c r="I21" s="4" t="s">
-        <v>383</v>
+        <v>364</v>
       </c>
       <c r="J21" s="4" t="s">
-        <v>384</v>
+        <v>365</v>
       </c>
       <c r="K21" s="4" t="s">
-        <v>385</v>
+        <v>366</v>
       </c>
     </row>
     <row r="22" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A22" s="4" t="s">
-        <v>386</v>
+      <c r="A22" s="3" t="s">
+        <v>667</v>
       </c>
       <c r="B22" s="4" t="s">
         <v>70</v>
@@ -5528,30 +5781,30 @@
         <v>22.605958000000001</v>
       </c>
       <c r="E22" s="4" t="s">
-        <v>368</v>
+        <v>351</v>
       </c>
       <c r="F22" s="4">
         <v>29</v>
       </c>
       <c r="G22" s="4" t="s">
-        <v>369</v>
+        <v>352</v>
       </c>
       <c r="H22" s="4" t="s">
-        <v>370</v>
+        <v>353</v>
       </c>
       <c r="I22" s="4">
         <v>4</v>
       </c>
       <c r="J22" s="4" t="s">
-        <v>371</v>
+        <v>354</v>
       </c>
       <c r="K22" s="4" t="s">
-        <v>372</v>
+        <v>355</v>
       </c>
     </row>
     <row r="23" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A23" s="4" t="s">
-        <v>387</v>
+      <c r="A23" s="3" t="s">
+        <v>668</v>
       </c>
       <c r="B23" s="4" t="s">
         <v>73</v>
@@ -5563,30 +5816,30 @@
         <v>23.329194000000001</v>
       </c>
       <c r="E23" s="4" t="s">
-        <v>374</v>
+        <v>356</v>
       </c>
       <c r="F23" s="4">
         <v>22</v>
       </c>
       <c r="G23" s="4" t="s">
-        <v>375</v>
+        <v>357</v>
       </c>
       <c r="H23" s="4" t="s">
-        <v>376</v>
+        <v>358</v>
       </c>
       <c r="I23" s="4">
         <v>1</v>
       </c>
       <c r="J23" s="4" t="s">
-        <v>377</v>
+        <v>359</v>
       </c>
       <c r="K23" s="4" t="s">
-        <v>378</v>
+        <v>360</v>
       </c>
     </row>
     <row r="24" spans="1:11" ht="100.8" x14ac:dyDescent="0.3">
-      <c r="A24" s="4" t="s">
-        <v>388</v>
+      <c r="A24" s="3" t="s">
+        <v>669</v>
       </c>
       <c r="B24" s="4" t="s">
         <v>76</v>
@@ -5598,30 +5851,30 @@
         <v>23.954238</v>
       </c>
       <c r="E24" s="4" t="s">
-        <v>389</v>
+        <v>367</v>
       </c>
       <c r="F24" s="5">
         <v>407659.83</v>
       </c>
       <c r="G24" s="4" t="s">
-        <v>390</v>
+        <v>368</v>
       </c>
       <c r="H24" s="4" t="s">
-        <v>391</v>
+        <v>369</v>
       </c>
       <c r="I24" s="4" t="s">
-        <v>392</v>
+        <v>370</v>
       </c>
       <c r="J24" s="4" t="s">
-        <v>384</v>
+        <v>365</v>
       </c>
       <c r="K24" s="4" t="s">
-        <v>385</v>
+        <v>366</v>
       </c>
     </row>
     <row r="25" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A25" s="4" t="s">
-        <v>393</v>
+      <c r="A25" s="3" t="s">
+        <v>670</v>
       </c>
       <c r="B25" s="4" t="s">
         <v>80</v>
@@ -5633,30 +5886,30 @@
         <v>22.115302</v>
       </c>
       <c r="E25" s="4" t="s">
-        <v>368</v>
+        <v>351</v>
       </c>
       <c r="F25" s="4">
         <v>13</v>
       </c>
       <c r="G25" s="4" t="s">
-        <v>369</v>
+        <v>352</v>
       </c>
       <c r="H25" s="4" t="s">
-        <v>370</v>
+        <v>353</v>
       </c>
       <c r="I25" s="4">
         <v>2</v>
       </c>
       <c r="J25" s="4" t="s">
-        <v>371</v>
+        <v>354</v>
       </c>
       <c r="K25" s="4" t="s">
-        <v>372</v>
+        <v>355</v>
       </c>
     </row>
     <row r="26" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A26" s="4" t="s">
-        <v>394</v>
+      <c r="A26" s="3" t="s">
+        <v>671</v>
       </c>
       <c r="B26" s="4" t="s">
         <v>83</v>
@@ -5668,30 +5921,30 @@
         <v>23.344335999999998</v>
       </c>
       <c r="E26" s="4" t="s">
-        <v>374</v>
+        <v>356</v>
       </c>
       <c r="F26" s="4">
         <v>5</v>
       </c>
       <c r="G26" s="4" t="s">
-        <v>375</v>
+        <v>357</v>
       </c>
       <c r="H26" s="4" t="s">
-        <v>376</v>
+        <v>358</v>
       </c>
       <c r="I26" s="4">
         <v>5</v>
       </c>
       <c r="J26" s="4" t="s">
-        <v>377</v>
+        <v>359</v>
       </c>
       <c r="K26" s="4" t="s">
-        <v>378</v>
+        <v>360</v>
       </c>
     </row>
     <row r="27" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A27" s="4" t="s">
-        <v>395</v>
+      <c r="A27" s="3" t="s">
+        <v>672</v>
       </c>
       <c r="B27" s="4" t="s">
         <v>86</v>
@@ -5703,30 +5956,30 @@
         <v>25.189990000000002</v>
       </c>
       <c r="E27" s="4" t="s">
-        <v>396</v>
+        <v>371</v>
       </c>
       <c r="F27" s="4">
         <v>13</v>
       </c>
       <c r="G27" s="4" t="s">
-        <v>397</v>
+        <v>372</v>
       </c>
       <c r="H27" s="4" t="s">
-        <v>398</v>
+        <v>373</v>
       </c>
       <c r="I27" s="4">
         <v>2</v>
       </c>
       <c r="J27" s="4" t="s">
-        <v>399</v>
+        <v>374</v>
       </c>
       <c r="K27" s="4" t="s">
-        <v>400</v>
+        <v>375</v>
       </c>
     </row>
     <row r="28" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A28" s="4" t="s">
-        <v>401</v>
+      <c r="A28" s="3" t="s">
+        <v>673</v>
       </c>
       <c r="B28" s="4" t="s">
         <v>89</v>
@@ -5738,30 +5991,30 @@
         <v>22.111886999999999</v>
       </c>
       <c r="E28" s="4" t="s">
-        <v>402</v>
+        <v>376</v>
       </c>
       <c r="F28" s="4">
         <v>8</v>
       </c>
       <c r="G28" s="4" t="s">
-        <v>403</v>
+        <v>377</v>
       </c>
       <c r="H28" s="4" t="s">
-        <v>404</v>
+        <v>378</v>
       </c>
       <c r="I28" s="4">
         <v>3</v>
       </c>
       <c r="J28" s="4" t="s">
-        <v>405</v>
+        <v>379</v>
       </c>
       <c r="K28" s="4" t="s">
-        <v>406</v>
+        <v>380</v>
       </c>
     </row>
     <row r="29" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A29" s="4" t="s">
-        <v>407</v>
+      <c r="A29" s="3" t="s">
+        <v>674</v>
       </c>
       <c r="B29" s="4" t="s">
         <v>92</v>
@@ -5773,30 +6026,30 @@
         <v>23.423774999999999</v>
       </c>
       <c r="E29" s="4" t="s">
-        <v>408</v>
+        <v>381</v>
       </c>
       <c r="F29" s="4">
         <v>12</v>
       </c>
       <c r="G29" s="4" t="s">
-        <v>409</v>
+        <v>382</v>
       </c>
       <c r="H29" s="4" t="s">
-        <v>410</v>
+        <v>383</v>
       </c>
       <c r="I29" s="4">
         <v>3</v>
       </c>
       <c r="J29" s="4" t="s">
-        <v>411</v>
+        <v>384</v>
       </c>
       <c r="K29" s="4" t="s">
-        <v>412</v>
+        <v>385</v>
       </c>
     </row>
     <row r="30" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A30" s="4" t="s">
-        <v>413</v>
+      <c r="A30" s="3" t="s">
+        <v>675</v>
       </c>
       <c r="B30" s="4" t="s">
         <v>95</v>
@@ -5808,30 +6061,30 @@
         <v>25.526624000000002</v>
       </c>
       <c r="E30" s="4" t="s">
-        <v>414</v>
+        <v>386</v>
       </c>
       <c r="F30" s="4">
         <v>20</v>
       </c>
       <c r="G30" s="4" t="s">
-        <v>415</v>
+        <v>387</v>
       </c>
       <c r="H30" s="4" t="s">
-        <v>416</v>
+        <v>388</v>
       </c>
       <c r="I30" s="4">
         <v>5</v>
       </c>
       <c r="J30" s="4" t="s">
-        <v>417</v>
+        <v>389</v>
       </c>
       <c r="K30" s="4" t="s">
-        <v>418</v>
+        <v>390</v>
       </c>
     </row>
     <row r="31" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A31" s="4" t="s">
-        <v>419</v>
+      <c r="A31" s="3" t="s">
+        <v>676</v>
       </c>
       <c r="B31" s="4" t="s">
         <v>98</v>
@@ -5843,30 +6096,30 @@
         <v>23.960508999999998</v>
       </c>
       <c r="E31" s="4" t="s">
-        <v>420</v>
+        <v>391</v>
       </c>
       <c r="F31" s="4">
         <v>20</v>
       </c>
       <c r="G31" s="4" t="s">
-        <v>421</v>
+        <v>392</v>
       </c>
       <c r="H31" s="4" t="s">
-        <v>422</v>
+        <v>393</v>
       </c>
       <c r="I31" s="4">
         <v>2</v>
       </c>
       <c r="J31" s="4" t="s">
-        <v>423</v>
+        <v>394</v>
       </c>
       <c r="K31" s="4" t="s">
-        <v>424</v>
+        <v>395</v>
       </c>
     </row>
     <row r="32" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A32" s="4" t="s">
-        <v>425</v>
+      <c r="A32" s="3" t="s">
+        <v>677</v>
       </c>
       <c r="B32" s="4" t="s">
         <v>102</v>
@@ -5878,30 +6131,30 @@
         <v>23.582843</v>
       </c>
       <c r="E32" s="4" t="s">
-        <v>426</v>
+        <v>396</v>
       </c>
       <c r="F32" s="4">
         <v>27</v>
       </c>
       <c r="G32" s="4" t="s">
-        <v>427</v>
+        <v>397</v>
       </c>
       <c r="H32" s="4" t="s">
-        <v>428</v>
+        <v>398</v>
       </c>
       <c r="I32" s="4">
         <v>3</v>
       </c>
       <c r="J32" s="4" t="s">
-        <v>429</v>
+        <v>399</v>
       </c>
       <c r="K32" s="4" t="s">
-        <v>430</v>
+        <v>400</v>
       </c>
     </row>
     <row r="33" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A33" s="4" t="s">
-        <v>431</v>
+      <c r="A33" s="3" t="s">
+        <v>678</v>
       </c>
       <c r="B33" s="4" t="s">
         <v>105</v>
@@ -5913,30 +6166,30 @@
         <v>25.829878000000001</v>
       </c>
       <c r="E33" s="4" t="s">
-        <v>432</v>
+        <v>401</v>
       </c>
       <c r="F33" s="4">
         <v>8</v>
       </c>
       <c r="G33" s="4" t="s">
-        <v>433</v>
+        <v>402</v>
       </c>
       <c r="H33" s="4" t="s">
-        <v>434</v>
+        <v>403</v>
       </c>
       <c r="I33" s="4">
         <v>2</v>
       </c>
       <c r="J33" s="4" t="s">
-        <v>435</v>
+        <v>404</v>
       </c>
       <c r="K33" s="4" t="s">
-        <v>436</v>
+        <v>405</v>
       </c>
     </row>
     <row r="34" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A34" s="4" t="s">
-        <v>437</v>
+      <c r="A34" s="3" t="s">
+        <v>679</v>
       </c>
       <c r="B34" s="4" t="s">
         <v>108</v>
@@ -5948,30 +6201,30 @@
         <v>22.257062000000001</v>
       </c>
       <c r="E34" s="4" t="s">
-        <v>438</v>
+        <v>406</v>
       </c>
       <c r="F34" s="4">
         <v>23</v>
       </c>
       <c r="G34" s="4" t="s">
-        <v>439</v>
+        <v>407</v>
       </c>
       <c r="H34" s="4" t="s">
-        <v>440</v>
+        <v>408</v>
       </c>
       <c r="I34" s="4">
         <v>3</v>
       </c>
       <c r="J34" s="4" t="s">
-        <v>441</v>
+        <v>409</v>
       </c>
       <c r="K34" s="4" t="s">
-        <v>442</v>
+        <v>410</v>
       </c>
     </row>
     <row r="35" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A35" s="4" t="s">
-        <v>443</v>
+      <c r="A35" s="3" t="s">
+        <v>680</v>
       </c>
       <c r="B35" s="4" t="s">
         <v>111</v>
@@ -5983,30 +6236,30 @@
         <v>24.719757000000001</v>
       </c>
       <c r="E35" s="4" t="s">
-        <v>444</v>
+        <v>411</v>
       </c>
       <c r="F35" s="4">
         <v>22</v>
       </c>
       <c r="G35" s="4" t="s">
-        <v>445</v>
+        <v>412</v>
       </c>
       <c r="H35" s="4" t="s">
-        <v>446</v>
+        <v>413</v>
       </c>
       <c r="I35" s="4">
         <v>1</v>
       </c>
       <c r="J35" s="4" t="s">
-        <v>447</v>
+        <v>414</v>
       </c>
       <c r="K35" s="4" t="s">
-        <v>448</v>
+        <v>415</v>
       </c>
     </row>
     <row r="36" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A36" s="4" t="s">
-        <v>449</v>
+      <c r="A36" s="3" t="s">
+        <v>681</v>
       </c>
       <c r="B36" s="4" t="s">
         <v>114</v>
@@ -6018,30 +6271,30 @@
         <v>22.761310000000002</v>
       </c>
       <c r="E36" s="4" t="s">
-        <v>450</v>
+        <v>416</v>
       </c>
       <c r="F36" s="4">
         <v>14</v>
       </c>
       <c r="G36" s="4" t="s">
-        <v>451</v>
+        <v>417</v>
       </c>
       <c r="H36" s="4" t="s">
-        <v>452</v>
+        <v>418</v>
       </c>
       <c r="I36" s="4">
         <v>2</v>
       </c>
       <c r="J36" s="4" t="s">
-        <v>453</v>
+        <v>419</v>
       </c>
       <c r="K36" s="4" t="s">
-        <v>454</v>
+        <v>420</v>
       </c>
     </row>
     <row r="37" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A37" s="4" t="s">
-        <v>455</v>
+      <c r="A37" s="3" t="s">
+        <v>682</v>
       </c>
       <c r="B37" s="4" t="s">
         <v>117</v>
@@ -6053,30 +6306,30 @@
         <v>23.018201000000001</v>
       </c>
       <c r="E37" s="4" t="s">
-        <v>456</v>
+        <v>421</v>
       </c>
       <c r="F37" s="4">
         <v>8</v>
       </c>
       <c r="G37" s="4" t="s">
-        <v>457</v>
+        <v>422</v>
       </c>
       <c r="H37" s="4" t="s">
-        <v>458</v>
+        <v>423</v>
       </c>
       <c r="I37" s="4">
         <v>5</v>
       </c>
       <c r="J37" s="4" t="s">
-        <v>459</v>
+        <v>424</v>
       </c>
       <c r="K37" s="4" t="s">
-        <v>460</v>
+        <v>425</v>
       </c>
     </row>
     <row r="38" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A38" s="4" t="s">
-        <v>461</v>
+      <c r="A38" s="3" t="s">
+        <v>683</v>
       </c>
       <c r="B38" s="4" t="s">
         <v>120</v>
@@ -6088,30 +6341,30 @@
         <v>24.418077</v>
       </c>
       <c r="E38" s="4" t="s">
-        <v>462</v>
+        <v>426</v>
       </c>
       <c r="F38" s="4">
         <v>5</v>
       </c>
       <c r="G38" s="4" t="s">
-        <v>463</v>
+        <v>427</v>
       </c>
       <c r="H38" s="4" t="s">
-        <v>464</v>
+        <v>428</v>
       </c>
       <c r="I38" s="4">
         <v>7</v>
       </c>
       <c r="J38" s="4" t="s">
-        <v>465</v>
+        <v>429</v>
       </c>
       <c r="K38" s="4" t="s">
-        <v>466</v>
+        <v>430</v>
       </c>
     </row>
     <row r="39" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A39" s="4" t="s">
-        <v>467</v>
+      <c r="A39" s="3" t="s">
+        <v>684</v>
       </c>
       <c r="B39" s="4" t="s">
         <v>123</v>
@@ -6123,30 +6376,30 @@
         <v>22.321149999999999</v>
       </c>
       <c r="E39" s="4" t="s">
-        <v>468</v>
+        <v>431</v>
       </c>
       <c r="F39" s="4">
         <v>3</v>
       </c>
       <c r="G39" s="4" t="s">
-        <v>469</v>
+        <v>432</v>
       </c>
       <c r="H39" s="4" t="s">
-        <v>470</v>
+        <v>433</v>
       </c>
       <c r="I39" s="4">
         <v>5</v>
       </c>
       <c r="J39" s="4" t="s">
-        <v>471</v>
+        <v>434</v>
       </c>
       <c r="K39" s="4" t="s">
-        <v>472</v>
+        <v>435</v>
       </c>
     </row>
     <row r="40" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A40" s="4" t="s">
-        <v>473</v>
+      <c r="A40" s="3" t="s">
+        <v>685</v>
       </c>
       <c r="B40" s="4" t="s">
         <v>126</v>
@@ -6158,30 +6411,30 @@
         <v>24.688924</v>
       </c>
       <c r="E40" s="4" t="s">
-        <v>474</v>
+        <v>436</v>
       </c>
       <c r="F40" s="4">
         <v>16</v>
       </c>
       <c r="G40" s="4" t="s">
-        <v>475</v>
+        <v>437</v>
       </c>
       <c r="H40" s="4" t="s">
-        <v>476</v>
+        <v>438</v>
       </c>
       <c r="I40" s="4">
         <v>5</v>
       </c>
       <c r="J40" s="4" t="s">
-        <v>477</v>
+        <v>439</v>
       </c>
       <c r="K40" s="4" t="s">
-        <v>478</v>
+        <v>440</v>
       </c>
     </row>
     <row r="41" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A41" s="4" t="s">
-        <v>479</v>
+      <c r="A41" s="3" t="s">
+        <v>686</v>
       </c>
       <c r="B41" s="4" t="s">
         <v>129</v>
@@ -6193,30 +6446,30 @@
         <v>22.511351000000001</v>
       </c>
       <c r="E41" s="4" t="s">
-        <v>480</v>
+        <v>441</v>
       </c>
       <c r="F41" s="4">
         <v>6</v>
       </c>
       <c r="G41" s="4" t="s">
-        <v>481</v>
+        <v>442</v>
       </c>
       <c r="H41" s="4" t="s">
-        <v>482</v>
+        <v>443</v>
       </c>
       <c r="I41" s="4">
         <v>6</v>
       </c>
       <c r="J41" s="4" t="s">
-        <v>483</v>
+        <v>444</v>
       </c>
       <c r="K41" s="4" t="s">
-        <v>484</v>
+        <v>445</v>
       </c>
     </row>
     <row r="42" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A42" s="4" t="s">
-        <v>485</v>
+      <c r="A42" s="3" t="s">
+        <v>687</v>
       </c>
       <c r="B42" s="4" t="s">
         <v>132</v>
@@ -6228,30 +6481,30 @@
         <v>24.428816000000001</v>
       </c>
       <c r="E42" s="4" t="s">
-        <v>486</v>
+        <v>446</v>
       </c>
       <c r="F42" s="4">
         <v>4</v>
       </c>
       <c r="G42" s="4" t="s">
-        <v>487</v>
+        <v>447</v>
       </c>
       <c r="H42" s="4" t="s">
-        <v>488</v>
+        <v>448</v>
       </c>
       <c r="I42" s="4">
         <v>6</v>
       </c>
       <c r="J42" s="4" t="s">
-        <v>489</v>
+        <v>449</v>
       </c>
       <c r="K42" s="4" t="s">
-        <v>490</v>
+        <v>450</v>
       </c>
     </row>
     <row r="43" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A43" s="4" t="s">
-        <v>491</v>
+      <c r="A43" s="3" t="s">
+        <v>688</v>
       </c>
       <c r="B43" s="4" t="s">
         <v>135</v>
@@ -6263,30 +6516,30 @@
         <v>25.675630999999999</v>
       </c>
       <c r="E43" s="4" t="s">
-        <v>492</v>
+        <v>451</v>
       </c>
       <c r="F43" s="4">
         <v>24</v>
       </c>
       <c r="G43" s="4" t="s">
-        <v>493</v>
+        <v>452</v>
       </c>
       <c r="H43" s="4" t="s">
-        <v>494</v>
+        <v>453</v>
       </c>
       <c r="I43" s="4">
         <v>5</v>
       </c>
       <c r="J43" s="4" t="s">
-        <v>495</v>
+        <v>454</v>
       </c>
       <c r="K43" s="4" t="s">
-        <v>496</v>
+        <v>455</v>
       </c>
     </row>
     <row r="44" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A44" s="4" t="s">
-        <v>497</v>
+      <c r="A44" s="3" t="s">
+        <v>728</v>
       </c>
       <c r="B44" s="4" t="s">
         <v>139</v>
@@ -6298,30 +6551,30 @@
         <v>24.528406</v>
       </c>
       <c r="E44" s="4" t="s">
-        <v>498</v>
+        <v>456</v>
       </c>
       <c r="F44" s="4">
         <v>5</v>
       </c>
       <c r="G44" s="4" t="s">
-        <v>499</v>
+        <v>457</v>
       </c>
       <c r="H44" s="4" t="s">
-        <v>500</v>
+        <v>458</v>
       </c>
       <c r="I44" s="4">
         <v>3</v>
       </c>
       <c r="J44" s="4" t="s">
-        <v>501</v>
+        <v>459</v>
       </c>
       <c r="K44" s="4" t="s">
-        <v>502</v>
+        <v>460</v>
       </c>
     </row>
     <row r="45" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A45" s="4" t="s">
-        <v>503</v>
+      <c r="A45" s="3" t="s">
+        <v>689</v>
       </c>
       <c r="B45" s="4" t="s">
         <v>142</v>
@@ -6333,30 +6586,30 @@
         <v>24.851911999999999</v>
       </c>
       <c r="E45" s="4" t="s">
-        <v>504</v>
+        <v>461</v>
       </c>
       <c r="F45" s="4">
         <v>3</v>
       </c>
       <c r="G45" s="4" t="s">
-        <v>505</v>
+        <v>462</v>
       </c>
       <c r="H45" s="4" t="s">
-        <v>506</v>
+        <v>463</v>
       </c>
       <c r="I45" s="4">
         <v>4</v>
       </c>
       <c r="J45" s="4" t="s">
-        <v>507</v>
+        <v>464</v>
       </c>
       <c r="K45" s="4" t="s">
-        <v>508</v>
+        <v>465</v>
       </c>
     </row>
     <row r="46" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A46" s="4" t="s">
-        <v>509</v>
+      <c r="A46" s="3" t="s">
+        <v>690</v>
       </c>
       <c r="B46" s="4" t="s">
         <v>145</v>
@@ -6368,30 +6621,30 @@
         <v>22.121072000000002</v>
       </c>
       <c r="E46" s="4" t="s">
-        <v>510</v>
+        <v>466</v>
       </c>
       <c r="F46" s="4">
         <v>14</v>
       </c>
       <c r="G46" s="4" t="s">
-        <v>511</v>
+        <v>467</v>
       </c>
       <c r="H46" s="4" t="s">
-        <v>512</v>
+        <v>468</v>
       </c>
       <c r="I46" s="4">
         <v>1</v>
       </c>
       <c r="J46" s="4" t="s">
-        <v>513</v>
+        <v>469</v>
       </c>
       <c r="K46" s="4" t="s">
-        <v>514</v>
+        <v>470</v>
       </c>
     </row>
     <row r="47" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A47" s="4" t="s">
-        <v>497</v>
+      <c r="A47" s="3" t="s">
+        <v>729</v>
       </c>
       <c r="B47" s="4" t="s">
         <v>147</v>
@@ -6403,30 +6656,30 @@
         <v>23.344951999999999</v>
       </c>
       <c r="E47" s="4" t="s">
-        <v>515</v>
+        <v>471</v>
       </c>
       <c r="F47" s="4">
         <v>30</v>
       </c>
       <c r="G47" s="4" t="s">
-        <v>516</v>
+        <v>472</v>
       </c>
       <c r="H47" s="4" t="s">
-        <v>517</v>
+        <v>473</v>
       </c>
       <c r="I47" s="4">
         <v>6</v>
       </c>
       <c r="J47" s="4" t="s">
-        <v>518</v>
+        <v>474</v>
       </c>
       <c r="K47" s="4" t="s">
-        <v>519</v>
+        <v>475</v>
       </c>
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A48" s="4" t="s">
-        <v>520</v>
+      <c r="A48" s="3" t="s">
+        <v>724</v>
       </c>
       <c r="B48" s="4" t="s">
         <v>150</v>
@@ -6438,30 +6691,30 @@
         <v>25.561463</v>
       </c>
       <c r="E48" s="4" t="s">
-        <v>521</v>
+        <v>476</v>
       </c>
       <c r="F48" s="4">
         <v>16</v>
       </c>
       <c r="G48" s="4" t="s">
-        <v>522</v>
+        <v>477</v>
       </c>
       <c r="H48" s="4" t="s">
-        <v>523</v>
+        <v>478</v>
       </c>
       <c r="I48" s="4">
         <v>1</v>
       </c>
       <c r="J48" s="4" t="s">
-        <v>524</v>
+        <v>479</v>
       </c>
       <c r="K48" s="4" t="s">
-        <v>525</v>
+        <v>480</v>
       </c>
     </row>
     <row r="49" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A49" s="4" t="s">
-        <v>526</v>
+      <c r="A49" s="3" t="s">
+        <v>691</v>
       </c>
       <c r="B49" s="4" t="s">
         <v>153</v>
@@ -6473,30 +6726,30 @@
         <v>22.525193999999999</v>
       </c>
       <c r="E49" s="4" t="s">
-        <v>527</v>
+        <v>481</v>
       </c>
       <c r="F49" s="4">
         <v>28</v>
       </c>
       <c r="G49" s="4" t="s">
-        <v>528</v>
+        <v>482</v>
       </c>
       <c r="H49" s="4" t="s">
-        <v>529</v>
+        <v>483</v>
       </c>
       <c r="I49" s="4">
         <v>7</v>
       </c>
       <c r="J49" s="4" t="s">
-        <v>530</v>
+        <v>484</v>
       </c>
       <c r="K49" s="4" t="s">
-        <v>531</v>
+        <v>485</v>
       </c>
     </row>
     <row r="50" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A50" s="4" t="s">
-        <v>532</v>
+      <c r="A50" s="3" t="s">
+        <v>692</v>
       </c>
       <c r="B50" s="4" t="s">
         <v>156</v>
@@ -6508,33 +6761,33 @@
         <v>24.377966000000001</v>
       </c>
       <c r="E50" s="4" t="s">
-        <v>533</v>
+        <v>486</v>
       </c>
       <c r="F50" s="4">
         <v>29</v>
       </c>
       <c r="G50" s="4" t="s">
-        <v>534</v>
+        <v>487</v>
       </c>
       <c r="H50" s="4" t="s">
-        <v>535</v>
+        <v>488</v>
       </c>
       <c r="I50" s="4">
         <v>3</v>
       </c>
       <c r="J50" s="4" t="s">
-        <v>536</v>
+        <v>489</v>
       </c>
       <c r="K50" s="4" t="s">
-        <v>537</v>
+        <v>490</v>
       </c>
     </row>
     <row r="51" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A51" s="4" t="s">
-        <v>538</v>
+      <c r="A51" s="3" t="s">
+        <v>693</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>539</v>
+        <v>491</v>
       </c>
       <c r="C51" s="4">
         <v>89.788086000000007</v>
@@ -6543,30 +6796,30 @@
         <v>24.074493</v>
       </c>
       <c r="E51" s="4" t="s">
-        <v>540</v>
+        <v>492</v>
       </c>
       <c r="F51" s="4">
         <v>3</v>
       </c>
       <c r="G51" s="4" t="s">
-        <v>541</v>
+        <v>493</v>
       </c>
       <c r="H51" s="4" t="s">
-        <v>542</v>
+        <v>494</v>
       </c>
       <c r="I51" s="4">
         <v>7</v>
       </c>
       <c r="J51" s="4" t="s">
-        <v>543</v>
+        <v>495</v>
       </c>
       <c r="K51" s="4" t="s">
-        <v>544</v>
+        <v>496</v>
       </c>
     </row>
     <row r="52" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A52" s="4" t="s">
-        <v>545</v>
+      <c r="A52" s="3" t="s">
+        <v>694</v>
       </c>
       <c r="B52" s="4" t="s">
         <v>162</v>
@@ -6578,30 +6831,30 @@
         <v>24.554711000000001</v>
       </c>
       <c r="E52" s="4" t="s">
-        <v>546</v>
+        <v>497</v>
       </c>
       <c r="F52" s="4">
         <v>12</v>
       </c>
       <c r="G52" s="4" t="s">
-        <v>547</v>
+        <v>498</v>
       </c>
       <c r="H52" s="4" t="s">
-        <v>548</v>
+        <v>499</v>
       </c>
       <c r="I52" s="4">
         <v>2</v>
       </c>
       <c r="J52" s="4" t="s">
-        <v>549</v>
+        <v>500</v>
       </c>
       <c r="K52" s="4" t="s">
-        <v>550</v>
+        <v>501</v>
       </c>
     </row>
     <row r="53" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A53" s="4" t="s">
-        <v>551</v>
+      <c r="A53" s="3" t="s">
+        <v>695</v>
       </c>
       <c r="B53" s="4" t="s">
         <v>166</v>
@@ -6613,30 +6866,30 @@
         <v>22.062348</v>
       </c>
       <c r="E53" s="4" t="s">
-        <v>552</v>
+        <v>502</v>
       </c>
       <c r="F53" s="4">
         <v>21</v>
       </c>
       <c r="G53" s="4" t="s">
-        <v>553</v>
+        <v>503</v>
       </c>
       <c r="H53" s="4" t="s">
-        <v>554</v>
+        <v>504</v>
       </c>
       <c r="I53" s="4">
         <v>3</v>
       </c>
       <c r="J53" s="4" t="s">
-        <v>555</v>
+        <v>505</v>
       </c>
       <c r="K53" s="4" t="s">
-        <v>556</v>
+        <v>506</v>
       </c>
     </row>
     <row r="54" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A54" s="4" t="s">
-        <v>557</v>
+      <c r="A54" s="3" t="s">
+        <v>696</v>
       </c>
       <c r="B54" s="4" t="s">
         <v>169</v>
@@ -6648,30 +6901,30 @@
         <v>22.753063999999998</v>
       </c>
       <c r="E54" s="4" t="s">
-        <v>558</v>
+        <v>507</v>
       </c>
       <c r="F54" s="4">
         <v>10</v>
       </c>
       <c r="G54" s="4" t="s">
-        <v>559</v>
+        <v>508</v>
       </c>
       <c r="H54" s="4" t="s">
-        <v>560</v>
+        <v>509</v>
       </c>
       <c r="I54" s="4">
         <v>2</v>
       </c>
       <c r="J54" s="4" t="s">
-        <v>561</v>
+        <v>510</v>
       </c>
       <c r="K54" s="4" t="s">
-        <v>562</v>
+        <v>511</v>
       </c>
     </row>
     <row r="55" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A55" s="4" t="s">
-        <v>563</v>
+      <c r="A55" s="3" t="s">
+        <v>697</v>
       </c>
       <c r="B55" s="4" t="s">
         <v>172</v>
@@ -6683,30 +6936,30 @@
         <v>23.446793</v>
       </c>
       <c r="E55" s="4" t="s">
-        <v>564</v>
+        <v>512</v>
       </c>
       <c r="F55" s="4">
         <v>28</v>
       </c>
       <c r="G55" s="4" t="s">
-        <v>565</v>
+        <v>513</v>
       </c>
       <c r="H55" s="4" t="s">
-        <v>566</v>
+        <v>514</v>
       </c>
       <c r="I55" s="4">
         <v>1</v>
       </c>
       <c r="J55" s="4" t="s">
-        <v>567</v>
+        <v>515</v>
       </c>
       <c r="K55" s="4" t="s">
-        <v>568</v>
+        <v>516</v>
       </c>
     </row>
     <row r="56" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A56" s="4" t="s">
-        <v>569</v>
+      <c r="A56" s="3" t="s">
+        <v>698</v>
       </c>
       <c r="B56" s="4" t="s">
         <v>175</v>
@@ -6718,30 +6971,30 @@
         <v>22.768405999999999</v>
       </c>
       <c r="E56" s="4" t="s">
-        <v>570</v>
+        <v>517</v>
       </c>
       <c r="F56" s="4">
         <v>19</v>
       </c>
       <c r="G56" s="4" t="s">
-        <v>571</v>
+        <v>518</v>
       </c>
       <c r="H56" s="4" t="s">
-        <v>572</v>
+        <v>519</v>
       </c>
       <c r="I56" s="4">
         <v>5</v>
       </c>
       <c r="J56" s="4" t="s">
-        <v>573</v>
+        <v>520</v>
       </c>
       <c r="K56" s="4" t="s">
-        <v>574</v>
+        <v>521</v>
       </c>
     </row>
     <row r="57" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A57" s="4" t="s">
-        <v>575</v>
+      <c r="A57" s="3" t="s">
+        <v>699</v>
       </c>
       <c r="B57" s="4" t="s">
         <v>178</v>
@@ -6753,30 +7006,30 @@
         <v>25.519822000000001</v>
       </c>
       <c r="E57" s="4" t="s">
-        <v>576</v>
+        <v>522</v>
       </c>
       <c r="F57" s="4">
         <v>16</v>
       </c>
       <c r="G57" s="4" t="s">
-        <v>577</v>
+        <v>523</v>
       </c>
       <c r="H57" s="4" t="s">
-        <v>578</v>
+        <v>524</v>
       </c>
       <c r="I57" s="4">
         <v>2</v>
       </c>
       <c r="J57" s="4" t="s">
-        <v>579</v>
+        <v>525</v>
       </c>
       <c r="K57" s="4" t="s">
-        <v>580</v>
+        <v>526</v>
       </c>
     </row>
     <row r="58" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A58" s="4" t="s">
-        <v>581</v>
+      <c r="A58" s="3" t="s">
+        <v>700</v>
       </c>
       <c r="B58" s="4" t="s">
         <v>181</v>
@@ -6788,30 +7041,30 @@
         <v>25.986363000000001</v>
       </c>
       <c r="E58" s="4" t="s">
-        <v>582</v>
+        <v>527</v>
       </c>
       <c r="F58" s="4">
         <v>10</v>
       </c>
       <c r="G58" s="4" t="s">
-        <v>583</v>
+        <v>528</v>
       </c>
       <c r="H58" s="4" t="s">
-        <v>584</v>
+        <v>529</v>
       </c>
       <c r="I58" s="4">
         <v>6</v>
       </c>
       <c r="J58" s="4" t="s">
-        <v>585</v>
+        <v>530</v>
       </c>
       <c r="K58" s="4" t="s">
-        <v>586</v>
+        <v>531</v>
       </c>
     </row>
     <row r="59" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A59" s="4" t="s">
-        <v>587</v>
+      <c r="A59" s="3" t="s">
+        <v>701</v>
       </c>
       <c r="B59" s="4" t="s">
         <v>184</v>
@@ -6823,30 +7076,30 @@
         <v>23.869229000000001</v>
       </c>
       <c r="E59" s="4" t="s">
-        <v>588</v>
+        <v>532</v>
       </c>
       <c r="F59" s="4">
         <v>10</v>
       </c>
       <c r="G59" s="4" t="s">
-        <v>589</v>
+        <v>533</v>
       </c>
       <c r="H59" s="4" t="s">
-        <v>590</v>
+        <v>534</v>
       </c>
       <c r="I59" s="4">
         <v>6</v>
       </c>
       <c r="J59" s="4" t="s">
-        <v>591</v>
+        <v>535</v>
       </c>
       <c r="K59" s="4" t="s">
-        <v>592</v>
+        <v>536</v>
       </c>
     </row>
     <row r="60" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A60" s="4" t="s">
-        <v>593</v>
+      <c r="A60" s="3" t="s">
+        <v>702</v>
       </c>
       <c r="B60" s="4" t="s">
         <v>187</v>
@@ -6858,30 +7111,30 @@
         <v>24.886773000000002</v>
       </c>
       <c r="E60" s="4" t="s">
-        <v>594</v>
+        <v>537</v>
       </c>
       <c r="F60" s="4">
         <v>10</v>
       </c>
       <c r="G60" s="4" t="s">
-        <v>595</v>
+        <v>538</v>
       </c>
       <c r="H60" s="4" t="s">
-        <v>596</v>
+        <v>539</v>
       </c>
       <c r="I60" s="4">
         <v>5</v>
       </c>
       <c r="J60" s="4" t="s">
-        <v>597</v>
+        <v>540</v>
       </c>
       <c r="K60" s="4" t="s">
-        <v>598</v>
+        <v>541</v>
       </c>
     </row>
     <row r="61" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A61" s="4" t="s">
-        <v>599</v>
+      <c r="A61" s="3" t="s">
+        <v>725</v>
       </c>
       <c r="B61" s="4" t="s">
         <v>191</v>
@@ -6893,30 +7146,30 @@
         <v>25.999891000000002</v>
       </c>
       <c r="E61" s="4" t="s">
-        <v>600</v>
+        <v>542</v>
       </c>
       <c r="F61" s="4">
         <v>17</v>
       </c>
       <c r="G61" s="4" t="s">
-        <v>601</v>
+        <v>543</v>
       </c>
       <c r="H61" s="4" t="s">
-        <v>602</v>
+        <v>544</v>
       </c>
       <c r="I61" s="4">
         <v>3</v>
       </c>
       <c r="J61" s="4" t="s">
-        <v>603</v>
+        <v>545</v>
       </c>
       <c r="K61" s="4" t="s">
-        <v>604</v>
+        <v>546</v>
       </c>
     </row>
     <row r="62" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A62" s="4" t="s">
-        <v>605</v>
+      <c r="A62" s="3" t="s">
+        <v>703</v>
       </c>
       <c r="B62" s="4" t="s">
         <v>194</v>
@@ -6928,30 +7181,30 @@
         <v>25.151520999999999</v>
       </c>
       <c r="E62" s="4" t="s">
-        <v>606</v>
+        <v>547</v>
       </c>
       <c r="F62" s="4">
         <v>12</v>
       </c>
       <c r="G62" s="4" t="s">
-        <v>607</v>
+        <v>548</v>
       </c>
       <c r="H62" s="4" t="s">
-        <v>608</v>
+        <v>549</v>
       </c>
       <c r="I62" s="4">
         <v>5</v>
       </c>
       <c r="J62" s="4" t="s">
-        <v>609</v>
+        <v>550</v>
       </c>
       <c r="K62" s="4" t="s">
-        <v>610</v>
+        <v>551</v>
       </c>
     </row>
     <row r="63" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A63" s="4" t="s">
-        <v>611</v>
+      <c r="A63" s="3" t="s">
+        <v>704</v>
       </c>
       <c r="B63" s="4" t="s">
         <v>197</v>
@@ -6963,30 +7216,30 @@
         <v>23.211817</v>
       </c>
       <c r="E63" s="4" t="s">
-        <v>612</v>
+        <v>552</v>
       </c>
       <c r="F63" s="4">
         <v>24</v>
       </c>
       <c r="G63" s="4" t="s">
-        <v>613</v>
+        <v>553</v>
       </c>
       <c r="H63" s="4" t="s">
-        <v>614</v>
+        <v>554</v>
       </c>
       <c r="I63" s="4">
         <v>7</v>
       </c>
       <c r="J63" s="4" t="s">
-        <v>615</v>
+        <v>555</v>
       </c>
       <c r="K63" s="4" t="s">
-        <v>616</v>
+        <v>556</v>
       </c>
     </row>
     <row r="64" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A64" s="4" t="s">
-        <v>617</v>
+      <c r="A64" s="3" t="s">
+        <v>705</v>
       </c>
       <c r="B64" s="4" t="s">
         <v>200</v>
@@ -6998,30 +7251,30 @@
         <v>25.955545000000001</v>
       </c>
       <c r="E64" s="4" t="s">
-        <v>618</v>
+        <v>557</v>
       </c>
       <c r="F64" s="4">
         <v>29</v>
       </c>
       <c r="G64" s="4" t="s">
-        <v>619</v>
+        <v>558</v>
       </c>
       <c r="H64" s="4" t="s">
-        <v>620</v>
+        <v>559</v>
       </c>
       <c r="I64" s="4">
         <v>3</v>
       </c>
       <c r="J64" s="4" t="s">
-        <v>621</v>
+        <v>560</v>
       </c>
       <c r="K64" s="4" t="s">
-        <v>622</v>
+        <v>561</v>
       </c>
     </row>
     <row r="65" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A65" s="4" t="s">
-        <v>623</v>
+      <c r="A65" s="3" t="s">
+        <v>726</v>
       </c>
       <c r="B65" s="4" t="s">
         <v>203</v>
@@ -7033,30 +7286,30 @@
         <v>22.488522</v>
       </c>
       <c r="E65" s="4" t="s">
-        <v>624</v>
+        <v>562</v>
       </c>
       <c r="F65" s="4">
         <v>8</v>
       </c>
       <c r="G65" s="4" t="s">
-        <v>625</v>
+        <v>563</v>
       </c>
       <c r="H65" s="4" t="s">
-        <v>626</v>
+        <v>564</v>
       </c>
       <c r="I65" s="4">
         <v>6</v>
       </c>
       <c r="J65" s="4" t="s">
-        <v>627</v>
+        <v>565</v>
       </c>
       <c r="K65" s="4" t="s">
-        <v>628</v>
+        <v>566</v>
       </c>
     </row>
     <row r="66" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A66" s="4" t="s">
-        <v>629</v>
+      <c r="A66" s="3" t="s">
+        <v>706</v>
       </c>
       <c r="B66" s="4" t="s">
         <v>206</v>
@@ -7068,30 +7321,30 @@
         <v>24.625447999999999</v>
       </c>
       <c r="E66" s="4" t="s">
-        <v>630</v>
+        <v>567</v>
       </c>
       <c r="F66" s="4">
         <v>14</v>
       </c>
       <c r="G66" s="4" t="s">
-        <v>631</v>
+        <v>568</v>
       </c>
       <c r="H66" s="4" t="s">
-        <v>632</v>
+        <v>569</v>
       </c>
       <c r="I66" s="4">
         <v>1</v>
       </c>
       <c r="J66" s="4" t="s">
-        <v>633</v>
+        <v>570</v>
       </c>
       <c r="K66" s="4" t="s">
-        <v>634</v>
+        <v>571</v>
       </c>
     </row>
     <row r="67" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A67" s="4" t="s">
-        <v>635</v>
+      <c r="A67" s="3" t="s">
+        <v>707</v>
       </c>
       <c r="B67" s="4" t="s">
         <v>210</v>
@@ -7103,30 +7356,30 @@
         <v>23.824867999999999</v>
       </c>
       <c r="E67" s="4" t="s">
-        <v>636</v>
+        <v>572</v>
       </c>
       <c r="F67" s="4">
         <v>15</v>
       </c>
       <c r="G67" s="4" t="s">
-        <v>637</v>
+        <v>573</v>
       </c>
       <c r="H67" s="4" t="s">
-        <v>638</v>
+        <v>574</v>
       </c>
       <c r="I67" s="4">
         <v>3</v>
       </c>
       <c r="J67" s="4" t="s">
-        <v>639</v>
+        <v>575</v>
       </c>
       <c r="K67" s="4" t="s">
-        <v>640</v>
+        <v>576</v>
       </c>
     </row>
     <row r="68" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A68" s="4" t="s">
-        <v>641</v>
+      <c r="A68" s="3" t="s">
+        <v>708</v>
       </c>
       <c r="B68" s="4" t="s">
         <v>213</v>
@@ -7138,30 +7391,30 @@
         <v>24.889306999999999</v>
       </c>
       <c r="E68" s="4" t="s">
-        <v>642</v>
+        <v>577</v>
       </c>
       <c r="F68" s="4">
         <v>15</v>
       </c>
       <c r="G68" s="4" t="s">
-        <v>643</v>
+        <v>578</v>
       </c>
       <c r="H68" s="4" t="s">
-        <v>644</v>
+        <v>579</v>
       </c>
       <c r="I68" s="4">
         <v>4</v>
       </c>
       <c r="J68" s="4" t="s">
-        <v>645</v>
+        <v>580</v>
       </c>
       <c r="K68" s="4" t="s">
-        <v>646</v>
+        <v>581</v>
       </c>
     </row>
     <row r="69" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A69" s="4" t="s">
-        <v>647</v>
+      <c r="A69" s="3" t="s">
+        <v>709</v>
       </c>
       <c r="B69" s="4" t="s">
         <v>216</v>
@@ -7173,30 +7426,30 @@
         <v>25.727323999999999</v>
       </c>
       <c r="E69" s="4" t="s">
-        <v>648</v>
+        <v>582</v>
       </c>
       <c r="F69" s="4">
         <v>11</v>
       </c>
       <c r="G69" s="4" t="s">
-        <v>649</v>
+        <v>583</v>
       </c>
       <c r="H69" s="4" t="s">
-        <v>650</v>
+        <v>584</v>
       </c>
       <c r="I69" s="4">
         <v>4</v>
       </c>
       <c r="J69" s="4" t="s">
-        <v>651</v>
+        <v>585</v>
       </c>
       <c r="K69" s="4" t="s">
-        <v>652</v>
+        <v>586</v>
       </c>
     </row>
     <row r="70" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A70" s="4" t="s">
-        <v>653</v>
+      <c r="A70" s="3" t="s">
+        <v>710</v>
       </c>
       <c r="B70" s="4" t="s">
         <v>219</v>
@@ -7208,30 +7461,30 @@
         <v>24.103784000000001</v>
       </c>
       <c r="E70" s="4" t="s">
-        <v>654</v>
+        <v>587</v>
       </c>
       <c r="F70" s="4">
         <v>7</v>
       </c>
       <c r="G70" s="4" t="s">
-        <v>655</v>
+        <v>588</v>
       </c>
       <c r="H70" s="4" t="s">
-        <v>656</v>
+        <v>589</v>
       </c>
       <c r="I70" s="4">
         <v>3</v>
       </c>
       <c r="J70" s="4" t="s">
-        <v>657</v>
+        <v>590</v>
       </c>
       <c r="K70" s="4" t="s">
-        <v>658</v>
+        <v>591</v>
       </c>
     </row>
     <row r="71" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A71" s="4" t="s">
-        <v>659</v>
+      <c r="A71" s="3" t="s">
+        <v>711</v>
       </c>
       <c r="B71" s="4" t="s">
         <v>222</v>
@@ -7243,30 +7496,30 @@
         <v>22.357558999999998</v>
       </c>
       <c r="E71" s="4" t="s">
-        <v>660</v>
+        <v>592</v>
       </c>
       <c r="F71" s="4">
         <v>20</v>
       </c>
       <c r="G71" s="4" t="s">
-        <v>661</v>
+        <v>593</v>
       </c>
       <c r="H71" s="4" t="s">
-        <v>662</v>
+        <v>594</v>
       </c>
       <c r="I71" s="4">
         <v>6</v>
       </c>
       <c r="J71" s="4" t="s">
-        <v>663</v>
+        <v>595</v>
       </c>
       <c r="K71" s="4" t="s">
-        <v>664</v>
+        <v>596</v>
       </c>
     </row>
     <row r="72" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A72" s="4" t="s">
-        <v>665</v>
+      <c r="A72" s="3" t="s">
+        <v>712</v>
       </c>
       <c r="B72" s="4" t="s">
         <v>225</v>
@@ -7278,33 +7531,33 @@
         <v>24.998182</v>
       </c>
       <c r="E72" s="4" t="s">
-        <v>666</v>
+        <v>597</v>
       </c>
       <c r="F72" s="4">
         <v>12</v>
       </c>
       <c r="G72" s="4" t="s">
-        <v>667</v>
+        <v>598</v>
       </c>
       <c r="H72" s="4" t="s">
-        <v>668</v>
+        <v>599</v>
       </c>
       <c r="I72" s="4">
         <v>3</v>
       </c>
       <c r="J72" s="4" t="s">
-        <v>669</v>
+        <v>600</v>
       </c>
       <c r="K72" s="4" t="s">
-        <v>670</v>
+        <v>601</v>
       </c>
     </row>
     <row r="73" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A73" s="4" t="s">
-        <v>671</v>
+      <c r="A73" s="3" t="s">
+        <v>713</v>
       </c>
       <c r="B73" s="4" t="s">
-        <v>672</v>
+        <v>602</v>
       </c>
       <c r="C73" s="4">
         <v>88.844815999999994</v>
@@ -7313,30 +7566,30 @@
         <v>25.354240999999998</v>
       </c>
       <c r="E73" s="4" t="s">
-        <v>673</v>
+        <v>603</v>
       </c>
       <c r="F73" s="4">
         <v>2</v>
       </c>
       <c r="G73" s="4" t="s">
-        <v>674</v>
+        <v>604</v>
       </c>
       <c r="H73" s="4" t="s">
-        <v>675</v>
+        <v>605</v>
       </c>
       <c r="I73" s="4">
         <v>6</v>
       </c>
       <c r="J73" s="4" t="s">
-        <v>676</v>
+        <v>606</v>
       </c>
       <c r="K73" s="4" t="s">
-        <v>677</v>
+        <v>607</v>
       </c>
     </row>
     <row r="74" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A74" s="4" t="s">
-        <v>678</v>
+      <c r="A74" s="3" t="s">
+        <v>714</v>
       </c>
       <c r="B74" s="4" t="s">
         <v>231</v>
@@ -7348,30 +7601,30 @@
         <v>23.108578000000001</v>
       </c>
       <c r="E74" s="4" t="s">
-        <v>679</v>
+        <v>608</v>
       </c>
       <c r="F74" s="4">
         <v>4</v>
       </c>
       <c r="G74" s="4" t="s">
-        <v>680</v>
+        <v>609</v>
       </c>
       <c r="H74" s="4" t="s">
-        <v>681</v>
+        <v>610</v>
       </c>
       <c r="I74" s="4">
         <v>3</v>
       </c>
       <c r="J74" s="4" t="s">
-        <v>682</v>
+        <v>611</v>
       </c>
       <c r="K74" s="4" t="s">
-        <v>683</v>
+        <v>612</v>
       </c>
     </row>
     <row r="75" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A75" s="4" t="s">
-        <v>684</v>
+      <c r="A75" s="3" t="s">
+        <v>715</v>
       </c>
       <c r="B75" s="4" t="s">
         <v>234</v>
@@ -7383,30 +7636,30 @@
         <v>24.577143</v>
       </c>
       <c r="E75" s="4" t="s">
-        <v>685</v>
+        <v>613</v>
       </c>
       <c r="F75" s="4">
         <v>13</v>
       </c>
       <c r="G75" s="4" t="s">
-        <v>686</v>
+        <v>614</v>
       </c>
       <c r="H75" s="4" t="s">
-        <v>687</v>
+        <v>615</v>
       </c>
       <c r="I75" s="4">
         <v>5</v>
       </c>
       <c r="J75" s="4" t="s">
-        <v>688</v>
+        <v>616</v>
       </c>
       <c r="K75" s="4" t="s">
-        <v>689</v>
+        <v>617</v>
       </c>
     </row>
     <row r="76" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A76" s="4" t="s">
-        <v>690</v>
+      <c r="A76" s="3" t="s">
+        <v>716</v>
       </c>
       <c r="B76" s="4" t="s">
         <v>237</v>
@@ -7418,30 +7671,30 @@
         <v>22.964988999999999</v>
       </c>
       <c r="E76" s="4" t="s">
-        <v>691</v>
+        <v>618</v>
       </c>
       <c r="F76" s="4">
         <v>17</v>
       </c>
       <c r="G76" s="4" t="s">
-        <v>692</v>
+        <v>619</v>
       </c>
       <c r="H76" s="4" t="s">
-        <v>693</v>
+        <v>620</v>
       </c>
       <c r="I76" s="4">
         <v>3</v>
       </c>
       <c r="J76" s="4" t="s">
-        <v>694</v>
+        <v>621</v>
       </c>
       <c r="K76" s="4" t="s">
-        <v>695</v>
+        <v>622</v>
       </c>
     </row>
     <row r="77" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A77" s="4" t="s">
-        <v>696</v>
+      <c r="A77" s="3" t="s">
+        <v>717</v>
       </c>
       <c r="B77" s="4" t="s">
         <v>240</v>
@@ -7453,30 +7706,30 @@
         <v>25.392484</v>
       </c>
       <c r="E77" s="4" t="s">
-        <v>697</v>
+        <v>623</v>
       </c>
       <c r="F77" s="4">
         <v>13</v>
       </c>
       <c r="G77" s="4" t="s">
-        <v>698</v>
+        <v>624</v>
       </c>
       <c r="H77" s="4" t="s">
-        <v>699</v>
+        <v>625</v>
       </c>
       <c r="I77" s="4">
         <v>6</v>
       </c>
       <c r="J77" s="4" t="s">
-        <v>700</v>
+        <v>626</v>
       </c>
       <c r="K77" s="4" t="s">
-        <v>701</v>
+        <v>627</v>
       </c>
     </row>
     <row r="78" spans="1:11" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="A78" s="4" t="s">
-        <v>702</v>
+      <c r="A78" s="3" t="s">
+        <v>718</v>
       </c>
       <c r="B78" s="4" t="s">
         <v>243</v>
@@ -7488,30 +7741,30 @@
         <v>24.710630999999999</v>
       </c>
       <c r="E78" s="4" t="s">
-        <v>703</v>
+        <v>628</v>
       </c>
       <c r="F78" s="4">
         <v>7</v>
       </c>
       <c r="G78" s="4" t="s">
-        <v>704</v>
+        <v>629</v>
       </c>
       <c r="H78" s="4" t="s">
-        <v>705</v>
+        <v>630</v>
       </c>
       <c r="I78" s="4">
         <v>2</v>
       </c>
       <c r="J78" s="4" t="s">
-        <v>706</v>
+        <v>631</v>
       </c>
       <c r="K78" s="4" t="s">
-        <v>707</v>
+        <v>632</v>
       </c>
     </row>
     <row r="79" spans="1:11" ht="72" x14ac:dyDescent="0.3">
-      <c r="A79" s="4" t="s">
-        <v>708</v>
+      <c r="A79" s="3" t="s">
+        <v>719</v>
       </c>
       <c r="B79" s="4" t="s">
         <v>246</v>
@@ -7523,33 +7776,33 @@
         <v>22.413647999999998</v>
       </c>
       <c r="E79" s="4" t="s">
-        <v>709</v>
+        <v>633</v>
       </c>
       <c r="F79" s="4">
         <v>11</v>
       </c>
       <c r="G79" s="4" t="s">
-        <v>710</v>
+        <v>634</v>
       </c>
       <c r="H79" s="4" t="s">
-        <v>711</v>
+        <v>635</v>
       </c>
       <c r="I79" s="4">
         <v>5</v>
       </c>
       <c r="J79" s="4" t="s">
-        <v>712</v>
+        <v>636</v>
       </c>
       <c r="K79" s="4" t="s">
-        <v>713</v>
+        <v>637</v>
       </c>
     </row>
     <row r="80" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A80" s="4" t="s">
-        <v>714</v>
+      <c r="A80" s="3" t="s">
+        <v>720</v>
       </c>
       <c r="B80" s="4" t="s">
-        <v>715</v>
+        <v>638</v>
       </c>
       <c r="C80" s="4">
         <v>89.411145000000005</v>
@@ -7558,29 +7811,29 @@
         <v>23.943750000000001</v>
       </c>
       <c r="E80" s="4" t="s">
-        <v>716</v>
+        <v>639</v>
       </c>
       <c r="F80" s="4">
         <v>28</v>
       </c>
       <c r="G80" s="4" t="s">
-        <v>717</v>
+        <v>640</v>
       </c>
       <c r="H80" s="4" t="s">
-        <v>718</v>
+        <v>641</v>
       </c>
       <c r="I80" s="4">
         <v>4</v>
       </c>
       <c r="J80" s="4" t="s">
-        <v>719</v>
+        <v>642</v>
       </c>
       <c r="K80" s="4" t="s">
-        <v>720</v>
+        <v>643</v>
       </c>
     </row>
     <row r="81" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A81" s="4" t="s">
+      <c r="A81" s="3" t="s">
         <v>721</v>
       </c>
       <c r="B81" s="4" t="s">
@@ -7593,25 +7846,25 @@
         <v>25.164131999999999</v>
       </c>
       <c r="E81" s="4" t="s">
-        <v>722</v>
+        <v>644</v>
       </c>
       <c r="F81" s="4">
         <v>23</v>
       </c>
       <c r="G81" s="4" t="s">
-        <v>723</v>
+        <v>645</v>
       </c>
       <c r="H81" s="4" t="s">
-        <v>724</v>
+        <v>646</v>
       </c>
       <c r="I81" s="4">
         <v>6</v>
       </c>
       <c r="J81" s="4" t="s">
-        <v>725</v>
+        <v>647</v>
       </c>
       <c r="K81" s="4" t="s">
-        <v>726</v>
+        <v>648</v>
       </c>
     </row>
   </sheetData>
@@ -7639,20 +7892,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<SharedContentType xmlns="Microsoft.SharePoint.Taxonomy.ContentTypeSync" SourceId="23b92cde-922f-41e6-b057-b97c56e4b7ba" ContentTypeId="0x010100219570280C41E648BF656DDE63B7B0D1" PreviousValue="false"/>
-</file>
-
-<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Deltares Base document" ma:contentTypeID="0x010100219570280C41E648BF656DDE63B7B0D10054EEBB2AE3F1714290004D0D0F7C3351" ma:contentTypeVersion="15" ma:contentTypeDescription="Deltares base content type to use throughout the organisation" ma:contentTypeScope="" ma:versionID="f9d78a5aa7caff028b353cbc75c3def4">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="58dc3081-d8a1-4e92-884a-04f6ca0fc63f" xmlns:ns3="ef87d329-744f-4db8-a50d-fd0fb068d469" xmlns:ns4="3c72cb88-c173-4d20-ae9a-a85490e15368" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="c5c2d439c986e4b0afe7560b4c5fd060" ns2:_="" ns3:_="" ns4:_="">
     <xsd:import namespace="58dc3081-d8a1-4e92-884a-04f6ca0fc63f"/>
@@ -7902,6 +8141,20 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<SharedContentType xmlns="Microsoft.SharePoint.Taxonomy.ContentTypeSync" SourceId="23b92cde-922f-41e6-b057-b97c56e4b7ba" ContentTypeId="0x010100219570280C41E648BF656DDE63B7B0D1" PreviousValue="false"/>
+</file>
+
+<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{42E7B398-68E3-43FF-A497-8C0DD04B067B}">
   <ds:schemaRefs>
@@ -7915,22 +8168,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7E1D132F-3077-4734-A985-9BCCE0A3F853}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FAF7AE3B-0E9F-440B-A3CE-BD7504C7CC69}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="Microsoft.SharePoint.Taxonomy.ContentTypeSync"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7A85D606-E2EA-4637-B4C2-6ABA5779E1E2}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -7948,4 +8185,20 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FAF7AE3B-0E9F-440B-A3CE-BD7504C7CC69}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="Microsoft.SharePoint.Taxonomy.ContentTypeSync"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7E1D132F-3077-4734-A985-9BCCE0A3F853}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>